--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EDA1D-FC38-482C-BE05-324B6E825170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57846396-01C9-4C33-9DA1-D1CAE37452D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,6 +173,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -182,6 +183,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>C_ver_pos</t>
@@ -193,6 +195,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -202,6 +205,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>C_rot_pos</t>
@@ -213,6 +217,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -222,6 +227,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>P_pos</t>
@@ -242,6 +248,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -251,6 +258,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -301,6 +309,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -310,6 +319,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -378,6 +388,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -387,6 +398,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -398,6 +410,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -407,6 +420,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -503,6 +517,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -512,6 +527,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>E_1mm</t>
@@ -529,6 +545,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -538,6 +555,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m/s</t>
@@ -564,6 +582,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -573,6 +592,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -593,6 +613,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -602,6 +623,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -625,6 +647,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -634,6 +657,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -926,6 +950,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -935,6 +960,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>C_xxx</t>
@@ -964,6 +990,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>G</t>
@@ -973,6 +1000,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>O_xxx</t>
@@ -1083,6 +1111,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>speed</t>
@@ -1108,6 +1137,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -1123,6 +1153,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_speed</t>
@@ -1142,6 +1173,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>m/s</t>
@@ -1157,6 +1189,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_1mm</t>
@@ -1483,6 +1516,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -1508,6 +1542,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -1544,41 +1579,48 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1839,7 +1881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1984,27 +2026,129 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2017,87 +2161,12 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2136,42 +2205,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2456,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK84" sqref="AK84"/>
+    <sheetView tabSelected="1" topLeftCell="K80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y113" sqref="Y113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2477,29 +2510,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="M2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="M2" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
     </row>
     <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -2737,64 +2770,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
     </row>
     <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="M9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="58"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="92"/>
     </row>
     <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -2845,18 +2878,18 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="59" t="s">
+      <c r="T10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="87"/>
       <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3106,46 +3139,46 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="M17" s="62" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="M17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3196,14 +3229,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="59" t="s">
+      <c r="T18" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="61"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="87"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3425,40 +3458,40 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="66"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="80"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
       <c r="M25" s="34" t="s">
         <v>55</v>
       </c>
@@ -3523,11 +3556,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="67" t="s">
+      <c r="T26" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3599,16 +3632,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="69" t="s">
+      <c r="AA27" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -3790,54 +3823,54 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="64"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="66"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="M37" s="62" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="M37" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -3888,12 +3921,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="59" t="s">
+      <c r="T38" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3968,16 +4001,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="69" t="s">
+      <c r="AA39" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="70"/>
-      <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4149,38 +4182,38 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="64"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="66"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="79"/>
+      <c r="U42" s="79"/>
+      <c r="V42" s="80"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="69" t="s">
+      <c r="AA45" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="AB45" s="70"/>
-      <c r="AC45" s="70"/>
-      <c r="AD45" s="70"/>
-      <c r="AE45" s="70"/>
-      <c r="AF45" s="70"/>
-      <c r="AG45" s="70"/>
-      <c r="AH45" s="70"/>
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
@@ -4225,16 +4258,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="69" t="s">
+      <c r="AA51" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="AB51" s="70"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="70"/>
-      <c r="AE51" s="70"/>
-      <c r="AF51" s="70"/>
-      <c r="AG51" s="70"/>
-      <c r="AH51" s="70"/>
+      <c r="AB51" s="76"/>
+      <c r="AC51" s="76"/>
+      <c r="AD51" s="76"/>
+      <c r="AE51" s="76"/>
+      <c r="AF51" s="76"/>
+      <c r="AG51" s="76"/>
+      <c r="AH51" s="76"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4283,16 +4316,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="69" t="s">
+      <c r="AA57" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="70"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="70"/>
-      <c r="AG57" s="70"/>
-      <c r="AH57" s="70"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="76"/>
+      <c r="AH57" s="76"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4341,33 +4374,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="M64" s="71" t="s">
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="M64" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71"/>
-      <c r="T64" s="71"/>
-      <c r="U64" s="71"/>
-      <c r="V64" s="71"/>
-      <c r="W64" s="71"/>
-      <c r="X64" s="71"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="71"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4418,13 +4451,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="72" t="s">
+      <c r="T65" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="72"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="72"/>
-      <c r="X65" s="72"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="77"/>
+      <c r="W65" s="77"/>
+      <c r="X65" s="77"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4639,74 +4672,74 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="63"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="73" t="s">
+      <c r="N69" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="73"/>
-      <c r="W69" s="73"/>
-      <c r="X69" s="73"/>
-      <c r="Y69" s="73"/>
-      <c r="Z69" s="73"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="65"/>
+      <c r="V69" s="65"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="M73" s="101" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="M73" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="N73" s="102"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="102"/>
-      <c r="U73" s="102"/>
-      <c r="V73" s="102"/>
-      <c r="W73" s="102"/>
-      <c r="X73" s="102"/>
-      <c r="Y73" s="102"/>
-      <c r="Z73" s="102"/>
-      <c r="AA73" s="102"/>
-      <c r="AB73" s="102"/>
-      <c r="AC73" s="102"/>
-      <c r="AD73" s="102"/>
-      <c r="AE73" s="103"/>
-      <c r="AF73" s="103"/>
-      <c r="AG73" s="103"/>
-      <c r="AH73" s="103"/>
-      <c r="AI73" s="103"/>
-      <c r="AJ73" s="103"/>
-      <c r="AK73" s="103"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
+      <c r="AH73" s="72"/>
+      <c r="AI73" s="72"/>
+      <c r="AJ73" s="72"/>
+      <c r="AK73" s="72"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -4757,25 +4790,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="77" t="s">
+      <c r="T74" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="78"/>
-      <c r="V74" s="78"/>
-      <c r="W74" s="78"/>
-      <c r="X74" s="78"/>
-      <c r="Y74" s="78"/>
-      <c r="Z74" s="78"/>
-      <c r="AA74" s="78"/>
-      <c r="AB74" s="78"/>
-      <c r="AC74" s="78"/>
-      <c r="AD74" s="78"/>
-      <c r="AE74" s="78"/>
-      <c r="AF74" s="78"/>
-      <c r="AG74" s="78"/>
-      <c r="AH74" s="78"/>
-      <c r="AI74" s="78"/>
-      <c r="AJ74" s="79"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="59"/>
+      <c r="Y74" s="59"/>
+      <c r="Z74" s="59"/>
+      <c r="AA74" s="59"/>
+      <c r="AB74" s="59"/>
+      <c r="AC74" s="59"/>
+      <c r="AD74" s="59"/>
+      <c r="AE74" s="59"/>
+      <c r="AF74" s="59"/>
+      <c r="AG74" s="59"/>
+      <c r="AH74" s="59"/>
+      <c r="AI74" s="59"/>
+      <c r="AJ74" s="60"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4835,52 +4868,52 @@
       <c r="T75" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U75" s="99" t="s">
+      <c r="U75" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="V75" s="99" t="s">
+      <c r="V75" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="W75" s="99" t="s">
+      <c r="W75" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="X75" s="99" t="s">
+      <c r="X75" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="Y75" s="99" t="s">
+      <c r="Y75" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" s="99" t="s">
+      <c r="Z75" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="AA75" s="99" t="s">
+      <c r="AA75" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="AB75" s="99" t="s">
+      <c r="AB75" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="AC75" s="99" t="s">
+      <c r="AC75" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="AD75" s="99" t="s">
+      <c r="AD75" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="AE75" s="99" t="s">
+      <c r="AE75" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="AF75" s="99" t="s">
+      <c r="AF75" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="AG75" s="99" t="s">
+      <c r="AG75" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="AH75" s="99" t="s">
+      <c r="AH75" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="AI75" s="99" t="s">
+      <c r="AI75" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="AJ75" s="99" t="s">
+      <c r="AJ75" s="51" t="s">
         <v>277</v>
       </c>
       <c r="AK75" s="1" t="s">
@@ -5047,10 +5080,10 @@
       <c r="T77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U77" s="100" t="s">
+      <c r="U77" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="V77" s="100" t="s">
+      <c r="V77" s="52" t="s">
         <v>265</v>
       </c>
       <c r="W77" s="4" t="s">
@@ -5068,7 +5101,7 @@
       <c r="AA77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AB77" s="100" t="s">
+      <c r="AB77" s="52" t="s">
         <v>268</v>
       </c>
       <c r="AC77" s="4" t="s">
@@ -5077,22 +5110,22 @@
       <c r="AD77" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE77" s="100" t="s">
+      <c r="AE77" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="AF77" s="100" t="s">
+      <c r="AF77" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="AG77" s="100" t="s">
+      <c r="AG77" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="AH77" s="100" t="s">
+      <c r="AH77" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="AI77" s="100" t="s">
+      <c r="AI77" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="AJ77" s="100" t="s">
+      <c r="AJ77" s="52" t="s">
         <v>273</v>
       </c>
       <c r="AK77" s="4"/>
@@ -5108,71 +5141,71 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="54"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="63"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="104"/>
-      <c r="O78" s="105"/>
-      <c r="P78" s="105"/>
-      <c r="Q78" s="105"/>
-      <c r="R78" s="105"/>
-      <c r="S78" s="105"/>
-      <c r="T78" s="105"/>
-      <c r="U78" s="105"/>
-      <c r="V78" s="105"/>
-      <c r="W78" s="105"/>
-      <c r="X78" s="105"/>
-      <c r="Y78" s="105"/>
-      <c r="Z78" s="105"/>
-      <c r="AA78" s="105"/>
-      <c r="AB78" s="105"/>
-      <c r="AC78" s="105"/>
-      <c r="AD78" s="106"/>
-      <c r="AE78" s="106"/>
-      <c r="AF78" s="106"/>
-      <c r="AG78" s="106"/>
-      <c r="AH78" s="106"/>
-      <c r="AI78" s="107"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="50"/>
+      <c r="AA78" s="50"/>
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="50"/>
+      <c r="AD78" s="73"/>
+      <c r="AE78" s="73"/>
+      <c r="AF78" s="73"/>
+      <c r="AG78" s="73"/>
+      <c r="AH78" s="73"/>
+      <c r="AI78" s="74"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="M82" s="74" t="s">
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="M82" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
-      <c r="T82" s="75"/>
-      <c r="U82" s="75"/>
-      <c r="V82" s="75"/>
-      <c r="W82" s="75"/>
-      <c r="X82" s="75"/>
-      <c r="Y82" s="75"/>
-      <c r="Z82" s="75"/>
-      <c r="AA82" s="75"/>
-      <c r="AB82" s="75"/>
-      <c r="AC82" s="76"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="67"/>
+      <c r="Q82" s="67"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="67"/>
+      <c r="X82" s="67"/>
+      <c r="Y82" s="67"/>
+      <c r="Z82" s="67"/>
+      <c r="AA82" s="67"/>
+      <c r="AB82" s="67"/>
+      <c r="AC82" s="68"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5223,16 +5256,16 @@
       <c r="S83" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="77" t="s">
+      <c r="T83" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="78"/>
-      <c r="V83" s="78"/>
-      <c r="W83" s="78"/>
-      <c r="X83" s="78"/>
-      <c r="Y83" s="78"/>
-      <c r="Z83" s="78"/>
-      <c r="AA83" s="79"/>
+      <c r="U83" s="59"/>
+      <c r="V83" s="59"/>
+      <c r="W83" s="59"/>
+      <c r="X83" s="59"/>
+      <c r="Y83" s="59"/>
+      <c r="Z83" s="59"/>
+      <c r="AA83" s="60"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5289,28 +5322,28 @@
       <c r="S84" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="T84" s="99" t="s">
+      <c r="T84" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="U84" s="99" t="s">
+      <c r="U84" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="V84" s="99" t="s">
+      <c r="V84" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="W84" s="99" t="s">
+      <c r="W84" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="X84" s="99" t="s">
+      <c r="X84" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="Y84" s="99" t="s">
+      <c r="Y84" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="Z84" s="99" t="s">
+      <c r="Z84" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="AA84" s="99" t="s">
+      <c r="AA84" s="51" t="s">
         <v>287</v>
       </c>
       <c r="AB84" s="1" t="s">
@@ -5478,66 +5511,66 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="54"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="63"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="80"/>
-      <c r="O87" s="81"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
-      <c r="W87" s="81"/>
-      <c r="X87" s="81"/>
-      <c r="Y87" s="81"/>
-      <c r="Z87" s="81"/>
-      <c r="AA87" s="81"/>
-      <c r="AB87" s="81"/>
-      <c r="AC87" s="82"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="70"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="70"/>
+      <c r="U87" s="70"/>
+      <c r="V87" s="70"/>
+      <c r="W87" s="70"/>
+      <c r="X87" s="70"/>
+      <c r="Y87" s="70"/>
+      <c r="Z87" s="70"/>
+      <c r="AA87" s="70"/>
+      <c r="AB87" s="70"/>
+      <c r="AC87" s="71"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="M91" s="71" t="s">
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="M91" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
-      <c r="Y91" s="71"/>
-      <c r="Z91" s="71"/>
-      <c r="AA91" s="71"/>
-      <c r="AB91" s="71"/>
-      <c r="AC91" s="71"/>
-      <c r="AD91" s="71"/>
+      <c r="N91" s="57"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="57"/>
+      <c r="S91" s="57"/>
+      <c r="T91" s="57"/>
+      <c r="U91" s="57"/>
+      <c r="V91" s="57"/>
+      <c r="W91" s="57"/>
+      <c r="X91" s="57"/>
+      <c r="Y91" s="57"/>
+      <c r="Z91" s="57"/>
+      <c r="AA91" s="57"/>
+      <c r="AB91" s="57"/>
+      <c r="AC91" s="57"/>
+      <c r="AD91" s="57"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -5588,17 +5621,17 @@
       <c r="S92" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="77" t="s">
+      <c r="T92" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="78"/>
-      <c r="V92" s="78"/>
-      <c r="W92" s="78"/>
-      <c r="X92" s="78"/>
-      <c r="Y92" s="78"/>
-      <c r="Z92" s="78"/>
-      <c r="AA92" s="78"/>
-      <c r="AB92" s="79"/>
+      <c r="U92" s="59"/>
+      <c r="V92" s="59"/>
+      <c r="W92" s="59"/>
+      <c r="X92" s="59"/>
+      <c r="Y92" s="59"/>
+      <c r="Z92" s="59"/>
+      <c r="AA92" s="59"/>
+      <c r="AB92" s="60"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -5655,31 +5688,31 @@
       <c r="S93" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T93" s="108" t="s">
+      <c r="T93" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="U93" s="108" t="s">
+      <c r="U93" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="V93" s="108" t="s">
+      <c r="V93" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="W93" s="108" t="s">
+      <c r="W93" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="X93" s="108" t="s">
+      <c r="X93" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="Y93" s="99" t="s">
+      <c r="Y93" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="Z93" s="99" t="s">
+      <c r="Z93" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="AA93" s="99" t="s">
+      <c r="AA93" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="AB93" s="99" t="s">
+      <c r="AB93" s="51" t="s">
         <v>286</v>
       </c>
       <c r="AC93" s="1" t="s">
@@ -5823,7 +5856,7 @@
       <c r="S95" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="T95" s="110" t="s">
+      <c r="T95" s="55" t="s">
         <v>300</v>
       </c>
       <c r="U95" s="32"/>
@@ -5849,65 +5882,65 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="63"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="73"/>
-      <c r="O96" s="73"/>
-      <c r="P96" s="73"/>
-      <c r="Q96" s="73"/>
-      <c r="R96" s="73"/>
-      <c r="S96" s="73"/>
-      <c r="T96" s="73"/>
-      <c r="U96" s="73"/>
-      <c r="V96" s="73"/>
-      <c r="W96" s="73"/>
-      <c r="X96" s="73"/>
-      <c r="Y96" s="73"/>
-      <c r="Z96" s="73"/>
-      <c r="AA96" s="73"/>
-      <c r="AB96" s="73"/>
-      <c r="AC96" s="73"/>
-      <c r="AD96" s="73"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="65"/>
+      <c r="S96" s="65"/>
+      <c r="T96" s="65"/>
+      <c r="U96" s="65"/>
+      <c r="V96" s="65"/>
+      <c r="W96" s="65"/>
+      <c r="X96" s="65"/>
+      <c r="Y96" s="65"/>
+      <c r="Z96" s="65"/>
+      <c r="AA96" s="65"/>
+      <c r="AB96" s="65"/>
+      <c r="AC96" s="65"/>
+      <c r="AD96" s="65"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="50"/>
-      <c r="M100" s="71" t="s">
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="M100" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="N100" s="71"/>
-      <c r="O100" s="71"/>
-      <c r="P100" s="71"/>
-      <c r="Q100" s="71"/>
-      <c r="R100" s="71"/>
-      <c r="S100" s="71"/>
-      <c r="T100" s="71"/>
-      <c r="U100" s="71"/>
-      <c r="V100" s="71"/>
-      <c r="W100" s="71"/>
-      <c r="X100" s="71"/>
-      <c r="Y100" s="71"/>
-      <c r="Z100" s="71"/>
-      <c r="AA100" s="71"/>
-      <c r="AB100" s="71"/>
+      <c r="N100" s="57"/>
+      <c r="O100" s="57"/>
+      <c r="P100" s="57"/>
+      <c r="Q100" s="57"/>
+      <c r="R100" s="57"/>
+      <c r="S100" s="57"/>
+      <c r="T100" s="57"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="57"/>
+      <c r="W100" s="57"/>
+      <c r="X100" s="57"/>
+      <c r="Y100" s="57"/>
+      <c r="Z100" s="57"/>
+      <c r="AA100" s="57"/>
+      <c r="AB100" s="57"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -5958,15 +5991,15 @@
       <c r="S101" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="77" t="s">
+      <c r="T101" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="78"/>
-      <c r="V101" s="78"/>
-      <c r="W101" s="78"/>
-      <c r="X101" s="78"/>
-      <c r="Y101" s="78"/>
-      <c r="Z101" s="79"/>
+      <c r="U101" s="59"/>
+      <c r="V101" s="59"/>
+      <c r="W101" s="59"/>
+      <c r="X101" s="59"/>
+      <c r="Y101" s="59"/>
+      <c r="Z101" s="60"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6023,25 +6056,25 @@
       <c r="S102" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T102" s="99" t="s">
+      <c r="T102" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="U102" s="99" t="s">
+      <c r="U102" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="V102" s="99" t="s">
+      <c r="V102" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="W102" s="99" t="s">
+      <c r="W102" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="X102" s="108" t="s">
+      <c r="X102" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="Y102" s="109" t="s">
+      <c r="Y102" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="Z102" s="109" t="s">
+      <c r="Z102" s="27" t="s">
         <v>302</v>
       </c>
       <c r="AA102" s="1" t="s">
@@ -6118,7 +6151,9 @@
       <c r="Y103" s="3">
         <v>4</v>
       </c>
-      <c r="Z103" s="48"/>
+      <c r="Z103" s="3">
+        <v>4</v>
+      </c>
       <c r="AA103" s="3">
         <v>1</v>
       </c>
@@ -6127,7 +6162,7 @@
       </c>
       <c r="AF103" s="43">
         <f>SUM(N103:AB103)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
@@ -6191,7 +6226,7 @@
       </c>
       <c r="X104" s="32"/>
       <c r="Y104" s="32"/>
-      <c r="Z104" s="49"/>
+      <c r="Z104" s="48"/>
       <c r="AA104" s="4"/>
       <c r="AB104" s="4">
         <v>23</v>
@@ -6201,87 +6236,87 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="54"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="63"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
-      <c r="T105" s="83"/>
-      <c r="U105" s="83"/>
-      <c r="V105" s="83"/>
-      <c r="W105" s="83"/>
-      <c r="X105" s="83"/>
-      <c r="Y105" s="83"/>
-      <c r="Z105" s="83"/>
-      <c r="AA105" s="83"/>
-      <c r="AB105" s="83"/>
+      <c r="N105" s="64"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="64"/>
+      <c r="T105" s="64"/>
+      <c r="U105" s="64"/>
+      <c r="V105" s="64"/>
+      <c r="W105" s="64"/>
+      <c r="X105" s="64"/>
+      <c r="Y105" s="64"/>
+      <c r="Z105" s="64"/>
+      <c r="AA105" s="64"/>
+      <c r="AB105" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="M100:AB100"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="M91:AD91"/>
-    <mergeCell ref="T92:AB92"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="N96:AD96"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="M82:AC82"/>
-    <mergeCell ref="T83:AA83"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="N87:AC87"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="AE73:AK73"/>
-    <mergeCell ref="AD78:AI78"/>
-    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="N9:AE9"/>
+    <mergeCell ref="T10:AC10"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="N30:V30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
     <mergeCell ref="AA57:AH57"/>
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="M64:Z64"/>
     <mergeCell ref="T65:X65"/>
     <mergeCell ref="D69:K69"/>
     <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="N42:V42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="N30:V30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="T10:AC10"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="N9:AE9"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="AE73:AK73"/>
+    <mergeCell ref="AD78:AI78"/>
+    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="M82:AC82"/>
+    <mergeCell ref="T83:AA83"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="N87:AC87"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="M91:AD91"/>
+    <mergeCell ref="T92:AB92"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="N96:AD96"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="M100:AB100"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6306,38 +6341,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="V2" s="85" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="V2" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6361,17 +6396,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6665,64 +6700,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="73" t="s">
+      <c r="W7" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="N9" s="85" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="N9" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -6970,65 +7005,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Z16" s="85" t="s">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Z16" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7052,21 +7087,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7390,45 +7425,50 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="73" t="s">
+      <c r="AA21" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="W7:AE7"/>
     <mergeCell ref="Z16:AI16"/>
     <mergeCell ref="J17:V17"/>
     <mergeCell ref="D21:X21"/>
@@ -7438,11 +7478,6 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="W7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7471,17 +7506,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -7599,31 +7634,31 @@
     </row>
     <row r="7" spans="3:25" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="N8" s="87" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="N8" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
     </row>
     <row r="9" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
@@ -7905,32 +7940,32 @@
     </row>
     <row r="14" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="O15" s="87" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="O15" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
     </row>
     <row r="16" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
@@ -7954,10 +7989,10 @@
       <c r="I16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="72"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
@@ -8289,31 +8324,31 @@
     </row>
     <row r="23" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="3:26" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="N24" s="87" t="s">
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="N24" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
     </row>
     <row r="25" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
@@ -8664,7 +8699,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="98" t="s">
         <v>201</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -8687,7 +8722,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="90"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>202</v>
       </c>
@@ -8726,20 +8761,20 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="92"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
@@ -8760,7 +8795,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="92"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="12" t="s">
         <v>209</v>
       </c>
@@ -9208,18 +9243,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -9343,17 +9378,17 @@
       <c r="B7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57846396-01C9-4C33-9DA1-D1CAE37452D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F886E83-37EF-4BF6-BC0B-958FAB631EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="306">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -1557,6 +1557,10 @@
       </rPr>
       <t>min_speed</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2489,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y113" sqref="Y113"/>
+    <sheetView tabSelected="1" topLeftCell="O70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5334,7 +5338,7 @@
       <c r="W84" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="X84" s="51" t="s">
+      <c r="X84" s="27" t="s">
         <v>297</v>
       </c>
       <c r="Y84" s="51" t="s">
@@ -5862,7 +5866,9 @@
       <c r="U95" s="32"/>
       <c r="V95" s="32"/>
       <c r="W95" s="32"/>
-      <c r="X95" s="32"/>
+      <c r="X95" s="32" t="s">
+        <v>305</v>
+      </c>
       <c r="Y95" s="32" t="s">
         <v>127</v>
       </c>

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F886E83-37EF-4BF6-BC0B-958FAB631EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17F64E-8A6B-4A64-AFC5-95E619763A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
     <sheet name="设置协议" sheetId="9" r:id="rId2"/>
     <sheet name="控制协议" sheetId="8" r:id="rId3"/>
     <sheet name="协议类型、功能码表" sheetId="6" r:id="rId4"/>
-    <sheet name="错误警报" sheetId="10" r:id="rId5"/>
-    <sheet name="协议框架" sheetId="5" r:id="rId6"/>
+    <sheet name="数据协议" sheetId="11" r:id="rId5"/>
+    <sheet name="错误警报" sheetId="10" r:id="rId6"/>
+    <sheet name="协议框架" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="376">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -823,54 +824,6 @@
     <t>错误动作</t>
   </si>
   <si>
-    <t>控制：运行：寻找包埋盒</t>
-  </si>
-  <si>
-    <t>控制应答：运行：寻找包埋盒</t>
-  </si>
-  <si>
-    <t>盒槽</t>
-  </si>
-  <si>
-    <t>0 不指定
-1-6指定</t>
-  </si>
-  <si>
-    <t>1请求失败
-2执行完成</t>
-  </si>
-  <si>
-    <t>0繁忙
-当前槽位</t>
-  </si>
-  <si>
-    <t>0请求成功</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>0B</t>
-  </si>
-  <si>
-    <t>2/3缺盒</t>
-  </si>
-  <si>
-    <t>缺盒槽位</t>
-  </si>
-  <si>
-    <t>控制：运行：推出包埋盒</t>
-  </si>
-  <si>
-    <t>控制应答：运行：推出包埋盒</t>
-  </si>
-  <si>
-    <t>1请求失败</t>
-  </si>
-  <si>
-    <t>0繁忙</t>
-  </si>
-  <si>
     <t>1.协议类型
 TYPE</t>
   </si>
@@ -933,13 +886,7 @@
     <t>设备信息</t>
   </si>
   <si>
-    <t>进料盒个数</t>
-  </si>
-  <si>
     <t>GE_xxx</t>
-  </si>
-  <si>
-    <t>玻片入料</t>
   </si>
   <si>
     <t>位置状态</t>
@@ -965,9 +912,6 @@
       </rPr>
       <t>C_xxx</t>
     </r>
-  </si>
-  <si>
-    <t>玻片出料</t>
   </si>
   <si>
     <t>气路状态</t>
@@ -1561,6 +1505,359 @@
   </si>
   <si>
     <t>mm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少载玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少盖玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少存储盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少装载盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载盒个数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE任务序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机复位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机复位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准原点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准装载槽前端</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准载玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>读准载玻片后端</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC任务序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：调试：GE 玻片进盒任务调试（调试无应答）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：调试：GC 玻片夹手任务调试（调试无应答）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：调试：GP 封片任务调试（调试无应答）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：调试：GO 存储出料任务调试（调试无应答）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹手垂直复位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹手旋转复位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹手下降</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹手上升</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准旋转原点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹紧玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准旋转水平</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP任务序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准盖玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸盘下降</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸盘上升</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少喷胶头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准喷胶位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准封片位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始封片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准水平原点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准水平终点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准下一存储器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：运行：进缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：运行：进缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：运行：出缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：运行：出缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：运行：开始运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：运行：开始运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：运行：暂停运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：运行：暂停运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议尾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：运行：恢复运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：缺少载玻片</t>
+  </si>
+  <si>
+    <t>控制应答：警报：缺少盖玻片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：缺少存储盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：缺少装载盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：传感器错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：缺少喷胶头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置：数据：封片个数增加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置：数据：装载盒个数增加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：GE任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务步骤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：GC任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：GP任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制应答：警报：GO任务超时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 关闭
+1 开启</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0请求成功
+2执行完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1636,7 +1933,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1718,6 +2015,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +2206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1973,9 +2294,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2053,6 +2371,24 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2174,8 +2510,26 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2191,6 +2545,24 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2493,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
@@ -2514,29 +2886,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="M2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="M2" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
     </row>
     <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -2566,34 +2938,34 @@
       <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2744,29 +3116,29 @@
       <c r="M6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32">
+      <c r="U6" s="31"/>
+      <c r="V6" s="31">
         <v>23</v>
       </c>
     </row>
@@ -2774,64 +3146,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
     </row>
     <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="M9" s="33" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="92"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
     </row>
     <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -2882,18 +3254,18 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="83" t="s">
+      <c r="T10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="87"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="92"/>
       <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3072,7 +3444,7 @@
       <c r="AE12" s="3">
         <v>1</v>
       </c>
-      <c r="AG12" s="43">
+      <c r="AG12" s="42">
         <f>SUM(N12:AE12)</f>
         <v>18</v>
       </c>
@@ -3143,46 +3515,46 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="M17" s="81" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="M17" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3233,14 +3605,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="83" t="s">
+      <c r="T18" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="87"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="92"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3395,7 +3767,7 @@
       <c r="AA20" s="3">
         <v>1</v>
       </c>
-      <c r="AG20" s="43">
+      <c r="AG20" s="42">
         <f>SUM(N20:AA20)</f>
         <v>35</v>
       </c>
@@ -3462,54 +3834,54 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="80"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="85"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="M25" s="34" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="M25" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
     </row>
     <row r="26" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
@@ -3560,11 +3932,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="85" t="s">
+      <c r="T26" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3636,16 +4008,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="75" t="s">
+      <c r="AA27" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="76"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="76"/>
-      <c r="AG27" s="76"/>
-      <c r="AH27" s="76"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -3711,7 +4083,7 @@
       <c r="X28" s="3">
         <v>1</v>
       </c>
-      <c r="Y28" s="43">
+      <c r="Y28" s="42">
         <f>SUM(N28:X28)</f>
         <v>14</v>
       </c>
@@ -3827,54 +4199,54 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="78"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="M37" s="81" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="M37" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="82"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -3925,12 +4297,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="83" t="s">
+      <c r="T38" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="84"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4005,16 +4377,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="75" t="s">
+      <c r="AA39" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AB39" s="76"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="76"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="76"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="81"/>
+      <c r="AF39" s="81"/>
+      <c r="AG39" s="81"/>
+      <c r="AH39" s="81"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4083,7 +4455,7 @@
       <c r="Y40" s="3">
         <v>1</v>
       </c>
-      <c r="Z40" s="43">
+      <c r="Z40" s="42">
         <f>SUM(N40:Y40)</f>
         <v>12</v>
       </c>
@@ -4186,38 +4558,38 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="78"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
-      <c r="V42" s="80"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="85"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="75" t="s">
+      <c r="AA45" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="76"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="81"/>
+      <c r="AF45" s="81"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="81"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
@@ -4262,16 +4634,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="75" t="s">
+      <c r="AA51" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="AB51" s="76"/>
-      <c r="AC51" s="76"/>
-      <c r="AD51" s="76"/>
-      <c r="AE51" s="76"/>
-      <c r="AF51" s="76"/>
-      <c r="AG51" s="76"/>
-      <c r="AH51" s="76"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="81"/>
+      <c r="AD51" s="81"/>
+      <c r="AE51" s="81"/>
+      <c r="AF51" s="81"/>
+      <c r="AG51" s="81"/>
+      <c r="AH51" s="81"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4320,16 +4692,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="75" t="s">
+      <c r="AA57" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="76"/>
+      <c r="AB57" s="81"/>
+      <c r="AC57" s="81"/>
+      <c r="AD57" s="81"/>
+      <c r="AE57" s="81"/>
+      <c r="AF57" s="81"/>
+      <c r="AG57" s="81"/>
+      <c r="AH57" s="81"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4378,33 +4750,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="M64" s="57" t="s">
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="M64" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="62"/>
+      <c r="W64" s="62"/>
+      <c r="X64" s="62"/>
+      <c r="Y64" s="62"/>
+      <c r="Z64" s="62"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4455,13 +4827,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="77" t="s">
+      <c r="T65" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="77"/>
-      <c r="V65" s="77"/>
-      <c r="W65" s="77"/>
-      <c r="X65" s="77"/>
+      <c r="U65" s="82"/>
+      <c r="V65" s="82"/>
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4610,7 +4982,7 @@
       <c r="Z67" s="3">
         <v>1</v>
       </c>
-      <c r="AG67" s="43">
+      <c r="AG67" s="42">
         <f>SUM(N67:Z67)</f>
         <v>15</v>
       </c>
@@ -4676,74 +5048,74 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="63"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="68"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="65" t="s">
+      <c r="N69" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="O69" s="65"/>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="65"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="65"/>
-      <c r="V69" s="65"/>
-      <c r="W69" s="65"/>
-      <c r="X69" s="65"/>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="65"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="M73" s="34" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="M73" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
-      <c r="AH73" s="72"/>
-      <c r="AI73" s="72"/>
-      <c r="AJ73" s="72"/>
-      <c r="AK73" s="72"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="77"/>
+      <c r="AH73" s="77"/>
+      <c r="AI73" s="77"/>
+      <c r="AJ73" s="77"/>
+      <c r="AK73" s="77"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -4794,25 +5166,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="58" t="s">
+      <c r="T74" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="59"/>
-      <c r="V74" s="59"/>
-      <c r="W74" s="59"/>
-      <c r="X74" s="59"/>
-      <c r="Y74" s="59"/>
-      <c r="Z74" s="59"/>
-      <c r="AA74" s="59"/>
-      <c r="AB74" s="59"/>
-      <c r="AC74" s="59"/>
-      <c r="AD74" s="59"/>
-      <c r="AE74" s="59"/>
-      <c r="AF74" s="59"/>
-      <c r="AG74" s="59"/>
-      <c r="AH74" s="59"/>
-      <c r="AI74" s="59"/>
-      <c r="AJ74" s="60"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="64"/>
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="64"/>
+      <c r="AD74" s="64"/>
+      <c r="AE74" s="64"/>
+      <c r="AF74" s="64"/>
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="64"/>
+      <c r="AI74" s="64"/>
+      <c r="AJ74" s="65"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4872,53 +5244,53 @@
       <c r="T75" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U75" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="V75" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="W75" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="X75" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y75" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z75" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA75" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB75" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC75" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD75" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE75" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF75" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG75" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH75" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI75" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ75" s="51" t="s">
-        <v>277</v>
+      <c r="U75" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="V75" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="W75" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="X75" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y75" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z75" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA75" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB75" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC75" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD75" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE75" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF75" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG75" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH75" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI75" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ75" s="50" t="s">
+        <v>259</v>
       </c>
       <c r="AK75" s="1" t="s">
         <v>19</v>
@@ -5084,11 +5456,11 @@
       <c r="T77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U77" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="V77" s="52" t="s">
-        <v>265</v>
+      <c r="U77" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="V77" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="W77" s="4" t="s">
         <v>119</v>
@@ -5105,8 +5477,8 @@
       <c r="AA77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AB77" s="52" t="s">
-        <v>268</v>
+      <c r="AB77" s="51" t="s">
+        <v>250</v>
       </c>
       <c r="AC77" s="4" t="s">
         <v>120</v>
@@ -5114,29 +5486,29 @@
       <c r="AD77" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE77" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF77" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG77" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH77" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI77" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ77" s="52" t="s">
-        <v>273</v>
+      <c r="AE77" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF77" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG77" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH77" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI77" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ77" s="51" t="s">
+        <v>255</v>
       </c>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4">
         <v>23</v>
       </c>
-      <c r="AM77" s="43">
+      <c r="AM77" s="42">
         <f>SUM(N76:AL76)</f>
         <v>62</v>
       </c>
@@ -5145,71 +5517,71 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="63"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="68"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="49"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="50"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="50"/>
-      <c r="V78" s="50"/>
-      <c r="W78" s="50"/>
-      <c r="X78" s="50"/>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="50"/>
-      <c r="AA78" s="50"/>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="50"/>
-      <c r="AD78" s="73"/>
-      <c r="AE78" s="73"/>
-      <c r="AF78" s="73"/>
-      <c r="AG78" s="73"/>
-      <c r="AH78" s="73"/>
-      <c r="AI78" s="74"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="49"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="49"/>
+      <c r="V78" s="49"/>
+      <c r="W78" s="49"/>
+      <c r="X78" s="49"/>
+      <c r="Y78" s="49"/>
+      <c r="Z78" s="49"/>
+      <c r="AA78" s="49"/>
+      <c r="AB78" s="49"/>
+      <c r="AC78" s="49"/>
+      <c r="AD78" s="78"/>
+      <c r="AE78" s="78"/>
+      <c r="AF78" s="78"/>
+      <c r="AG78" s="78"/>
+      <c r="AH78" s="78"/>
+      <c r="AI78" s="79"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="M82" s="66" t="s">
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="M82" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
-      <c r="X82" s="67"/>
-      <c r="Y82" s="67"/>
-      <c r="Z82" s="67"/>
-      <c r="AA82" s="67"/>
-      <c r="AB82" s="67"/>
-      <c r="AC82" s="68"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="72"/>
+      <c r="V82" s="72"/>
+      <c r="W82" s="72"/>
+      <c r="X82" s="72"/>
+      <c r="Y82" s="72"/>
+      <c r="Z82" s="72"/>
+      <c r="AA82" s="72"/>
+      <c r="AB82" s="72"/>
+      <c r="AC82" s="73"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5239,37 +5611,37 @@
       <c r="K83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="31" t="s">
+      <c r="M83" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N83" s="31" t="s">
+      <c r="N83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="31" t="s">
+      <c r="O83" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="31" t="s">
+      <c r="P83" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="36" t="s">
+      <c r="Q83" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R83" s="37" t="s">
+      <c r="R83" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S83" s="38" t="s">
+      <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="58" t="s">
+      <c r="T83" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="59"/>
-      <c r="AA83" s="60"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="64"/>
+      <c r="Y83" s="64"/>
+      <c r="Z83" s="64"/>
+      <c r="AA83" s="65"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5277,7 +5649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:32" s="30" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:32" s="29" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="27" t="s">
         <v>12</v>
       </c>
@@ -5290,13 +5662,13 @@
       <c r="F84" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="44" t="s">
+      <c r="G84" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="45" t="s">
+      <c r="H84" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="46" t="s">
+      <c r="I84" s="45" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="27" t="s">
@@ -5317,38 +5689,38 @@
       <c r="P84" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q84" s="44" t="s">
+      <c r="Q84" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R84" s="45" t="s">
+      <c r="R84" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S84" s="46" t="s">
+      <c r="S84" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T84" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="U84" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="V84" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="W84" s="51" t="s">
-        <v>296</v>
+      <c r="T84" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="U84" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="V84" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="W84" s="50" t="s">
+        <v>278</v>
       </c>
       <c r="X84" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y84" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z84" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA84" s="51" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="Y84" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z84" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA84" s="50" t="s">
+        <v>269</v>
       </c>
       <c r="AB84" s="1" t="s">
         <v>19</v>
@@ -5436,7 +5808,7 @@
       <c r="AC85" s="3">
         <v>1</v>
       </c>
-      <c r="AF85" s="43">
+      <c r="AF85" s="42">
         <f>SUM(N85:AC85)</f>
         <v>34</v>
       </c>
@@ -5470,37 +5842,37 @@
       <c r="M86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N86" s="32" t="s">
+      <c r="N86" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O86" s="32" t="s">
+      <c r="O86" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="P86" s="32" t="s">
+      <c r="P86" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q86" s="40" t="s">
+      <c r="Q86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R86" s="41" t="s">
+      <c r="R86" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="S86" s="42" t="s">
+      <c r="S86" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="T86" s="32" t="s">
+      <c r="T86" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="U86" s="32" t="s">
+      <c r="U86" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="V86" s="47" t="s">
+      <c r="V86" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="W86" s="32" t="s">
+      <c r="W86" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="X86" s="32" t="s">
+      <c r="X86" s="31" t="s">
         <v>127</v>
       </c>
       <c r="Y86" s="4"/>
@@ -5515,66 +5887,66 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="63"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="69"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="70"/>
-      <c r="S87" s="70"/>
-      <c r="T87" s="70"/>
-      <c r="U87" s="70"/>
-      <c r="V87" s="70"/>
-      <c r="W87" s="70"/>
-      <c r="X87" s="70"/>
-      <c r="Y87" s="70"/>
-      <c r="Z87" s="70"/>
-      <c r="AA87" s="70"/>
-      <c r="AB87" s="70"/>
-      <c r="AC87" s="71"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="75"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
+      <c r="W87" s="75"/>
+      <c r="X87" s="75"/>
+      <c r="Y87" s="75"/>
+      <c r="Z87" s="75"/>
+      <c r="AA87" s="75"/>
+      <c r="AB87" s="75"/>
+      <c r="AC87" s="76"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="56" t="s">
+      <c r="C91" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="M91" s="57" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="M91" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="N91" s="57"/>
-      <c r="O91" s="57"/>
-      <c r="P91" s="57"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="57"/>
-      <c r="S91" s="57"/>
-      <c r="T91" s="57"/>
-      <c r="U91" s="57"/>
-      <c r="V91" s="57"/>
-      <c r="W91" s="57"/>
-      <c r="X91" s="57"/>
-      <c r="Y91" s="57"/>
-      <c r="Z91" s="57"/>
-      <c r="AA91" s="57"/>
-      <c r="AB91" s="57"/>
-      <c r="AC91" s="57"/>
-      <c r="AD91" s="57"/>
+      <c r="N91" s="62"/>
+      <c r="O91" s="62"/>
+      <c r="P91" s="62"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="62"/>
+      <c r="S91" s="62"/>
+      <c r="T91" s="62"/>
+      <c r="U91" s="62"/>
+      <c r="V91" s="62"/>
+      <c r="W91" s="62"/>
+      <c r="X91" s="62"/>
+      <c r="Y91" s="62"/>
+      <c r="Z91" s="62"/>
+      <c r="AA91" s="62"/>
+      <c r="AB91" s="62"/>
+      <c r="AC91" s="62"/>
+      <c r="AD91" s="62"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -5604,38 +5976,38 @@
       <c r="K92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M92" s="31" t="s">
+      <c r="M92" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N92" s="31" t="s">
+      <c r="N92" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O92" s="31" t="s">
+      <c r="O92" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P92" s="31" t="s">
+      <c r="P92" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q92" s="36" t="s">
+      <c r="Q92" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R92" s="37" t="s">
+      <c r="R92" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S92" s="38" t="s">
+      <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="58" t="s">
+      <c r="T92" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
-      <c r="W92" s="59"/>
-      <c r="X92" s="59"/>
-      <c r="Y92" s="59"/>
-      <c r="Z92" s="59"/>
-      <c r="AA92" s="59"/>
-      <c r="AB92" s="60"/>
+      <c r="U92" s="64"/>
+      <c r="V92" s="64"/>
+      <c r="W92" s="64"/>
+      <c r="X92" s="64"/>
+      <c r="Y92" s="64"/>
+      <c r="Z92" s="64"/>
+      <c r="AA92" s="64"/>
+      <c r="AB92" s="65"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -5692,32 +6064,32 @@
       <c r="S93" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T93" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="U93" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="V93" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="W93" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="X93" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y93" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z93" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA93" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB93" s="51" t="s">
-        <v>286</v>
+      <c r="T93" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="U93" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="V93" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="W93" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="X93" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y93" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z93" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA93" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB93" s="50" t="s">
+        <v>268</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>19</v>
@@ -5808,7 +6180,7 @@
       <c r="AD94" s="3">
         <v>1</v>
       </c>
-      <c r="AF94" s="43">
+      <c r="AF94" s="42">
         <f>SUM(N94:AD94)</f>
         <v>33</v>
       </c>
@@ -5842,43 +6214,43 @@
       <c r="M95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N95" s="32" t="s">
+      <c r="N95" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O95" s="32" t="s">
+      <c r="O95" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="P95" s="32" t="s">
+      <c r="P95" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q95" s="40" t="s">
+      <c r="Q95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R95" s="41" t="s">
+      <c r="R95" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="S95" s="42" t="s">
+      <c r="S95" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="T95" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="U95" s="32"/>
-      <c r="V95" s="32"/>
-      <c r="W95" s="32"/>
-      <c r="X95" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y95" s="32" t="s">
+      <c r="T95" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="U95" s="31"/>
+      <c r="V95" s="31"/>
+      <c r="W95" s="31"/>
+      <c r="X95" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y95" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="Z95" s="32" t="s">
+      <c r="Z95" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="AA95" s="32" t="s">
+      <c r="AA95" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AB95" s="32"/>
+      <c r="AB95" s="31"/>
       <c r="AC95" s="4"/>
       <c r="AD95" s="4">
         <v>23</v>
@@ -5888,65 +6260,65 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="61"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="63"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
-      <c r="S96" s="65"/>
-      <c r="T96" s="65"/>
-      <c r="U96" s="65"/>
-      <c r="V96" s="65"/>
-      <c r="W96" s="65"/>
-      <c r="X96" s="65"/>
-      <c r="Y96" s="65"/>
-      <c r="Z96" s="65"/>
-      <c r="AA96" s="65"/>
-      <c r="AB96" s="65"/>
-      <c r="AC96" s="65"/>
-      <c r="AD96" s="65"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+      <c r="T96" s="70"/>
+      <c r="U96" s="70"/>
+      <c r="V96" s="70"/>
+      <c r="W96" s="70"/>
+      <c r="X96" s="70"/>
+      <c r="Y96" s="70"/>
+      <c r="Z96" s="70"/>
+      <c r="AA96" s="70"/>
+      <c r="AB96" s="70"/>
+      <c r="AC96" s="70"/>
+      <c r="AD96" s="70"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="M100" s="57" t="s">
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="M100" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="N100" s="57"/>
-      <c r="O100" s="57"/>
-      <c r="P100" s="57"/>
-      <c r="Q100" s="57"/>
-      <c r="R100" s="57"/>
-      <c r="S100" s="57"/>
-      <c r="T100" s="57"/>
-      <c r="U100" s="57"/>
-      <c r="V100" s="57"/>
-      <c r="W100" s="57"/>
-      <c r="X100" s="57"/>
-      <c r="Y100" s="57"/>
-      <c r="Z100" s="57"/>
-      <c r="AA100" s="57"/>
-      <c r="AB100" s="57"/>
+      <c r="N100" s="62"/>
+      <c r="O100" s="62"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="62"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="62"/>
+      <c r="V100" s="62"/>
+      <c r="W100" s="62"/>
+      <c r="X100" s="62"/>
+      <c r="Y100" s="62"/>
+      <c r="Z100" s="62"/>
+      <c r="AA100" s="62"/>
+      <c r="AB100" s="62"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -5976,36 +6348,36 @@
       <c r="K101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="31" t="s">
+      <c r="M101" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N101" s="31" t="s">
+      <c r="N101" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="31" t="s">
+      <c r="O101" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="31" t="s">
+      <c r="P101" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="36" t="s">
+      <c r="Q101" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R101" s="37" t="s">
+      <c r="R101" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S101" s="38" t="s">
+      <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="58" t="s">
+      <c r="T101" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="59"/>
-      <c r="V101" s="59"/>
-      <c r="W101" s="59"/>
-      <c r="X101" s="59"/>
-      <c r="Y101" s="59"/>
-      <c r="Z101" s="60"/>
+      <c r="U101" s="64"/>
+      <c r="V101" s="64"/>
+      <c r="W101" s="64"/>
+      <c r="X101" s="64"/>
+      <c r="Y101" s="64"/>
+      <c r="Z101" s="65"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6062,26 +6434,26 @@
       <c r="S102" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T102" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="U102" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="V102" s="51" t="s">
-        <v>292</v>
+      <c r="T102" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="U102" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="V102" s="50" t="s">
+        <v>274</v>
       </c>
       <c r="W102" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="X102" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y102" s="54" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="X102" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y102" s="53" t="s">
+        <v>271</v>
       </c>
       <c r="Z102" s="27" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>19</v>
@@ -6166,7 +6538,7 @@
       <c r="AB103" s="3">
         <v>1</v>
       </c>
-      <c r="AF103" s="43">
+      <c r="AF103" s="42">
         <f>SUM(N103:AB103)</f>
         <v>36</v>
       </c>
@@ -6200,39 +6572,39 @@
       <c r="M104" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N104" s="32" t="s">
+      <c r="N104" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O104" s="32" t="s">
+      <c r="O104" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="P104" s="32" t="s">
+      <c r="P104" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q104" s="40" t="s">
+      <c r="Q104" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R104" s="41" t="s">
+      <c r="R104" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="S104" s="42" t="s">
+      <c r="S104" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="T104" s="32" t="s">
+      <c r="T104" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="U104" s="32" t="s">
+      <c r="U104" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="V104" s="32" t="s">
+      <c r="V104" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="W104" s="32" t="s">
+      <c r="W104" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="48"/>
+      <c r="X104" s="31"/>
+      <c r="Y104" s="31"/>
+      <c r="Z104" s="47"/>
       <c r="AA104" s="4"/>
       <c r="AB104" s="4">
         <v>23</v>
@@ -6242,32 +6614,32 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="63"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="68"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="64"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="64"/>
-      <c r="T105" s="64"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="64"/>
-      <c r="W105" s="64"/>
-      <c r="X105" s="64"/>
-      <c r="Y105" s="64"/>
-      <c r="Z105" s="64"/>
-      <c r="AA105" s="64"/>
-      <c r="AB105" s="64"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="69"/>
+      <c r="P105" s="69"/>
+      <c r="Q105" s="69"/>
+      <c r="R105" s="69"/>
+      <c r="S105" s="69"/>
+      <c r="T105" s="69"/>
+      <c r="U105" s="69"/>
+      <c r="V105" s="69"/>
+      <c r="W105" s="69"/>
+      <c r="X105" s="69"/>
+      <c r="Y105" s="69"/>
+      <c r="Z105" s="69"/>
+      <c r="AA105" s="69"/>
+      <c r="AB105" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -6334,7 +6706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -6347,38 +6719,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="V2" s="93" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="V2" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6402,17 +6774,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6706,64 +7078,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="65" t="s">
+      <c r="W7" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="N9" s="93" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="N9" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7011,65 +7383,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Z16" s="93" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Z16" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7093,21 +7465,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7431,41 +7803,41 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="65" t="s">
+      <c r="AA21" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -7493,10 +7865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C2:Z31"/>
+  <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63:X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7511,20 +7883,20 @@
     <col min="22" max="22" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="95" t="s">
+    <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C2" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+    </row>
+    <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7582,7 +7954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7611,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7638,1048 +8010,2561 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:25" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C8" s="95" t="s">
+    <row r="7" spans="3:24" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="3:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C16" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="N16" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="O16" s="104"/>
+      <c r="Q16" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="R16" s="104"/>
+      <c r="T16" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="U16" s="104"/>
+      <c r="W16" s="104" t="s">
+        <v>334</v>
+      </c>
+      <c r="X16" s="104"/>
+    </row>
+    <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="R17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="U17" s="26">
+        <v>0</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="X17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="O18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="R18" s="26">
+        <v>1</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="U18" s="26">
+        <v>1</v>
+      </c>
+      <c r="W18" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="X18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="O19" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="R19" s="26">
+        <v>2</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="U19" s="26">
+        <v>2</v>
+      </c>
+      <c r="W19" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="X19" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>23</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="O20" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="R20" s="26">
+        <v>3</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="U20" s="26">
+        <v>3</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="X20" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="N21" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="O21" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="R21" s="26">
+        <v>4</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="U21" s="26">
+        <v>4</v>
+      </c>
+      <c r="W21" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="X21" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C22" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
+      <c r="N22" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="O22" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="R22" s="26">
+        <v>5</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="U22" s="26">
+        <v>5</v>
+      </c>
+      <c r="W22" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="X22" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="R23" s="26">
+        <v>6</v>
+      </c>
+      <c r="T23" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="U23" s="26">
+        <v>6</v>
+      </c>
+      <c r="W23" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="X23" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="R24" s="26">
+        <v>7</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="U24" s="26">
+        <v>7</v>
+      </c>
+      <c r="W24" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="X24" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="24">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="R25" s="26">
+        <v>8</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="U25" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="R26" s="26">
+        <v>9</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="U26" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Q27" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="R27" s="26">
+        <v>10</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="U27" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C29" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
+    </row>
+    <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>1</v>
+      </c>
+      <c r="I32" s="24">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C37" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="107"/>
+    </row>
+    <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1</v>
+      </c>
+      <c r="I40" s="24">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C46" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="N8" s="96" t="s">
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="N46" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-    </row>
-    <row r="9" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="103"/>
+    </row>
+    <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J47" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N47" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O47" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P47" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q47" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="U47" s="56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
+    <row r="48" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J48" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N48" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O48" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P48" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q48" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T48" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="U48" s="56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="1" t="s">
+    <row r="49" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="24">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1</v>
+      </c>
+      <c r="I49" s="24">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="19">
-        <v>1</v>
-      </c>
-      <c r="S11" s="20">
-        <v>1</v>
-      </c>
-      <c r="T11" s="24">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
+      <c r="O49" s="57">
+        <v>1</v>
+      </c>
+      <c r="P49" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="57">
+        <v>1</v>
+      </c>
+      <c r="R49" s="19">
+        <v>1</v>
+      </c>
+      <c r="S49" s="20">
+        <v>1</v>
+      </c>
+      <c r="T49" s="24">
+        <v>1</v>
+      </c>
+      <c r="U49" s="57">
+        <v>1</v>
+      </c>
+      <c r="V49" s="57">
+        <v>1</v>
+      </c>
+      <c r="W49" s="57">
+        <v>1</v>
+      </c>
+      <c r="X49" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H50" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I50" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J50" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>23</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N50" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O50" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P50" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R50" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S50" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T50" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="U50" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V50" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W50" s="55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="N13" s="1" t="s">
+    <row r="51" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N51" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O51" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P51" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q51" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R51" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S51" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T51" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="28" t="s">
+      <c r="U51" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V51" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W51" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X51" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y51" s="55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="O15" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-    </row>
-    <row r="16" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C16" s="1" t="s">
+    <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C54" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="N54" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="O54" s="103"/>
+      <c r="P54" s="103"/>
+      <c r="Q54" s="103"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="103"/>
+      <c r="X54" s="103"/>
+    </row>
+    <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G55" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I55" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J55" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="N55" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="O55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="P55" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q55" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="17" t="s">
+      <c r="R55" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="S55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="U16" s="23" t="s">
+      <c r="T55" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="1" t="s">
+      <c r="U55" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G56" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H56" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I56" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J56" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="N56" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="O56" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="P56" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="Q56" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="R56" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="S56" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="U17" s="23" t="s">
+      <c r="T56" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="1" t="s">
+      <c r="U56" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1</v>
+      </c>
+      <c r="H57" s="20">
+        <v>1</v>
+      </c>
+      <c r="I57" s="24">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="N57" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="19">
-        <v>1</v>
-      </c>
-      <c r="T18" s="20">
-        <v>1</v>
-      </c>
-      <c r="U18" s="24">
-        <v>1</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="1" t="s">
+      <c r="O57" s="57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="57">
+        <v>1</v>
+      </c>
+      <c r="R57" s="19">
+        <v>1</v>
+      </c>
+      <c r="S57" s="20">
+        <v>1</v>
+      </c>
+      <c r="T57" s="24">
+        <v>1</v>
+      </c>
+      <c r="U57" s="57">
+        <v>1</v>
+      </c>
+      <c r="V57" s="57">
+        <v>1</v>
+      </c>
+      <c r="W57" s="57">
+        <v>1</v>
+      </c>
+      <c r="X57" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
+        <v>23</v>
+      </c>
+      <c r="N58" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q58" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="S58" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="T58" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="U58" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="V58" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="W58" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N59" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="Q59" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="R59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="S59" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="T59" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="U59" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="V59" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="W59" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="X59" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y59" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C63" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="N63" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="O63" s="103"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="103"/>
+      <c r="T63" s="103"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="103"/>
+      <c r="W63" s="103"/>
+      <c r="X63" s="103"/>
+    </row>
+    <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S64" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T64" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U64" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="P65" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T65" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U65" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1</v>
+      </c>
+      <c r="H66" s="20">
+        <v>1</v>
+      </c>
+      <c r="I66" s="24">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="57">
+        <v>1</v>
+      </c>
+      <c r="P66" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="57">
+        <v>1</v>
+      </c>
+      <c r="R66" s="19">
+        <v>1</v>
+      </c>
+      <c r="S66" s="20">
+        <v>1</v>
+      </c>
+      <c r="T66" s="24">
+        <v>1</v>
+      </c>
+      <c r="U66" s="57">
+        <v>1</v>
+      </c>
+      <c r="V66" s="57">
+        <v>1</v>
+      </c>
+      <c r="W66" s="57">
+        <v>1</v>
+      </c>
+      <c r="X66" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="28" t="s">
+      <c r="H67" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J67" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>23</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="N67" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="O67" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="P67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q67" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R67" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="S67" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="T67" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="U67" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="V67" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="W67" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N68" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="Q68" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="R68" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="S68" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="W19" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="X19" s="1" t="s">
+      <c r="T68" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="U68" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="V68" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="W68" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="X68" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y68" s="55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O20" s="1" t="s">
+    <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C74" s="100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="100"/>
+      <c r="J74" s="100"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="100"/>
+      <c r="N74" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="O74" s="103"/>
+      <c r="P74" s="103"/>
+      <c r="Q74" s="103"/>
+      <c r="R74" s="103"/>
+      <c r="S74" s="103"/>
+      <c r="T74" s="103"/>
+      <c r="U74" s="103"/>
+      <c r="V74" s="103"/>
+      <c r="W74" s="103"/>
+      <c r="X74" s="103"/>
+    </row>
+    <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T75" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U75" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="P76" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="R76" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T76" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U76" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1</v>
+      </c>
+      <c r="H77" s="20">
+        <v>1</v>
+      </c>
+      <c r="I77" s="24">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="N77" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" s="57">
+        <v>1</v>
+      </c>
+      <c r="P77" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="57">
+        <v>1</v>
+      </c>
+      <c r="R77" s="19">
+        <v>1</v>
+      </c>
+      <c r="S77" s="20">
+        <v>1</v>
+      </c>
+      <c r="T77" s="24">
+        <v>1</v>
+      </c>
+      <c r="U77" s="57">
+        <v>1</v>
+      </c>
+      <c r="V77" s="57">
+        <v>1</v>
+      </c>
+      <c r="W77" s="57">
+        <v>1</v>
+      </c>
+      <c r="X77" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="G78" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J78" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
+        <v>23</v>
+      </c>
+      <c r="N78" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P78" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q78" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R78" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="T20" s="22" t="s">
+      <c r="S78" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="W20" s="1" t="s">
+      <c r="T78" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="U78" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="V78" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="W78" s="55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O21" s="1" t="s">
+    <row r="79" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N79" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R21" s="4" t="s">
+      <c r="O79" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q79" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="R79" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="S79" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="28" t="s">
+      <c r="T79" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="U79" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y21" s="1" t="s">
+      <c r="V79" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="W79" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="X79" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Y79" s="55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O22" s="1" t="s">
+    <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C83" s="100" t="s">
+        <v>346</v>
+      </c>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="N83" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="O83" s="102"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="102"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="102"/>
+      <c r="U83" s="102"/>
+      <c r="V83" s="102"/>
+    </row>
+    <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="P84" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="R84" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S84" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U84" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="V84" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O85" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="P85" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q85" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="R85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S85" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T85" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U85" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="V85" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1</v>
+      </c>
+      <c r="H86" s="20">
+        <v>1</v>
+      </c>
+      <c r="I86" s="24">
+        <v>1</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
+      <c r="N86" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86" s="57">
+        <v>1</v>
+      </c>
+      <c r="P86" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="57">
+        <v>1</v>
+      </c>
+      <c r="R86" s="19">
+        <v>1</v>
+      </c>
+      <c r="S86" s="20">
+        <v>1</v>
+      </c>
+      <c r="T86" s="24">
+        <v>1</v>
+      </c>
+      <c r="U86" s="57">
+        <v>1</v>
+      </c>
+      <c r="V86" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R22" s="4" t="s">
+      <c r="D87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="G87" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="J87" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
+        <v>23</v>
+      </c>
+      <c r="N87" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O87" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P87" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q87" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R87" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="S87" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y22" s="1" t="s">
+      <c r="T87" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C91" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="100"/>
+      <c r="H91" s="100"/>
+      <c r="I91" s="100"/>
+      <c r="J91" s="100"/>
+      <c r="K91" s="100"/>
+      <c r="L91" s="100"/>
+      <c r="N91" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="O91" s="102"/>
+      <c r="P91" s="102"/>
+      <c r="Q91" s="102"/>
+      <c r="R91" s="102"/>
+      <c r="S91" s="102"/>
+      <c r="T91" s="102"/>
+      <c r="U91" s="102"/>
+      <c r="V91" s="102"/>
+    </row>
+    <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="3:26" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C24" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="N24" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-    </row>
-    <row r="25" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="1" t="s">
+      <c r="N92" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="O92" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="P92" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="Q92" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="R92" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="S92" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="T92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="U92" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="V92" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="93" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H93" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I93" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J93" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N93" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O93" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P93" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q93" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S93" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T93" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="1" t="s">
+      <c r="U93" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="V93" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="24">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1</v>
+      </c>
+      <c r="H94" s="20">
+        <v>1</v>
+      </c>
+      <c r="I94" s="24">
+        <v>1</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
+      <c r="N94" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="3">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="19">
-        <v>1</v>
-      </c>
-      <c r="S27" s="20">
-        <v>1</v>
-      </c>
-      <c r="T27" s="24">
-        <v>1</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="1" t="s">
+      <c r="O94" s="57">
+        <v>1</v>
+      </c>
+      <c r="P94" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="57">
+        <v>1</v>
+      </c>
+      <c r="R94" s="19">
+        <v>1</v>
+      </c>
+      <c r="S94" s="20">
+        <v>1</v>
+      </c>
+      <c r="T94" s="24">
+        <v>1</v>
+      </c>
+      <c r="U94" s="57">
+        <v>1</v>
+      </c>
+      <c r="V94" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G95" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H95" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="28" t="s">
+      <c r="I95" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="J95" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4">
+      <c r="K95" s="4"/>
+      <c r="L95" s="4">
         <v>23</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N95" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O95" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="4" t="s">
+      <c r="P95" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q95" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R95" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="S95" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T28" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U28" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N29" s="1" t="s">
+      <c r="T95" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="U95" s="59"/>
+      <c r="V95" s="59">
         <v>23</v>
       </c>
-      <c r="O29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="S29" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="T29" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U29" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="V29" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="N30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="S30" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="T30" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:26" ht="171.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="N24:X24"/>
+  <mergeCells count="21">
+    <mergeCell ref="W16:X16"/>
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="O15:Y15"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="N46:X46"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="N83:V83"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="N91:V91"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="N54:X54"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="N63:X63"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="N74:X74"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8691,8 +10576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8705,8 +10590,8 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="98" t="s">
-        <v>201</v>
+      <c r="B3" s="109" t="s">
+        <v>186</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>27</v>
@@ -8728,21 +10613,21 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="99"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>179</v>
@@ -8767,20 +10652,20 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="B7" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="101"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
@@ -8801,24 +10686,24 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="101"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="12" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8826,95 +10711,109 @@
         <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="14"/>
+        <v>203</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" s="14"/>
+        <v>288</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="9" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="14"/>
+        <v>289</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+        <v>214</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
@@ -8922,23 +10821,31 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
@@ -8946,11 +10853,14 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="9" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
+      <c r="H17" s="9" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
@@ -8958,25 +10868,31 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="9" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
+      <c r="H18" s="9" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
+      <c r="H19" s="9" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -8996,7 +10912,7 @@
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -9007,7 +10923,7 @@
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -9018,7 +10934,7 @@
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -9040,7 +10956,7 @@
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -9062,7 +10978,7 @@
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -9073,7 +10989,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -9084,7 +11000,7 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -9095,7 +11011,7 @@
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -9106,7 +11022,7 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -9117,7 +11033,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -9139,7 +11055,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -9150,7 +11066,7 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -9161,7 +11077,7 @@
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -9172,7 +11088,7 @@
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -9214,26 +11130,1900 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FA8ADF-2E26-433E-8AB2-CC05549C8D2B}">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="L1" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57">
+        <v>1</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="57">
+        <v>1</v>
+      </c>
+      <c r="J4" s="57">
+        <v>1</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="57">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57">
+        <v>1</v>
+      </c>
+      <c r="O4" s="57">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>1</v>
+      </c>
+      <c r="R4" s="24">
+        <v>1</v>
+      </c>
+      <c r="S4" s="57">
+        <v>1</v>
+      </c>
+      <c r="T4" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59">
+        <v>23</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="L10" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+    </row>
+    <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="57">
+        <v>1</v>
+      </c>
+      <c r="C13" s="57">
+        <v>1</v>
+      </c>
+      <c r="D13" s="57">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="57">
+        <v>1</v>
+      </c>
+      <c r="J13" s="57">
+        <v>1</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="57">
+        <v>1</v>
+      </c>
+      <c r="N13" s="57">
+        <v>1</v>
+      </c>
+      <c r="O13" s="57">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>1</v>
+      </c>
+      <c r="R13" s="24">
+        <v>1</v>
+      </c>
+      <c r="S13" s="57">
+        <v>1</v>
+      </c>
+      <c r="T13" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59">
+        <v>23</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L10:T10"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B7:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD14"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="57">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="57">
+        <v>1</v>
+      </c>
+      <c r="J10" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="117" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="57">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <v>1</v>
+      </c>
+      <c r="E17" s="57">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="57">
+        <v>1</v>
+      </c>
+      <c r="J17" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B18" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B23" s="117" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+    </row>
+    <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="57">
+        <v>1</v>
+      </c>
+      <c r="D26" s="57">
+        <v>1</v>
+      </c>
+      <c r="E26" s="57">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1</v>
+      </c>
+      <c r="I26" s="57">
+        <v>1</v>
+      </c>
+      <c r="J26" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="117" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B34" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J34" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B35" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="57">
+        <v>1</v>
+      </c>
+      <c r="D35" s="57">
+        <v>1</v>
+      </c>
+      <c r="E35" s="57">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24">
+        <v>1</v>
+      </c>
+      <c r="I35" s="57">
+        <v>1</v>
+      </c>
+      <c r="J35" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B39" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+    </row>
+    <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B42" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="57">
+        <v>1</v>
+      </c>
+      <c r="D42" s="57">
+        <v>1</v>
+      </c>
+      <c r="E42" s="57">
+        <v>1</v>
+      </c>
+      <c r="F42" s="19">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
+      <c r="H42" s="24">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4</v>
+      </c>
+      <c r="J42" s="57">
+        <v>1</v>
+      </c>
+      <c r="K42" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="28"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B46" s="117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+    </row>
+    <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B47" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B48" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J48" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B49" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="57">
+        <v>1</v>
+      </c>
+      <c r="D49" s="57">
+        <v>1</v>
+      </c>
+      <c r="E49" s="57">
+        <v>1</v>
+      </c>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24">
+        <v>1</v>
+      </c>
+      <c r="I49" s="57">
+        <v>1</v>
+      </c>
+      <c r="J49" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B50" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B52" s="115" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+    </row>
+    <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B53" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B54" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="K54" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B55" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="57">
+        <v>1</v>
+      </c>
+      <c r="D55" s="57">
+        <v>1</v>
+      </c>
+      <c r="E55" s="57">
+        <v>1</v>
+      </c>
+      <c r="F55" s="19">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20">
+        <v>1</v>
+      </c>
+      <c r="H55" s="24">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
+        <v>4</v>
+      </c>
+      <c r="J55" s="57">
+        <v>1</v>
+      </c>
+      <c r="K55" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B56" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B58" s="115" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+    </row>
+    <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J60" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="K60" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="57">
+        <v>1</v>
+      </c>
+      <c r="D61" s="57">
+        <v>1</v>
+      </c>
+      <c r="E61" s="57">
+        <v>1</v>
+      </c>
+      <c r="F61" s="19">
+        <v>1</v>
+      </c>
+      <c r="G61" s="20">
+        <v>1</v>
+      </c>
+      <c r="H61" s="24">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4</v>
+      </c>
+      <c r="J61" s="57">
+        <v>1</v>
+      </c>
+      <c r="K61" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B62" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="I62" s="28"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="115" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+    </row>
+    <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B67" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B68" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J68" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="K68" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B69" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="57">
+        <v>1</v>
+      </c>
+      <c r="D69" s="57">
+        <v>1</v>
+      </c>
+      <c r="E69" s="57">
+        <v>1</v>
+      </c>
+      <c r="F69" s="19">
+        <v>1</v>
+      </c>
+      <c r="G69" s="20">
+        <v>1</v>
+      </c>
+      <c r="H69" s="24">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3">
+        <v>4</v>
+      </c>
+      <c r="J69" s="57">
+        <v>1</v>
+      </c>
+      <c r="K69" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B70" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I70" s="28"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B73" s="115" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+    </row>
+    <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B74" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B75" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="K75" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B76" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="57">
+        <v>1</v>
+      </c>
+      <c r="D76" s="57">
+        <v>1</v>
+      </c>
+      <c r="E76" s="57">
+        <v>1</v>
+      </c>
+      <c r="F76" s="19">
+        <v>1</v>
+      </c>
+      <c r="G76" s="20">
+        <v>1</v>
+      </c>
+      <c r="H76" s="24">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4</v>
+      </c>
+      <c r="J76" s="57">
+        <v>1</v>
+      </c>
+      <c r="K76" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B77" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="I77" s="28"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="B46:J46"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
@@ -9249,22 +13039,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="B2" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -9285,7 +13075,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -9317,7 +13107,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -9349,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -9373,7 +13163,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -9382,19 +13172,19 @@
     </row>
     <row r="7" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+        <v>241</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17F64E-8A6B-4A64-AFC5-95E619763A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD07AF-D6DA-4581-BC34-337EFEBEFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="377">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>小气缸</t>
-  </si>
-  <si>
-    <t>GO_sensor(进料传感器）</t>
   </si>
   <si>
     <t>玻片检测</t>
@@ -1858,6 +1855,14 @@
   <si>
     <t>0请求成功
 2执行完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储盒检测</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO_sensor(出料传感器）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2393,17 +2398,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2414,11 +2410,80 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2438,89 +2503,23 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2529,6 +2528,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2552,16 +2557,16 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2865,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X89" sqref="X89"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2897,18 +2902,18 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
-      <c r="M2" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
+      <c r="M2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3146,30 +3151,30 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="94" t="s">
+      <c r="N7" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
     </row>
     <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C9" s="61" t="s">
@@ -3186,24 +3191,24 @@
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="69"/>
     </row>
     <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -3254,18 +3259,18 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="88" t="s">
+      <c r="T10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="92"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
       <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3515,16 +3520,16 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C17" s="61" t="s">
@@ -3538,23 +3543,23 @@
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3605,14 +3610,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="88" t="s">
+      <c r="T18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="92"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="72"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3834,26 +3839,26 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="85"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="77"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
@@ -3932,11 +3937,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="90" t="s">
+      <c r="T26" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4199,26 +4204,26 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="83"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="85"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="77"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C37" s="61" t="s">
@@ -4232,21 +4237,21 @@
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4297,12 +4302,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="88" t="s">
+      <c r="T38" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4558,26 +4563,26 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="83"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="85"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="77"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA45" s="80" t="s">
@@ -4693,7 +4698,7 @@
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA57" s="80" t="s">
-        <v>101</v>
+        <v>376</v>
       </c>
       <c r="AB57" s="81"/>
       <c r="AC57" s="81"/>
@@ -4732,26 +4737,28 @@
     <row r="59" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
+      <c r="AC59" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="AD59" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE59" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AF59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG59" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AG59" s="4" t="s">
+      <c r="AH59" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="AH59" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C64" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="61"/>
       <c r="E64" s="61"/>
@@ -4761,22 +4768,22 @@
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
       <c r="K64" s="61"/>
-      <c r="M64" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
+      <c r="M64" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="82"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="82"/>
+      <c r="T64" s="82"/>
+      <c r="U64" s="82"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="82"/>
+      <c r="Y64" s="82"/>
+      <c r="Z64" s="82"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4827,13 +4834,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="82" t="s">
+      <c r="T65" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="82"/>
-      <c r="V65" s="82"/>
-      <c r="W65" s="82"/>
-      <c r="X65" s="82"/>
+      <c r="U65" s="83"/>
+      <c r="V65" s="83"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="83"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4891,19 +4898,19 @@
         <v>18</v>
       </c>
       <c r="T66" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="Y66" s="1" t="s">
         <v>19</v>
@@ -5020,7 +5027,7 @@
         <v>24</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>26</v>
@@ -5048,38 +5055,38 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="68"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="65"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="O69" s="70"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
+      <c r="N69" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="84"/>
+      <c r="V69" s="84"/>
+      <c r="W69" s="84"/>
+      <c r="X69" s="84"/>
+      <c r="Y69" s="84"/>
+      <c r="Z69" s="84"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C73" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="61"/>
       <c r="E73" s="61"/>
@@ -5090,7 +5097,7 @@
       <c r="J73" s="61"/>
       <c r="K73" s="61"/>
       <c r="M73" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N73" s="34"/>
       <c r="O73" s="34"/>
@@ -5109,13 +5116,13 @@
       <c r="AB73" s="34"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
-      <c r="AE73" s="77"/>
-      <c r="AF73" s="77"/>
-      <c r="AG73" s="77"/>
-      <c r="AH73" s="77"/>
-      <c r="AI73" s="77"/>
-      <c r="AJ73" s="77"/>
-      <c r="AK73" s="77"/>
+      <c r="AE73" s="85"/>
+      <c r="AF73" s="85"/>
+      <c r="AG73" s="85"/>
+      <c r="AH73" s="85"/>
+      <c r="AI73" s="85"/>
+      <c r="AJ73" s="85"/>
+      <c r="AK73" s="85"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5166,25 +5173,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="63" t="s">
+      <c r="T74" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="64"/>
-      <c r="V74" s="64"/>
-      <c r="W74" s="64"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="64"/>
-      <c r="Z74" s="64"/>
-      <c r="AA74" s="64"/>
-      <c r="AB74" s="64"/>
-      <c r="AC74" s="64"/>
-      <c r="AD74" s="64"/>
-      <c r="AE74" s="64"/>
-      <c r="AF74" s="64"/>
-      <c r="AG74" s="64"/>
-      <c r="AH74" s="64"/>
-      <c r="AI74" s="64"/>
-      <c r="AJ74" s="65"/>
+      <c r="U74" s="89"/>
+      <c r="V74" s="89"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="89"/>
+      <c r="AB74" s="89"/>
+      <c r="AC74" s="89"/>
+      <c r="AD74" s="89"/>
+      <c r="AE74" s="89"/>
+      <c r="AF74" s="89"/>
+      <c r="AG74" s="89"/>
+      <c r="AH74" s="89"/>
+      <c r="AI74" s="89"/>
+      <c r="AJ74" s="90"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5242,55 +5249,55 @@
         <v>18</v>
       </c>
       <c r="T75" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U75" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="V75" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="W75" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="X75" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="V75" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="W75" s="50" t="s">
+      <c r="Y75" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z75" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA75" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB75" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="X75" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y75" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z75" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA75" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB75" s="50" t="s">
-        <v>249</v>
-      </c>
       <c r="AC75" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD75" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="AD75" s="50" t="s">
+      <c r="AE75" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="AE75" s="50" t="s">
+      <c r="AF75" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="AF75" s="50" t="s">
-        <v>254</v>
-      </c>
       <c r="AG75" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH75" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="AH75" s="50" t="s">
+      <c r="AI75" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="AI75" s="50" t="s">
+      <c r="AJ75" s="50" t="s">
         <v>258</v>
-      </c>
-      <c r="AJ75" s="50" t="s">
-        <v>259</v>
       </c>
       <c r="AK75" s="1" t="s">
         <v>19</v>
@@ -5439,7 +5446,7 @@
         <v>24</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>26</v>
@@ -5454,55 +5461,55 @@
         <v>27</v>
       </c>
       <c r="T77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U77" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="V77" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB77" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U77" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="V77" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="W77" s="4" t="s">
+      <c r="AD77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="X77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z77" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA77" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB77" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD77" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="AE77" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF77" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG77" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH77" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AI77" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ77" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4">
@@ -5517,14 +5524,14 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="68"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5544,16 +5551,16 @@
       <c r="AA78" s="49"/>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
-      <c r="AD78" s="78"/>
-      <c r="AE78" s="78"/>
-      <c r="AF78" s="78"/>
-      <c r="AG78" s="78"/>
-      <c r="AH78" s="78"/>
-      <c r="AI78" s="79"/>
+      <c r="AD78" s="86"/>
+      <c r="AE78" s="86"/>
+      <c r="AF78" s="86"/>
+      <c r="AG78" s="86"/>
+      <c r="AH78" s="86"/>
+      <c r="AI78" s="87"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C82" s="61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="61"/>
       <c r="E82" s="61"/>
@@ -5563,25 +5570,25 @@
       <c r="I82" s="61"/>
       <c r="J82" s="61"/>
       <c r="K82" s="61"/>
-      <c r="M82" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
-      <c r="V82" s="72"/>
-      <c r="W82" s="72"/>
-      <c r="X82" s="72"/>
-      <c r="Y82" s="72"/>
-      <c r="Z82" s="72"/>
-      <c r="AA82" s="72"/>
-      <c r="AB82" s="72"/>
-      <c r="AC82" s="73"/>
+      <c r="M82" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="N82" s="92"/>
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="92"/>
+      <c r="U82" s="92"/>
+      <c r="V82" s="92"/>
+      <c r="W82" s="92"/>
+      <c r="X82" s="92"/>
+      <c r="Y82" s="92"/>
+      <c r="Z82" s="92"/>
+      <c r="AA82" s="92"/>
+      <c r="AB82" s="92"/>
+      <c r="AC82" s="93"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5632,16 +5639,16 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="63" t="s">
+      <c r="T83" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="64"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="64"/>
-      <c r="Y83" s="64"/>
-      <c r="Z83" s="64"/>
-      <c r="AA83" s="65"/>
+      <c r="U83" s="89"/>
+      <c r="V83" s="89"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="89"/>
+      <c r="Y83" s="89"/>
+      <c r="Z83" s="89"/>
+      <c r="AA83" s="90"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5699,28 +5706,28 @@
         <v>18</v>
       </c>
       <c r="T84" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="U84" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="U84" s="50" t="s">
+      <c r="V84" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="V84" s="50" t="s">
+      <c r="W84" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="W84" s="50" t="s">
+      <c r="X84" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="X84" s="27" t="s">
+      <c r="Y84" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="Y84" s="50" t="s">
+      <c r="Z84" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="Z84" s="50" t="s">
-        <v>281</v>
-      </c>
       <c r="AA84" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB84" s="1" t="s">
         <v>19</v>
@@ -5846,7 +5853,7 @@
         <v>24</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P86" s="31" t="s">
         <v>26</v>
@@ -5861,19 +5868,19 @@
         <v>67</v>
       </c>
       <c r="T86" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U86" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V86" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W86" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X86" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -5887,37 +5894,37 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="68"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="65"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="74"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
-      <c r="W87" s="75"/>
-      <c r="X87" s="75"/>
-      <c r="Y87" s="75"/>
-      <c r="Z87" s="75"/>
-      <c r="AA87" s="75"/>
-      <c r="AB87" s="75"/>
-      <c r="AC87" s="76"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="95"/>
+      <c r="P87" s="95"/>
+      <c r="Q87" s="95"/>
+      <c r="R87" s="95"/>
+      <c r="S87" s="95"/>
+      <c r="T87" s="95"/>
+      <c r="U87" s="95"/>
+      <c r="V87" s="95"/>
+      <c r="W87" s="95"/>
+      <c r="X87" s="95"/>
+      <c r="Y87" s="95"/>
+      <c r="Z87" s="95"/>
+      <c r="AA87" s="95"/>
+      <c r="AB87" s="95"/>
+      <c r="AC87" s="96"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C91" s="61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D91" s="61"/>
       <c r="E91" s="61"/>
@@ -5927,26 +5934,26 @@
       <c r="I91" s="61"/>
       <c r="J91" s="61"/>
       <c r="K91" s="61"/>
-      <c r="M91" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="N91" s="62"/>
-      <c r="O91" s="62"/>
-      <c r="P91" s="62"/>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="62"/>
-      <c r="S91" s="62"/>
-      <c r="T91" s="62"/>
-      <c r="U91" s="62"/>
-      <c r="V91" s="62"/>
-      <c r="W91" s="62"/>
-      <c r="X91" s="62"/>
-      <c r="Y91" s="62"/>
-      <c r="Z91" s="62"/>
-      <c r="AA91" s="62"/>
-      <c r="AB91" s="62"/>
-      <c r="AC91" s="62"/>
-      <c r="AD91" s="62"/>
+      <c r="M91" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="N91" s="82"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82"/>
+      <c r="Q91" s="82"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="82"/>
+      <c r="T91" s="82"/>
+      <c r="U91" s="82"/>
+      <c r="V91" s="82"/>
+      <c r="W91" s="82"/>
+      <c r="X91" s="82"/>
+      <c r="Y91" s="82"/>
+      <c r="Z91" s="82"/>
+      <c r="AA91" s="82"/>
+      <c r="AB91" s="82"/>
+      <c r="AC91" s="82"/>
+      <c r="AD91" s="82"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -5997,17 +6004,17 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="63" t="s">
+      <c r="T92" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="64"/>
-      <c r="V92" s="64"/>
-      <c r="W92" s="64"/>
-      <c r="X92" s="64"/>
-      <c r="Y92" s="64"/>
-      <c r="Z92" s="64"/>
-      <c r="AA92" s="64"/>
-      <c r="AB92" s="65"/>
+      <c r="U92" s="89"/>
+      <c r="V92" s="89"/>
+      <c r="W92" s="89"/>
+      <c r="X92" s="89"/>
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="89"/>
+      <c r="AA92" s="89"/>
+      <c r="AB92" s="90"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6065,31 +6072,31 @@
         <v>18</v>
       </c>
       <c r="T93" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="U93" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="U93" s="52" t="s">
+      <c r="V93" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="V93" s="52" t="s">
+      <c r="W93" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="W93" s="52" t="s">
+      <c r="X93" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="X93" s="52" t="s">
+      <c r="Y93" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="Y93" s="50" t="s">
+      <c r="Z93" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="Z93" s="50" t="s">
+      <c r="AA93" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="AA93" s="50" t="s">
+      <c r="AB93" s="50" t="s">
         <v>267</v>
-      </c>
-      <c r="AB93" s="50" t="s">
-        <v>268</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>19</v>
@@ -6218,7 +6225,7 @@
         <v>24</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P95" s="31" t="s">
         <v>26</v>
@@ -6233,22 +6240,22 @@
         <v>88</v>
       </c>
       <c r="T95" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U95" s="31"/>
       <c r="V95" s="31"/>
       <c r="W95" s="31"/>
       <c r="X95" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y95" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z95" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA95" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB95" s="31"/>
       <c r="AC95" s="4"/>
@@ -6260,38 +6267,38 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="66"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="68"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="65"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="70"/>
-      <c r="S96" s="70"/>
-      <c r="T96" s="70"/>
-      <c r="U96" s="70"/>
-      <c r="V96" s="70"/>
-      <c r="W96" s="70"/>
-      <c r="X96" s="70"/>
-      <c r="Y96" s="70"/>
-      <c r="Z96" s="70"/>
-      <c r="AA96" s="70"/>
-      <c r="AB96" s="70"/>
-      <c r="AC96" s="70"/>
-      <c r="AD96" s="70"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="84"/>
+      <c r="T96" s="84"/>
+      <c r="U96" s="84"/>
+      <c r="V96" s="84"/>
+      <c r="W96" s="84"/>
+      <c r="X96" s="84"/>
+      <c r="Y96" s="84"/>
+      <c r="Z96" s="84"/>
+      <c r="AA96" s="84"/>
+      <c r="AB96" s="84"/>
+      <c r="AC96" s="84"/>
+      <c r="AD96" s="84"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C100" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100" s="61"/>
       <c r="E100" s="61"/>
@@ -6301,24 +6308,24 @@
       <c r="I100" s="61"/>
       <c r="J100" s="61"/>
       <c r="K100" s="61"/>
-      <c r="M100" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="N100" s="62"/>
-      <c r="O100" s="62"/>
-      <c r="P100" s="62"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="62"/>
-      <c r="S100" s="62"/>
-      <c r="T100" s="62"/>
-      <c r="U100" s="62"/>
-      <c r="V100" s="62"/>
-      <c r="W100" s="62"/>
-      <c r="X100" s="62"/>
-      <c r="Y100" s="62"/>
-      <c r="Z100" s="62"/>
-      <c r="AA100" s="62"/>
-      <c r="AB100" s="62"/>
+      <c r="M100" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N100" s="82"/>
+      <c r="O100" s="82"/>
+      <c r="P100" s="82"/>
+      <c r="Q100" s="82"/>
+      <c r="R100" s="82"/>
+      <c r="S100" s="82"/>
+      <c r="T100" s="82"/>
+      <c r="U100" s="82"/>
+      <c r="V100" s="82"/>
+      <c r="W100" s="82"/>
+      <c r="X100" s="82"/>
+      <c r="Y100" s="82"/>
+      <c r="Z100" s="82"/>
+      <c r="AA100" s="82"/>
+      <c r="AB100" s="82"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6369,15 +6376,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="63" t="s">
+      <c r="T101" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="64"/>
-      <c r="V101" s="64"/>
-      <c r="W101" s="64"/>
-      <c r="X101" s="64"/>
-      <c r="Y101" s="64"/>
-      <c r="Z101" s="65"/>
+      <c r="U101" s="89"/>
+      <c r="V101" s="89"/>
+      <c r="W101" s="89"/>
+      <c r="X101" s="89"/>
+      <c r="Y101" s="89"/>
+      <c r="Z101" s="90"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6435,25 +6442,25 @@
         <v>18</v>
       </c>
       <c r="T102" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="U102" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="U102" s="50" t="s">
+      <c r="V102" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="V102" s="50" t="s">
-        <v>274</v>
-      </c>
       <c r="W102" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="X102" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y102" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z102" s="27" t="s">
         <v>283</v>
-      </c>
-      <c r="X102" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y102" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z102" s="27" t="s">
-        <v>284</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>19</v>
@@ -6563,7 +6570,7 @@
         <v>29</v>
       </c>
       <c r="I104" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4">
@@ -6576,7 +6583,7 @@
         <v>24</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P104" s="31" t="s">
         <v>26</v>
@@ -6588,19 +6595,19 @@
         <v>29</v>
       </c>
       <c r="S104" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="T104" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="T104" s="31" t="s">
-        <v>136</v>
-      </c>
       <c r="U104" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V104" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W104" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X104" s="31"/>
       <c r="Y104" s="31"/>
@@ -6614,87 +6621,87 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="68"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="65"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
-      <c r="P105" s="69"/>
-      <c r="Q105" s="69"/>
-      <c r="R105" s="69"/>
-      <c r="S105" s="69"/>
-      <c r="T105" s="69"/>
-      <c r="U105" s="69"/>
-      <c r="V105" s="69"/>
-      <c r="W105" s="69"/>
-      <c r="X105" s="69"/>
-      <c r="Y105" s="69"/>
-      <c r="Z105" s="69"/>
-      <c r="AA105" s="69"/>
-      <c r="AB105" s="69"/>
+      <c r="N105" s="97"/>
+      <c r="O105" s="97"/>
+      <c r="P105" s="97"/>
+      <c r="Q105" s="97"/>
+      <c r="R105" s="97"/>
+      <c r="S105" s="97"/>
+      <c r="T105" s="97"/>
+      <c r="U105" s="97"/>
+      <c r="V105" s="97"/>
+      <c r="W105" s="97"/>
+      <c r="X105" s="97"/>
+      <c r="Y105" s="97"/>
+      <c r="Z105" s="97"/>
+      <c r="AA105" s="97"/>
+      <c r="AB105" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="M100:AB100"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="M91:AD91"/>
+    <mergeCell ref="T92:AB92"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="N96:AD96"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="M82:AC82"/>
+    <mergeCell ref="T83:AA83"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="N87:AC87"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="AE73:AK73"/>
+    <mergeCell ref="AD78:AI78"/>
+    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="M64:Z64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="N69:Z69"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="N30:V30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="T10:AC10"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="T18:Y18"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="M2:V2"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="N9:AE9"/>
-    <mergeCell ref="T10:AC10"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="N30:V30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="N42:V42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="M64:Z64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="AE73:AK73"/>
-    <mergeCell ref="AD78:AI78"/>
-    <mergeCell ref="T74:AJ74"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="M82:AC82"/>
-    <mergeCell ref="T83:AA83"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="N87:AC87"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="M91:AD91"/>
-    <mergeCell ref="T92:AB92"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="N96:AD96"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="M100:AB100"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6719,38 +6726,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="V2" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="V2" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6774,17 +6781,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6845,31 +6852,31 @@
         <v>18</v>
       </c>
       <c r="J4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="M4" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="O4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>147</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>19</v>
@@ -6899,7 +6906,7 @@
         <v>18</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>19</v>
@@ -7002,7 +7009,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>26</v>
@@ -7018,28 +7025,28 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="R6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4">
@@ -7058,7 +7065,7 @@
         <v>26</v>
       </c>
       <c r="Z6" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>29</v>
@@ -7067,7 +7074,7 @@
         <v>27</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4">
@@ -7078,64 +7085,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
+      <c r="W7" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="N9" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="N9" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7222,7 +7229,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>19</v>
@@ -7252,7 +7259,7 @@
         <v>18</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>19</v>
@@ -7331,7 +7338,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>26</v>
@@ -7363,7 +7370,7 @@
         <v>26</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S13" s="22" t="s">
         <v>29</v>
@@ -7372,7 +7379,7 @@
         <v>52</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
@@ -7383,65 +7390,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Z16" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Z16" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7465,21 +7472,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="82" t="s">
+      <c r="J17" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7540,43 +7547,43 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="L18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="M18" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="N18" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="O18" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="P18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="Q18" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="R18" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="S18" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="T18" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="T18" s="27" t="s">
+      <c r="U18" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="U18" s="27" t="s">
+      <c r="V18" s="27" t="s">
         <v>171</v>
-      </c>
-      <c r="V18" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>19</v>
@@ -7606,7 +7613,7 @@
         <v>18</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>19</v>
@@ -7721,7 +7728,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -7733,38 +7740,38 @@
         <v>29</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4">
@@ -7783,16 +7790,16 @@
         <v>26</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="AF20" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG20" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4">
@@ -7803,50 +7810,45 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
+      <c r="AA21" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="W7:AE7"/>
     <mergeCell ref="Z16:AI16"/>
     <mergeCell ref="J17:V17"/>
     <mergeCell ref="D21:X21"/>
@@ -7856,6 +7858,11 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:X16"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="W7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7867,7 +7874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N63" sqref="N63:X63"/>
     </sheetView>
   </sheetViews>
@@ -7884,17 +7891,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="C2" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8000,7 +8007,7 @@
         <v>86</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -8015,34 +8022,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="N16" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="O16" s="104"/>
-      <c r="Q16" s="104" t="s">
+      <c r="C16" s="103" t="s">
         <v>312</v>
       </c>
-      <c r="R16" s="104"/>
-      <c r="T16" s="104" t="s">
-        <v>325</v>
-      </c>
-      <c r="U16" s="104"/>
-      <c r="W16" s="104" t="s">
-        <v>334</v>
-      </c>
-      <c r="X16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="N16" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="O16" s="100"/>
+      <c r="Q16" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="R16" s="100"/>
+      <c r="T16" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="U16" s="100"/>
+      <c r="W16" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="X16" s="100"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8076,25 +8083,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R17" s="26">
         <v>0</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X17" s="26">
         <v>0</v>
@@ -8123,7 +8130,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -8132,25 +8139,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R18" s="26">
         <v>1</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U18" s="26">
         <v>1</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X18" s="26">
         <v>1</v>
@@ -8188,25 +8195,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O19" s="26">
         <v>2</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R19" s="26">
         <v>2</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U19" s="26">
         <v>2</v>
       </c>
       <c r="W19" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X19" s="26">
         <v>2</v>
@@ -8220,7 +8227,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -8229,10 +8236,10 @@
         <v>86</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="4"/>
@@ -8240,25 +8247,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O20" s="26">
         <v>3</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R20" s="26">
         <v>3</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U20" s="26">
         <v>3</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X20" s="26">
         <v>3</v>
@@ -8266,63 +8273,63 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O21" s="26">
         <v>4</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R21" s="26">
         <v>4</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U21" s="26">
         <v>4</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X21" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
+      <c r="C22" s="103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="105"/>
       <c r="N22" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O22" s="26">
         <v>5</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R22" s="26">
         <v>5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U22" s="26">
         <v>5</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X22" s="26">
         <v>5</v>
@@ -8360,25 +8367,25 @@
         <v>10</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O23" s="26">
         <v>6</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R23" s="26">
         <v>6</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U23" s="26">
         <v>6</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X23" s="26">
         <v>6</v>
@@ -8407,7 +8414,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -8416,19 +8423,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R24" s="26">
         <v>7</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U24" s="26">
         <v>7</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X24" s="26">
         <v>7</v>
@@ -8466,13 +8473,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R25" s="26">
         <v>8</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U25" s="26">
         <v>8</v>
@@ -8486,7 +8493,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>26</v>
@@ -8495,10 +8502,10 @@
         <v>86</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="4"/>
@@ -8506,13 +8513,13 @@
         <v>23</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R26" s="26">
         <v>9</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U26" s="26">
         <v>9</v>
@@ -8520,31 +8527,31 @@
     </row>
     <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Q27" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R27" s="26">
         <v>10</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U27" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
+      <c r="C29" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="105"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -8601,7 +8608,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -8650,7 +8657,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>26</v>
@@ -8659,10 +8666,10 @@
         <v>86</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="4"/>
@@ -8671,18 +8678,18 @@
       </c>
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="105" t="s">
-        <v>316</v>
-      </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="107"/>
+      <c r="C37" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="105"/>
     </row>
     <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -8739,7 +8746,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -8788,7 +8795,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>26</v>
@@ -8797,10 +8804,10 @@
         <v>86</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="4"/>
@@ -8809,31 +8816,31 @@
       </c>
     </row>
     <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="N46" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="N46" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="103"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="102"/>
     </row>
     <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
@@ -8914,7 +8921,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>19</v>
@@ -8944,7 +8951,7 @@
         <v>18</v>
       </c>
       <c r="U48" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9038,7 +9045,7 @@
         <v>27</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4">
@@ -9057,7 +9064,7 @@
         <v>26</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S50" s="22" t="s">
         <v>86</v>
@@ -9066,7 +9073,7 @@
         <v>27</v>
       </c>
       <c r="U50" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V50" s="55" t="s">
         <v>9</v>
@@ -9083,13 +9090,13 @@
         <v>24</v>
       </c>
       <c r="P51" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q51" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S51" s="22" t="s">
         <v>86</v>
@@ -9098,13 +9105,13 @@
         <v>27</v>
       </c>
       <c r="U51" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="V51" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="V51" s="58" t="s">
+      <c r="W51" s="58" t="s">
         <v>184</v>
-      </c>
-      <c r="W51" s="58" t="s">
-        <v>185</v>
       </c>
       <c r="X51" s="55" t="s">
         <v>9</v>
@@ -9114,31 +9121,31 @@
       </c>
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C54" s="100" t="s">
+      <c r="C54" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
+      <c r="N54" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="N54" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="O54" s="103"/>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="103"/>
-      <c r="R54" s="103"/>
-      <c r="S54" s="103"/>
-      <c r="T54" s="103"/>
-      <c r="U54" s="103"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="103"/>
-      <c r="X54" s="103"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
+      <c r="U54" s="102"/>
+      <c r="V54" s="102"/>
+      <c r="W54" s="102"/>
+      <c r="X54" s="102"/>
     </row>
     <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
@@ -9219,7 +9226,7 @@
         <v>18</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>19</v>
@@ -9249,7 +9256,7 @@
         <v>18</v>
       </c>
       <c r="U56" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9340,10 +9347,10 @@
         <v>86</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4">
@@ -9362,16 +9369,16 @@
         <v>26</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S58" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>9</v>
@@ -9388,28 +9395,28 @@
         <v>24</v>
       </c>
       <c r="P59" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q59" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S59" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U59" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="V59" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="V59" s="58" t="s">
+      <c r="W59" s="58" t="s">
         <v>184</v>
-      </c>
-      <c r="W59" s="58" t="s">
-        <v>185</v>
       </c>
       <c r="X59" s="55" t="s">
         <v>9</v>
@@ -9419,31 +9426,31 @@
       </c>
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C63" s="100" t="s">
+      <c r="C63" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="N63" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="N63" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="103"/>
-      <c r="R63" s="103"/>
-      <c r="S63" s="103"/>
-      <c r="T63" s="103"/>
-      <c r="U63" s="103"/>
-      <c r="V63" s="103"/>
-      <c r="W63" s="103"/>
-      <c r="X63" s="103"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="102"/>
+      <c r="V63" s="102"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
     </row>
     <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
@@ -9524,7 +9531,7 @@
         <v>18</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>19</v>
@@ -9554,7 +9561,7 @@
         <v>18</v>
       </c>
       <c r="U65" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9645,10 +9652,10 @@
         <v>86</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4">
@@ -9667,16 +9674,16 @@
         <v>26</v>
       </c>
       <c r="R67" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S67" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U67" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V67" s="55" t="s">
         <v>9</v>
@@ -9693,28 +9700,28 @@
         <v>24</v>
       </c>
       <c r="P68" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q68" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R68" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S68" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U68" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="V68" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="V68" s="58" t="s">
+      <c r="W68" s="58" t="s">
         <v>184</v>
-      </c>
-      <c r="W68" s="58" t="s">
-        <v>185</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>9</v>
@@ -9724,31 +9731,31 @@
       </c>
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C74" s="100" t="s">
+      <c r="C74" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="N74" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="100"/>
-      <c r="N74" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="103"/>
-      <c r="R74" s="103"/>
-      <c r="S74" s="103"/>
-      <c r="T74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103"/>
-      <c r="W74" s="103"/>
-      <c r="X74" s="103"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="102"/>
+      <c r="S74" s="102"/>
+      <c r="T74" s="102"/>
+      <c r="U74" s="102"/>
+      <c r="V74" s="102"/>
+      <c r="W74" s="102"/>
+      <c r="X74" s="102"/>
     </row>
     <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
@@ -9829,7 +9836,7 @@
         <v>18</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>19</v>
@@ -9859,7 +9866,7 @@
         <v>18</v>
       </c>
       <c r="U76" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9950,10 +9957,10 @@
         <v>86</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4">
@@ -9972,16 +9979,16 @@
         <v>26</v>
       </c>
       <c r="R78" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S78" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U78" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V78" s="55" t="s">
         <v>9</v>
@@ -9998,13 +10005,13 @@
         <v>24</v>
       </c>
       <c r="P79" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q79" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R79" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S79" s="22" t="s">
         <v>86</v>
@@ -10013,13 +10020,13 @@
         <v>27</v>
       </c>
       <c r="U79" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="V79" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="V79" s="58" t="s">
+      <c r="W79" s="58" t="s">
         <v>184</v>
-      </c>
-      <c r="W79" s="58" t="s">
-        <v>185</v>
       </c>
       <c r="X79" s="55" t="s">
         <v>9</v>
@@ -10029,29 +10036,29 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="100" t="s">
+      <c r="C83" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
+      <c r="I83" s="101"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="N83" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="N83" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="O83" s="102"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="102"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="102"/>
-      <c r="U83" s="102"/>
-      <c r="V83" s="102"/>
+      <c r="O83" s="107"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="107"/>
+      <c r="T83" s="107"/>
+      <c r="U83" s="107"/>
+      <c r="V83" s="107"/>
     </row>
     <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
@@ -10135,7 +10142,7 @@
         <v>18</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>19</v>
@@ -10165,10 +10172,10 @@
         <v>18</v>
       </c>
       <c r="U85" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="V85" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="V85" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10250,10 +10257,10 @@
         <v>86</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4">
@@ -10266,19 +10273,19 @@
         <v>24</v>
       </c>
       <c r="P87" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q87" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R87" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S87" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U87" s="59"/>
       <c r="V87" s="59">
@@ -10286,29 +10293,29 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="100"/>
-      <c r="N91" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="O91" s="102"/>
-      <c r="P91" s="102"/>
-      <c r="Q91" s="102"/>
-      <c r="R91" s="102"/>
-      <c r="S91" s="102"/>
-      <c r="T91" s="102"/>
-      <c r="U91" s="102"/>
-      <c r="V91" s="102"/>
+      <c r="C91" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="N91" s="106" t="s">
+        <v>346</v>
+      </c>
+      <c r="O91" s="107"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="107"/>
+      <c r="R91" s="107"/>
+      <c r="S91" s="107"/>
+      <c r="T91" s="107"/>
+      <c r="U91" s="107"/>
+      <c r="V91" s="107"/>
     </row>
     <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -10392,7 +10399,7 @@
         <v>18</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>19</v>
@@ -10422,10 +10429,10 @@
         <v>18</v>
       </c>
       <c r="U93" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="V93" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="V93" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10507,10 +10514,10 @@
         <v>86</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4">
@@ -10523,19 +10530,19 @@
         <v>24</v>
       </c>
       <c r="P95" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q95" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R95" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S95" s="22" t="s">
         <v>86</v>
       </c>
       <c r="T95" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U95" s="59"/>
       <c r="V95" s="59">
@@ -10544,6 +10551,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="N83:V83"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="N91:V91"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="N54:X54"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="N63:X63"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="N74:X74"/>
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C46:L46"/>
@@ -10555,16 +10572,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="N83:V83"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="N91:V91"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="N54:X54"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="N63:X63"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="N74:X74"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10577,7 +10584,7 @@
   <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10591,7 +10598,7 @@
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>27</v>
@@ -10603,34 +10610,34 @@
         <v>52</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="110"/>
       <c r="C4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10653,10 +10660,10 @@
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="108" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>193</v>
       </c>
       <c r="D7" s="108"/>
       <c r="E7" s="108"/>
@@ -10676,34 +10683,34 @@
         <v>52</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="112"/>
       <c r="C9" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10711,22 +10718,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10734,22 +10741,22 @@
         <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10757,41 +10764,41 @@
         <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10799,52 +10806,52 @@
         <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
       <c r="G15" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10853,13 +10860,13 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10868,18 +10875,18 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -10887,12 +10894,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10912,7 +10919,7 @@
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10923,7 +10930,7 @@
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -10934,7 +10941,7 @@
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -10945,7 +10952,7 @@
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -10956,7 +10963,7 @@
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -10967,7 +10974,7 @@
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -10978,7 +10985,7 @@
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -10989,7 +10996,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -11000,7 +11007,7 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -11011,7 +11018,7 @@
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -11022,7 +11029,7 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -11033,7 +11040,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -11044,7 +11051,7 @@
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -11055,7 +11062,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -11066,7 +11073,7 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -11077,7 +11084,7 @@
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -11088,7 +11095,7 @@
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -11146,7 +11153,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -11158,7 +11165,7 @@
       <c r="I1" s="114"/>
       <c r="J1" s="114"/>
       <c r="L1" s="113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M1" s="114"/>
       <c r="N1" s="114"/>
@@ -11251,13 +11258,13 @@
         <v>18</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>349</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>12</v>
@@ -11281,10 +11288,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="T3" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11354,22 +11361,22 @@
         <v>24</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59">
@@ -11382,19 +11389,19 @@
         <v>24</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59">
@@ -11403,7 +11410,7 @@
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A10" s="113" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="114"/>
       <c r="C10" s="114"/>
@@ -11415,7 +11422,7 @@
       <c r="I10" s="114"/>
       <c r="J10" s="114"/>
       <c r="L10" s="113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M10" s="114"/>
       <c r="N10" s="114"/>
@@ -11508,13 +11515,13 @@
         <v>18</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>349</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>12</v>
@@ -11538,10 +11545,10 @@
         <v>18</v>
       </c>
       <c r="S12" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="T12" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11611,22 +11618,22 @@
         <v>24</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="59"/>
       <c r="J14" s="59">
@@ -11639,19 +11646,19 @@
         <v>24</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59">
@@ -11681,17 +11688,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="117" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
+      <c r="B7" s="115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
     </row>
     <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11745,10 +11752,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11788,19 +11795,19 @@
         <v>24</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59">
@@ -11808,17 +11815,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="115" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="55" t="s">
@@ -11872,10 +11879,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11915,19 +11922,19 @@
         <v>24</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59">
@@ -11935,17 +11942,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="115" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B24" s="55" t="s">
@@ -11999,10 +12006,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J25" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -12042,19 +12049,19 @@
         <v>24</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -12062,17 +12069,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="117" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
+      <c r="B32" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="55" t="s">
@@ -12126,10 +12133,10 @@
         <v>18</v>
       </c>
       <c r="I34" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J34" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12169,19 +12176,19 @@
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59">
@@ -12189,18 +12196,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="115" t="s">
-        <v>359</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
+      <c r="B39" s="117" t="s">
+        <v>358</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
     </row>
     <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B40" s="55" t="s">
@@ -12257,13 +12264,13 @@
         <v>18</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J41" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12306,19 +12313,19 @@
         <v>24</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="59"/>
@@ -12327,17 +12334,17 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="117" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="55" t="s">
@@ -12391,10 +12398,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="J48" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12434,19 +12441,19 @@
         <v>24</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="59">
@@ -12454,18 +12461,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="115" t="s">
-        <v>368</v>
-      </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
+      <c r="B52" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
     </row>
     <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="55" t="s">
@@ -12522,13 +12529,13 @@
         <v>18</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J54" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K54" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="K54" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12571,19 +12578,19 @@
         <v>24</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>353</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="59"/>
@@ -12592,18 +12599,18 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="115" t="s">
-        <v>370</v>
-      </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
+      <c r="B58" s="117" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
@@ -12660,13 +12667,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J60" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K60" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="K60" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12709,19 +12716,19 @@
         <v>24</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="59"/>
@@ -12730,18 +12737,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="115" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
+      <c r="B66" s="117" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="118"/>
     </row>
     <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B67" s="55" t="s">
@@ -12798,13 +12805,13 @@
         <v>18</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J68" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K68" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12847,19 +12854,19 @@
         <v>24</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="59"/>
@@ -12868,18 +12875,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="115" t="s">
-        <v>372</v>
-      </c>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
-      <c r="I73" s="116"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
+      <c r="B73" s="117" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" s="118"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="118"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="118"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B74" s="55" t="s">
@@ -12936,13 +12943,13 @@
         <v>18</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J75" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K75" s="56" t="s">
         <v>348</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12985,19 +12992,19 @@
         <v>24</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="59"/>
@@ -13007,16 +13014,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="B46:J46"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="B46:J46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13040,7 +13047,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="120"/>
       <c r="D2" s="120"/>
@@ -13054,7 +13061,7 @@
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -13075,7 +13082,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -13107,7 +13114,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -13139,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -13163,7 +13170,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -13172,10 +13179,10 @@
     </row>
     <row r="7" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="122" t="s">
         <v>241</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>242</v>
       </c>
       <c r="D7" s="123"/>
       <c r="E7" s="123"/>

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD07AF-D6DA-4581-BC34-337EFEBEFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8107C997-70A4-48D5-8E6D-7951B031B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="378">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -1863,6 +1863,10 @@
   </si>
   <si>
     <t>GO_sensor(出料传感器）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2398,8 +2402,17 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2410,80 +2423,11 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2503,23 +2447,89 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2528,12 +2538,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2557,16 +2561,16 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2870,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2902,18 +2906,18 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
-      <c r="M2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="M2" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
     </row>
     <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3151,30 +3155,30 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
     </row>
     <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C9" s="61" t="s">
@@ -3191,24 +3195,24 @@
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="69"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
     </row>
     <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -3259,18 +3263,18 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="72"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="92"/>
       <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3520,16 +3524,16 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C17" s="61" t="s">
@@ -3543,23 +3547,23 @@
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
-      <c r="M17" s="73" t="s">
+      <c r="M17" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3610,14 +3614,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="70" t="s">
+      <c r="T18" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="72"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="92"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3839,26 +3843,26 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="77"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="85"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
@@ -3937,11 +3941,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="78" t="s">
+      <c r="T26" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4204,26 +4208,26 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="75"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="77"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C37" s="61" t="s">
@@ -4237,21 +4241,21 @@
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
-      <c r="M37" s="73" t="s">
+      <c r="M37" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4302,12 +4306,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="70" t="s">
+      <c r="T38" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4563,26 +4567,26 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="75"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="77"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="85"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA45" s="80" t="s">
@@ -4768,22 +4772,22 @@
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
       <c r="K64" s="61"/>
-      <c r="M64" s="82" t="s">
+      <c r="M64" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="82"/>
-      <c r="T64" s="82"/>
-      <c r="U64" s="82"/>
-      <c r="V64" s="82"/>
-      <c r="W64" s="82"/>
-      <c r="X64" s="82"/>
-      <c r="Y64" s="82"/>
-      <c r="Z64" s="82"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="62"/>
+      <c r="W64" s="62"/>
+      <c r="X64" s="62"/>
+      <c r="Y64" s="62"/>
+      <c r="Z64" s="62"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4834,13 +4838,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="83" t="s">
+      <c r="T65" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="83"/>
-      <c r="V65" s="83"/>
-      <c r="W65" s="83"/>
-      <c r="X65" s="83"/>
+      <c r="U65" s="82"/>
+      <c r="V65" s="82"/>
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -5055,34 +5059,34 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="65"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="68"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="84" t="s">
+      <c r="N69" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
-      <c r="W69" s="84"/>
-      <c r="X69" s="84"/>
-      <c r="Y69" s="84"/>
-      <c r="Z69" s="84"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C73" s="61" t="s">
@@ -5116,13 +5120,13 @@
       <c r="AB73" s="34"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
-      <c r="AE73" s="85"/>
-      <c r="AF73" s="85"/>
-      <c r="AG73" s="85"/>
-      <c r="AH73" s="85"/>
-      <c r="AI73" s="85"/>
-      <c r="AJ73" s="85"/>
-      <c r="AK73" s="85"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="77"/>
+      <c r="AH73" s="77"/>
+      <c r="AI73" s="77"/>
+      <c r="AJ73" s="77"/>
+      <c r="AK73" s="77"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5173,25 +5177,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="88" t="s">
+      <c r="T74" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="89"/>
-      <c r="V74" s="89"/>
-      <c r="W74" s="89"/>
-      <c r="X74" s="89"/>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="89"/>
-      <c r="AB74" s="89"/>
-      <c r="AC74" s="89"/>
-      <c r="AD74" s="89"/>
-      <c r="AE74" s="89"/>
-      <c r="AF74" s="89"/>
-      <c r="AG74" s="89"/>
-      <c r="AH74" s="89"/>
-      <c r="AI74" s="89"/>
-      <c r="AJ74" s="90"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="64"/>
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="64"/>
+      <c r="AD74" s="64"/>
+      <c r="AE74" s="64"/>
+      <c r="AF74" s="64"/>
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="64"/>
+      <c r="AI74" s="64"/>
+      <c r="AJ74" s="65"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5524,14 +5528,14 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="63"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="68"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5551,12 +5555,12 @@
       <c r="AA78" s="49"/>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
-      <c r="AD78" s="86"/>
-      <c r="AE78" s="86"/>
-      <c r="AF78" s="86"/>
-      <c r="AG78" s="86"/>
-      <c r="AH78" s="86"/>
-      <c r="AI78" s="87"/>
+      <c r="AD78" s="78"/>
+      <c r="AE78" s="78"/>
+      <c r="AF78" s="78"/>
+      <c r="AG78" s="78"/>
+      <c r="AH78" s="78"/>
+      <c r="AI78" s="79"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C82" s="61" t="s">
@@ -5570,25 +5574,25 @@
       <c r="I82" s="61"/>
       <c r="J82" s="61"/>
       <c r="K82" s="61"/>
-      <c r="M82" s="91" t="s">
+      <c r="M82" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="N82" s="92"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="92"/>
-      <c r="U82" s="92"/>
-      <c r="V82" s="92"/>
-      <c r="W82" s="92"/>
-      <c r="X82" s="92"/>
-      <c r="Y82" s="92"/>
-      <c r="Z82" s="92"/>
-      <c r="AA82" s="92"/>
-      <c r="AB82" s="92"/>
-      <c r="AC82" s="93"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="72"/>
+      <c r="V82" s="72"/>
+      <c r="W82" s="72"/>
+      <c r="X82" s="72"/>
+      <c r="Y82" s="72"/>
+      <c r="Z82" s="72"/>
+      <c r="AA82" s="72"/>
+      <c r="AB82" s="72"/>
+      <c r="AC82" s="73"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5639,16 +5643,16 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="88" t="s">
+      <c r="T83" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="89"/>
-      <c r="V83" s="89"/>
-      <c r="W83" s="89"/>
-      <c r="X83" s="89"/>
-      <c r="Y83" s="89"/>
-      <c r="Z83" s="89"/>
-      <c r="AA83" s="90"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="64"/>
+      <c r="Y83" s="64"/>
+      <c r="Z83" s="64"/>
+      <c r="AA83" s="65"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5894,33 +5898,33 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="63"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="65"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="94"/>
-      <c r="O87" s="95"/>
-      <c r="P87" s="95"/>
-      <c r="Q87" s="95"/>
-      <c r="R87" s="95"/>
-      <c r="S87" s="95"/>
-      <c r="T87" s="95"/>
-      <c r="U87" s="95"/>
-      <c r="V87" s="95"/>
-      <c r="W87" s="95"/>
-      <c r="X87" s="95"/>
-      <c r="Y87" s="95"/>
-      <c r="Z87" s="95"/>
-      <c r="AA87" s="95"/>
-      <c r="AB87" s="95"/>
-      <c r="AC87" s="96"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="75"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
+      <c r="W87" s="75"/>
+      <c r="X87" s="75"/>
+      <c r="Y87" s="75"/>
+      <c r="Z87" s="75"/>
+      <c r="AA87" s="75"/>
+      <c r="AB87" s="75"/>
+      <c r="AC87" s="76"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C91" s="61" t="s">
@@ -5934,26 +5938,26 @@
       <c r="I91" s="61"/>
       <c r="J91" s="61"/>
       <c r="K91" s="61"/>
-      <c r="M91" s="82" t="s">
+      <c r="M91" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82"/>
-      <c r="P91" s="82"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="82"/>
-      <c r="T91" s="82"/>
-      <c r="U91" s="82"/>
-      <c r="V91" s="82"/>
-      <c r="W91" s="82"/>
-      <c r="X91" s="82"/>
-      <c r="Y91" s="82"/>
-      <c r="Z91" s="82"/>
-      <c r="AA91" s="82"/>
-      <c r="AB91" s="82"/>
-      <c r="AC91" s="82"/>
-      <c r="AD91" s="82"/>
+      <c r="N91" s="62"/>
+      <c r="O91" s="62"/>
+      <c r="P91" s="62"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="62"/>
+      <c r="S91" s="62"/>
+      <c r="T91" s="62"/>
+      <c r="U91" s="62"/>
+      <c r="V91" s="62"/>
+      <c r="W91" s="62"/>
+      <c r="X91" s="62"/>
+      <c r="Y91" s="62"/>
+      <c r="Z91" s="62"/>
+      <c r="AA91" s="62"/>
+      <c r="AB91" s="62"/>
+      <c r="AC91" s="62"/>
+      <c r="AD91" s="62"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6004,17 +6008,17 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="88" t="s">
+      <c r="T92" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="89"/>
-      <c r="V92" s="89"/>
-      <c r="W92" s="89"/>
-      <c r="X92" s="89"/>
-      <c r="Y92" s="89"/>
-      <c r="Z92" s="89"/>
-      <c r="AA92" s="89"/>
-      <c r="AB92" s="90"/>
+      <c r="U92" s="64"/>
+      <c r="V92" s="64"/>
+      <c r="W92" s="64"/>
+      <c r="X92" s="64"/>
+      <c r="Y92" s="64"/>
+      <c r="Z92" s="64"/>
+      <c r="AA92" s="64"/>
+      <c r="AB92" s="65"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6267,34 +6271,34 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="65"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
-      <c r="U96" s="84"/>
-      <c r="V96" s="84"/>
-      <c r="W96" s="84"/>
-      <c r="X96" s="84"/>
-      <c r="Y96" s="84"/>
-      <c r="Z96" s="84"/>
-      <c r="AA96" s="84"/>
-      <c r="AB96" s="84"/>
-      <c r="AC96" s="84"/>
-      <c r="AD96" s="84"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+      <c r="T96" s="70"/>
+      <c r="U96" s="70"/>
+      <c r="V96" s="70"/>
+      <c r="W96" s="70"/>
+      <c r="X96" s="70"/>
+      <c r="Y96" s="70"/>
+      <c r="Z96" s="70"/>
+      <c r="AA96" s="70"/>
+      <c r="AB96" s="70"/>
+      <c r="AC96" s="70"/>
+      <c r="AD96" s="70"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C100" s="61" t="s">
@@ -6308,24 +6312,24 @@
       <c r="I100" s="61"/>
       <c r="J100" s="61"/>
       <c r="K100" s="61"/>
-      <c r="M100" s="82" t="s">
+      <c r="M100" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="N100" s="82"/>
-      <c r="O100" s="82"/>
-      <c r="P100" s="82"/>
-      <c r="Q100" s="82"/>
-      <c r="R100" s="82"/>
-      <c r="S100" s="82"/>
-      <c r="T100" s="82"/>
-      <c r="U100" s="82"/>
-      <c r="V100" s="82"/>
-      <c r="W100" s="82"/>
-      <c r="X100" s="82"/>
-      <c r="Y100" s="82"/>
-      <c r="Z100" s="82"/>
-      <c r="AA100" s="82"/>
-      <c r="AB100" s="82"/>
+      <c r="N100" s="62"/>
+      <c r="O100" s="62"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="62"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="62"/>
+      <c r="V100" s="62"/>
+      <c r="W100" s="62"/>
+      <c r="X100" s="62"/>
+      <c r="Y100" s="62"/>
+      <c r="Z100" s="62"/>
+      <c r="AA100" s="62"/>
+      <c r="AB100" s="62"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6376,15 +6380,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="88" t="s">
+      <c r="T101" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="89"/>
-      <c r="V101" s="89"/>
-      <c r="W101" s="89"/>
-      <c r="X101" s="89"/>
-      <c r="Y101" s="89"/>
-      <c r="Z101" s="90"/>
+      <c r="U101" s="64"/>
+      <c r="V101" s="64"/>
+      <c r="W101" s="64"/>
+      <c r="X101" s="64"/>
+      <c r="Y101" s="64"/>
+      <c r="Z101" s="65"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6621,87 +6625,87 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="65"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="68"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="97"/>
-      <c r="O105" s="97"/>
-      <c r="P105" s="97"/>
-      <c r="Q105" s="97"/>
-      <c r="R105" s="97"/>
-      <c r="S105" s="97"/>
-      <c r="T105" s="97"/>
-      <c r="U105" s="97"/>
-      <c r="V105" s="97"/>
-      <c r="W105" s="97"/>
-      <c r="X105" s="97"/>
-      <c r="Y105" s="97"/>
-      <c r="Z105" s="97"/>
-      <c r="AA105" s="97"/>
-      <c r="AB105" s="97"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="69"/>
+      <c r="P105" s="69"/>
+      <c r="Q105" s="69"/>
+      <c r="R105" s="69"/>
+      <c r="S105" s="69"/>
+      <c r="T105" s="69"/>
+      <c r="U105" s="69"/>
+      <c r="V105" s="69"/>
+      <c r="W105" s="69"/>
+      <c r="X105" s="69"/>
+      <c r="Y105" s="69"/>
+      <c r="Z105" s="69"/>
+      <c r="AA105" s="69"/>
+      <c r="AB105" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="M100:AB100"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="M91:AD91"/>
-    <mergeCell ref="T92:AB92"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="N96:AD96"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="M82:AC82"/>
-    <mergeCell ref="T83:AA83"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="N87:AC87"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="AE73:AK73"/>
-    <mergeCell ref="AD78:AI78"/>
-    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="N9:AE9"/>
+    <mergeCell ref="T10:AC10"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="N30:V30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
     <mergeCell ref="AA57:AH57"/>
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="M64:Z64"/>
     <mergeCell ref="T65:X65"/>
     <mergeCell ref="D69:K69"/>
     <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="N42:V42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="N30:V30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="T10:AC10"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="N9:AE9"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="AE73:AK73"/>
+    <mergeCell ref="AD78:AI78"/>
+    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="M82:AC82"/>
+    <mergeCell ref="T83:AA83"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="N87:AC87"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="M91:AD91"/>
+    <mergeCell ref="T92:AB92"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="N96:AD96"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="M100:AB100"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6713,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6726,38 +6730,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="V2" s="99" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="V2" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6781,17 +6785,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7085,64 +7089,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="84" t="s">
+      <c r="W7" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="N9" s="99" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="N9" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7390,65 +7394,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Z16" s="99" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Z16" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7472,21 +7476,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7810,45 +7814,50 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="84" t="s">
+      <c r="AA21" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="W7:AE7"/>
     <mergeCell ref="Z16:AI16"/>
     <mergeCell ref="J17:V17"/>
     <mergeCell ref="D21:X21"/>
@@ -7858,11 +7867,6 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="W7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7874,7 +7878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N63" sqref="N63:X63"/>
     </sheetView>
   </sheetViews>
@@ -7891,17 +7895,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8022,34 +8026,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="N16" s="100" t="s">
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="N16" s="104" t="s">
         <v>303</v>
       </c>
-      <c r="O16" s="100"/>
-      <c r="Q16" s="100" t="s">
+      <c r="O16" s="104"/>
+      <c r="Q16" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="R16" s="100"/>
-      <c r="T16" s="100" t="s">
+      <c r="R16" s="104"/>
+      <c r="T16" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="U16" s="100"/>
-      <c r="W16" s="100" t="s">
+      <c r="U16" s="104"/>
+      <c r="W16" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="X16" s="100"/>
+      <c r="X16" s="104"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8298,18 +8302,18 @@
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
       <c r="N22" s="26" t="s">
         <v>309</v>
       </c>
@@ -8540,18 +8544,18 @@
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -8678,18 +8682,18 @@
       </c>
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -8816,31 +8820,31 @@
       </c>
     </row>
     <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="N46" s="102" t="s">
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="N46" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="O46" s="102"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="102"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="102"/>
-      <c r="V46" s="102"/>
-      <c r="W46" s="102"/>
-      <c r="X46" s="102"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="103"/>
     </row>
     <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
@@ -9121,31 +9125,31 @@
       </c>
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="N54" s="102" t="s">
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="N54" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="O54" s="102"/>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="102"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="102"/>
-      <c r="W54" s="102"/>
-      <c r="X54" s="102"/>
+      <c r="O54" s="103"/>
+      <c r="P54" s="103"/>
+      <c r="Q54" s="103"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="103"/>
+      <c r="X54" s="103"/>
     </row>
     <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
@@ -9426,31 +9430,31 @@
       </c>
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C63" s="101" t="s">
+      <c r="C63" s="100" t="s">
         <v>340</v>
       </c>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="N63" s="102" t="s">
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="N63" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="O63" s="102"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="102"/>
-      <c r="T63" s="102"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
+      <c r="O63" s="103"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="103"/>
+      <c r="T63" s="103"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="103"/>
+      <c r="W63" s="103"/>
+      <c r="X63" s="103"/>
     </row>
     <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
@@ -9731,31 +9735,31 @@
       </c>
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="100" t="s">
         <v>343</v>
       </c>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="101"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
-      <c r="N74" s="102" t="s">
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="100"/>
+      <c r="J74" s="100"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="100"/>
+      <c r="N74" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="102"/>
-      <c r="T74" s="102"/>
-      <c r="U74" s="102"/>
-      <c r="V74" s="102"/>
-      <c r="W74" s="102"/>
-      <c r="X74" s="102"/>
+      <c r="O74" s="103"/>
+      <c r="P74" s="103"/>
+      <c r="Q74" s="103"/>
+      <c r="R74" s="103"/>
+      <c r="S74" s="103"/>
+      <c r="T74" s="103"/>
+      <c r="U74" s="103"/>
+      <c r="V74" s="103"/>
+      <c r="W74" s="103"/>
+      <c r="X74" s="103"/>
     </row>
     <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
@@ -10036,29 +10040,29 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="101" t="s">
+      <c r="C83" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="101"/>
-      <c r="I83" s="101"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="101"/>
-      <c r="L83" s="101"/>
-      <c r="N83" s="106" t="s">
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="N83" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
-      <c r="Q83" s="107"/>
-      <c r="R83" s="107"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="107"/>
-      <c r="U83" s="107"/>
-      <c r="V83" s="107"/>
+      <c r="O83" s="102"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="102"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="102"/>
+      <c r="U83" s="102"/>
+      <c r="V83" s="102"/>
     </row>
     <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
@@ -10293,29 +10297,29 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="101" t="s">
+      <c r="C91" s="100" t="s">
         <v>350</v>
       </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="N91" s="106" t="s">
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="100"/>
+      <c r="H91" s="100"/>
+      <c r="I91" s="100"/>
+      <c r="J91" s="100"/>
+      <c r="K91" s="100"/>
+      <c r="L91" s="100"/>
+      <c r="N91" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="O91" s="107"/>
-      <c r="P91" s="107"/>
-      <c r="Q91" s="107"/>
-      <c r="R91" s="107"/>
-      <c r="S91" s="107"/>
-      <c r="T91" s="107"/>
-      <c r="U91" s="107"/>
-      <c r="V91" s="107"/>
+      <c r="O91" s="102"/>
+      <c r="P91" s="102"/>
+      <c r="Q91" s="102"/>
+      <c r="R91" s="102"/>
+      <c r="S91" s="102"/>
+      <c r="T91" s="102"/>
+      <c r="U91" s="102"/>
+      <c r="V91" s="102"/>
     </row>
     <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -10551,16 +10555,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="N83:V83"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="N91:V91"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="N54:X54"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="N63:X63"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="N74:X74"/>
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C46:L46"/>
@@ -10572,6 +10566,16 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="N83:V83"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="N91:V91"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="N54:X54"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="N63:X63"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="N74:X74"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10583,8 +10587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10849,7 +10853,9 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="9" t="s">
+        <v>377</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>363</v>
       </c>
@@ -11688,17 +11694,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="117" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11815,17 +11821,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="55" t="s">
@@ -11942,17 +11948,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="117" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B24" s="55" t="s">
@@ -12069,17 +12075,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="117" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="55" t="s">
@@ -12196,18 +12202,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
     </row>
     <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B40" s="55" t="s">
@@ -12334,17 +12340,17 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="117" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="55" t="s">
@@ -12461,18 +12467,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="117" t="s">
+      <c r="B52" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
     </row>
     <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="55" t="s">
@@ -12599,18 +12605,18 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
@@ -12737,18 +12743,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="117" t="s">
+      <c r="B66" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
     </row>
     <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B67" s="55" t="s">
@@ -12875,18 +12881,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="117" t="s">
+      <c r="B73" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B74" s="55" t="s">
@@ -13014,16 +13020,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B39:K39"/>
     <mergeCell ref="B52:K52"/>
     <mergeCell ref="B58:K58"/>
     <mergeCell ref="B66:K66"/>
     <mergeCell ref="B73:K73"/>
     <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B39:K39"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8107C997-70A4-48D5-8E6D-7951B031B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8DED4-3930-4FA3-825D-5C96379E0037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="377">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -914,16 +914,10 @@
     <t>气路状态</t>
   </si>
   <si>
-    <t>夹手参数</t>
-  </si>
-  <si>
     <t>GP_xxx</t>
   </si>
   <si>
     <t>传感器状态</t>
-  </si>
-  <si>
-    <t>封片参数</t>
   </si>
   <si>
     <r>
@@ -948,19 +942,7 @@
     </r>
   </si>
   <si>
-    <t>存储器参数</t>
-  </si>
-  <si>
     <t>07</t>
-  </si>
-  <si>
-    <t>喷胶参数</t>
-  </si>
-  <si>
-    <t>进料参数</t>
-  </si>
-  <si>
-    <t>托盘参数</t>
   </si>
   <si>
     <t>10</t>
@@ -1867,6 +1849,26 @@
   </si>
   <si>
     <t>运行完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进槽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出槽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹手托盘参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>封片参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出槽参数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2402,17 +2404,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2423,11 +2416,80 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2447,89 +2509,23 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2538,6 +2534,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2561,16 +2563,16 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2874,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -2906,18 +2908,18 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
-      <c r="M2" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
+      <c r="M2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3155,30 +3157,30 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="94" t="s">
+      <c r="N7" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
     </row>
     <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C9" s="61" t="s">
@@ -3195,24 +3197,24 @@
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="69"/>
     </row>
     <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -3263,18 +3265,18 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="88" t="s">
+      <c r="T10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="92"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
       <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3524,16 +3526,16 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C17" s="61" t="s">
@@ -3547,23 +3549,23 @@
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3614,14 +3616,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="88" t="s">
+      <c r="T18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="92"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="72"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3843,26 +3845,26 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="85"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="77"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
@@ -3941,11 +3943,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="90" t="s">
+      <c r="T26" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4208,26 +4210,26 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="83"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="85"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="77"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C37" s="61" t="s">
@@ -4241,21 +4243,21 @@
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4306,12 +4308,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="88" t="s">
+      <c r="T38" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4567,26 +4569,26 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="83"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="85"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="77"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA45" s="80" t="s">
@@ -4702,7 +4704,7 @@
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA57" s="80" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AB57" s="81"/>
       <c r="AC57" s="81"/>
@@ -4742,7 +4744,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AD59" s="4" t="s">
         <v>101</v>
@@ -4772,22 +4774,22 @@
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
       <c r="K64" s="61"/>
-      <c r="M64" s="62" t="s">
+      <c r="M64" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="82"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="82"/>
+      <c r="T64" s="82"/>
+      <c r="U64" s="82"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="82"/>
+      <c r="Y64" s="82"/>
+      <c r="Z64" s="82"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4838,13 +4840,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="82" t="s">
+      <c r="T65" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="82"/>
-      <c r="V65" s="82"/>
-      <c r="W65" s="82"/>
-      <c r="X65" s="82"/>
+      <c r="U65" s="83"/>
+      <c r="V65" s="83"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="83"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -5059,34 +5061,34 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="68"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="65"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="70" t="s">
+      <c r="N69" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="O69" s="70"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="84"/>
+      <c r="V69" s="84"/>
+      <c r="W69" s="84"/>
+      <c r="X69" s="84"/>
+      <c r="Y69" s="84"/>
+      <c r="Z69" s="84"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C73" s="61" t="s">
@@ -5120,13 +5122,13 @@
       <c r="AB73" s="34"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
-      <c r="AE73" s="77"/>
-      <c r="AF73" s="77"/>
-      <c r="AG73" s="77"/>
-      <c r="AH73" s="77"/>
-      <c r="AI73" s="77"/>
-      <c r="AJ73" s="77"/>
-      <c r="AK73" s="77"/>
+      <c r="AE73" s="85"/>
+      <c r="AF73" s="85"/>
+      <c r="AG73" s="85"/>
+      <c r="AH73" s="85"/>
+      <c r="AI73" s="85"/>
+      <c r="AJ73" s="85"/>
+      <c r="AK73" s="85"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5177,25 +5179,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="63" t="s">
+      <c r="T74" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="64"/>
-      <c r="V74" s="64"/>
-      <c r="W74" s="64"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="64"/>
-      <c r="Z74" s="64"/>
-      <c r="AA74" s="64"/>
-      <c r="AB74" s="64"/>
-      <c r="AC74" s="64"/>
-      <c r="AD74" s="64"/>
-      <c r="AE74" s="64"/>
-      <c r="AF74" s="64"/>
-      <c r="AG74" s="64"/>
-      <c r="AH74" s="64"/>
-      <c r="AI74" s="64"/>
-      <c r="AJ74" s="65"/>
+      <c r="U74" s="89"/>
+      <c r="V74" s="89"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="89"/>
+      <c r="AB74" s="89"/>
+      <c r="AC74" s="89"/>
+      <c r="AD74" s="89"/>
+      <c r="AE74" s="89"/>
+      <c r="AF74" s="89"/>
+      <c r="AG74" s="89"/>
+      <c r="AH74" s="89"/>
+      <c r="AI74" s="89"/>
+      <c r="AJ74" s="90"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5256,52 +5258,52 @@
         <v>116</v>
       </c>
       <c r="U75" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="V75" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="W75" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="X75" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y75" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z75" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA75" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB75" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="V75" s="50" t="s">
+      <c r="AC75" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD75" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="W75" s="50" t="s">
+      <c r="AE75" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF75" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="X75" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y75" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z75" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA75" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB75" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC75" s="50" t="s">
+      <c r="AG75" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH75" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="AD75" s="50" t="s">
+      <c r="AI75" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="AE75" s="50" t="s">
+      <c r="AJ75" s="50" t="s">
         <v>252</v>
-      </c>
-      <c r="AF75" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG75" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH75" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI75" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ75" s="50" t="s">
-        <v>258</v>
       </c>
       <c r="AK75" s="1" t="s">
         <v>19</v>
@@ -5468,10 +5470,10 @@
         <v>118</v>
       </c>
       <c r="U77" s="51" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V77" s="51" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="W77" s="4" t="s">
         <v>118</v>
@@ -5489,7 +5491,7 @@
         <v>118</v>
       </c>
       <c r="AB77" s="51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC77" s="4" t="s">
         <v>119</v>
@@ -5498,22 +5500,22 @@
         <v>119</v>
       </c>
       <c r="AE77" s="51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AF77" s="51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AG77" s="51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH77" s="51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AI77" s="51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AJ77" s="51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4">
@@ -5528,14 +5530,14 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="68"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5555,12 +5557,12 @@
       <c r="AA78" s="49"/>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
-      <c r="AD78" s="78"/>
-      <c r="AE78" s="78"/>
-      <c r="AF78" s="78"/>
-      <c r="AG78" s="78"/>
-      <c r="AH78" s="78"/>
-      <c r="AI78" s="79"/>
+      <c r="AD78" s="86"/>
+      <c r="AE78" s="86"/>
+      <c r="AF78" s="86"/>
+      <c r="AG78" s="86"/>
+      <c r="AH78" s="86"/>
+      <c r="AI78" s="87"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C82" s="61" t="s">
@@ -5574,25 +5576,25 @@
       <c r="I82" s="61"/>
       <c r="J82" s="61"/>
       <c r="K82" s="61"/>
-      <c r="M82" s="71" t="s">
+      <c r="M82" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
-      <c r="V82" s="72"/>
-      <c r="W82" s="72"/>
-      <c r="X82" s="72"/>
-      <c r="Y82" s="72"/>
-      <c r="Z82" s="72"/>
-      <c r="AA82" s="72"/>
-      <c r="AB82" s="72"/>
-      <c r="AC82" s="73"/>
+      <c r="N82" s="92"/>
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="92"/>
+      <c r="U82" s="92"/>
+      <c r="V82" s="92"/>
+      <c r="W82" s="92"/>
+      <c r="X82" s="92"/>
+      <c r="Y82" s="92"/>
+      <c r="Z82" s="92"/>
+      <c r="AA82" s="92"/>
+      <c r="AB82" s="92"/>
+      <c r="AC82" s="93"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5643,16 +5645,16 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="63" t="s">
+      <c r="T83" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="64"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="64"/>
-      <c r="Y83" s="64"/>
-      <c r="Z83" s="64"/>
-      <c r="AA83" s="65"/>
+      <c r="U83" s="89"/>
+      <c r="V83" s="89"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="89"/>
+      <c r="Y83" s="89"/>
+      <c r="Z83" s="89"/>
+      <c r="AA83" s="90"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5710,28 +5712,28 @@
         <v>18</v>
       </c>
       <c r="T84" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="U84" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="V84" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="W84" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="X84" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y84" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z84" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="U84" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="V84" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="W84" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="X84" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y84" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z84" s="50" t="s">
-        <v>280</v>
-      </c>
       <c r="AA84" s="50" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AB84" s="1" t="s">
         <v>19</v>
@@ -5898,33 +5900,33 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="68"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="65"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="74"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
-      <c r="W87" s="75"/>
-      <c r="X87" s="75"/>
-      <c r="Y87" s="75"/>
-      <c r="Z87" s="75"/>
-      <c r="AA87" s="75"/>
-      <c r="AB87" s="75"/>
-      <c r="AC87" s="76"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="95"/>
+      <c r="P87" s="95"/>
+      <c r="Q87" s="95"/>
+      <c r="R87" s="95"/>
+      <c r="S87" s="95"/>
+      <c r="T87" s="95"/>
+      <c r="U87" s="95"/>
+      <c r="V87" s="95"/>
+      <c r="W87" s="95"/>
+      <c r="X87" s="95"/>
+      <c r="Y87" s="95"/>
+      <c r="Z87" s="95"/>
+      <c r="AA87" s="95"/>
+      <c r="AB87" s="95"/>
+      <c r="AC87" s="96"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C91" s="61" t="s">
@@ -5938,26 +5940,26 @@
       <c r="I91" s="61"/>
       <c r="J91" s="61"/>
       <c r="K91" s="61"/>
-      <c r="M91" s="62" t="s">
+      <c r="M91" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="N91" s="62"/>
-      <c r="O91" s="62"/>
-      <c r="P91" s="62"/>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="62"/>
-      <c r="S91" s="62"/>
-      <c r="T91" s="62"/>
-      <c r="U91" s="62"/>
-      <c r="V91" s="62"/>
-      <c r="W91" s="62"/>
-      <c r="X91" s="62"/>
-      <c r="Y91" s="62"/>
-      <c r="Z91" s="62"/>
-      <c r="AA91" s="62"/>
-      <c r="AB91" s="62"/>
-      <c r="AC91" s="62"/>
-      <c r="AD91" s="62"/>
+      <c r="N91" s="82"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82"/>
+      <c r="Q91" s="82"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="82"/>
+      <c r="T91" s="82"/>
+      <c r="U91" s="82"/>
+      <c r="V91" s="82"/>
+      <c r="W91" s="82"/>
+      <c r="X91" s="82"/>
+      <c r="Y91" s="82"/>
+      <c r="Z91" s="82"/>
+      <c r="AA91" s="82"/>
+      <c r="AB91" s="82"/>
+      <c r="AC91" s="82"/>
+      <c r="AD91" s="82"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6008,17 +6010,17 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="63" t="s">
+      <c r="T92" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="64"/>
-      <c r="V92" s="64"/>
-      <c r="W92" s="64"/>
-      <c r="X92" s="64"/>
-      <c r="Y92" s="64"/>
-      <c r="Z92" s="64"/>
-      <c r="AA92" s="64"/>
-      <c r="AB92" s="65"/>
+      <c r="U92" s="89"/>
+      <c r="V92" s="89"/>
+      <c r="W92" s="89"/>
+      <c r="X92" s="89"/>
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="89"/>
+      <c r="AA92" s="89"/>
+      <c r="AB92" s="90"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6076,31 +6078,31 @@
         <v>18</v>
       </c>
       <c r="T93" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="U93" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="V93" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="W93" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="X93" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y93" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z93" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="U93" s="52" t="s">
+      <c r="AA93" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="V93" s="52" t="s">
+      <c r="AB93" s="50" t="s">
         <v>261</v>
-      </c>
-      <c r="W93" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="X93" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y93" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z93" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA93" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB93" s="50" t="s">
-        <v>267</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>19</v>
@@ -6244,13 +6246,13 @@
         <v>88</v>
       </c>
       <c r="T95" s="54" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="U95" s="31"/>
       <c r="V95" s="31"/>
       <c r="W95" s="31"/>
       <c r="X95" s="31" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y95" s="31" t="s">
         <v>126</v>
@@ -6271,34 +6273,34 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="66"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="68"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="65"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="70"/>
-      <c r="S96" s="70"/>
-      <c r="T96" s="70"/>
-      <c r="U96" s="70"/>
-      <c r="V96" s="70"/>
-      <c r="W96" s="70"/>
-      <c r="X96" s="70"/>
-      <c r="Y96" s="70"/>
-      <c r="Z96" s="70"/>
-      <c r="AA96" s="70"/>
-      <c r="AB96" s="70"/>
-      <c r="AC96" s="70"/>
-      <c r="AD96" s="70"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="84"/>
+      <c r="T96" s="84"/>
+      <c r="U96" s="84"/>
+      <c r="V96" s="84"/>
+      <c r="W96" s="84"/>
+      <c r="X96" s="84"/>
+      <c r="Y96" s="84"/>
+      <c r="Z96" s="84"/>
+      <c r="AA96" s="84"/>
+      <c r="AB96" s="84"/>
+      <c r="AC96" s="84"/>
+      <c r="AD96" s="84"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C100" s="61" t="s">
@@ -6312,24 +6314,24 @@
       <c r="I100" s="61"/>
       <c r="J100" s="61"/>
       <c r="K100" s="61"/>
-      <c r="M100" s="62" t="s">
+      <c r="M100" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="N100" s="62"/>
-      <c r="O100" s="62"/>
-      <c r="P100" s="62"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="62"/>
-      <c r="S100" s="62"/>
-      <c r="T100" s="62"/>
-      <c r="U100" s="62"/>
-      <c r="V100" s="62"/>
-      <c r="W100" s="62"/>
-      <c r="X100" s="62"/>
-      <c r="Y100" s="62"/>
-      <c r="Z100" s="62"/>
-      <c r="AA100" s="62"/>
-      <c r="AB100" s="62"/>
+      <c r="N100" s="82"/>
+      <c r="O100" s="82"/>
+      <c r="P100" s="82"/>
+      <c r="Q100" s="82"/>
+      <c r="R100" s="82"/>
+      <c r="S100" s="82"/>
+      <c r="T100" s="82"/>
+      <c r="U100" s="82"/>
+      <c r="V100" s="82"/>
+      <c r="W100" s="82"/>
+      <c r="X100" s="82"/>
+      <c r="Y100" s="82"/>
+      <c r="Z100" s="82"/>
+      <c r="AA100" s="82"/>
+      <c r="AB100" s="82"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6380,15 +6382,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="63" t="s">
+      <c r="T101" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="64"/>
-      <c r="V101" s="64"/>
-      <c r="W101" s="64"/>
-      <c r="X101" s="64"/>
-      <c r="Y101" s="64"/>
-      <c r="Z101" s="65"/>
+      <c r="U101" s="89"/>
+      <c r="V101" s="89"/>
+      <c r="W101" s="89"/>
+      <c r="X101" s="89"/>
+      <c r="Y101" s="89"/>
+      <c r="Z101" s="90"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6446,25 +6448,25 @@
         <v>18</v>
       </c>
       <c r="T102" s="50" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="U102" s="50" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="V102" s="50" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W102" s="27" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="X102" s="52" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Y102" s="53" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Z102" s="27" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>19</v>
@@ -6625,87 +6627,87 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="68"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="65"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
-      <c r="P105" s="69"/>
-      <c r="Q105" s="69"/>
-      <c r="R105" s="69"/>
-      <c r="S105" s="69"/>
-      <c r="T105" s="69"/>
-      <c r="U105" s="69"/>
-      <c r="V105" s="69"/>
-      <c r="W105" s="69"/>
-      <c r="X105" s="69"/>
-      <c r="Y105" s="69"/>
-      <c r="Z105" s="69"/>
-      <c r="AA105" s="69"/>
-      <c r="AB105" s="69"/>
+      <c r="N105" s="97"/>
+      <c r="O105" s="97"/>
+      <c r="P105" s="97"/>
+      <c r="Q105" s="97"/>
+      <c r="R105" s="97"/>
+      <c r="S105" s="97"/>
+      <c r="T105" s="97"/>
+      <c r="U105" s="97"/>
+      <c r="V105" s="97"/>
+      <c r="W105" s="97"/>
+      <c r="X105" s="97"/>
+      <c r="Y105" s="97"/>
+      <c r="Z105" s="97"/>
+      <c r="AA105" s="97"/>
+      <c r="AB105" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="M100:AB100"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="M91:AD91"/>
+    <mergeCell ref="T92:AB92"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="N96:AD96"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="M82:AC82"/>
+    <mergeCell ref="T83:AA83"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="N87:AC87"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="AE73:AK73"/>
+    <mergeCell ref="AD78:AI78"/>
+    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="M64:Z64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="N69:Z69"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="N30:V30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="T10:AC10"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="T18:Y18"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="M2:V2"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="N9:AE9"/>
-    <mergeCell ref="T10:AC10"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="N30:V30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="N42:V42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="M64:Z64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="AE73:AK73"/>
-    <mergeCell ref="AD78:AI78"/>
-    <mergeCell ref="T74:AJ74"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="M82:AC82"/>
-    <mergeCell ref="T83:AA83"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="N87:AC87"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="M91:AD91"/>
-    <mergeCell ref="T92:AB92"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="N96:AD96"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="M100:AB100"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6730,38 +6732,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="V2" s="98" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="V2" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6785,17 +6787,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7089,64 +7091,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="70" t="s">
+      <c r="W7" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="N9" s="98" t="s">
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="N9" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7394,65 +7396,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Z16" s="98" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Z16" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7476,21 +7478,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="82" t="s">
+      <c r="J17" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7814,50 +7816,45 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="70" t="s">
+      <c r="AA21" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="W7:AE7"/>
     <mergeCell ref="Z16:AI16"/>
     <mergeCell ref="J17:V17"/>
     <mergeCell ref="D21:X21"/>
@@ -7867,6 +7864,11 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:X16"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="W7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7878,7 +7880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N63" sqref="N63:X63"/>
     </sheetView>
   </sheetViews>
@@ -7895,17 +7897,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8026,34 +8028,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="N16" s="104" t="s">
-        <v>303</v>
-      </c>
-      <c r="O16" s="104"/>
-      <c r="Q16" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="R16" s="104"/>
-      <c r="T16" s="104" t="s">
-        <v>324</v>
-      </c>
-      <c r="U16" s="104"/>
-      <c r="W16" s="104" t="s">
-        <v>333</v>
-      </c>
-      <c r="X16" s="104"/>
+      <c r="C16" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="N16" s="100" t="s">
+        <v>297</v>
+      </c>
+      <c r="O16" s="100"/>
+      <c r="Q16" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="R16" s="100"/>
+      <c r="T16" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="U16" s="100"/>
+      <c r="W16" s="100" t="s">
+        <v>327</v>
+      </c>
+      <c r="X16" s="100"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8087,25 +8089,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="R17" s="26">
         <v>0</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="X17" s="26">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -8143,25 +8145,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R18" s="26">
         <v>1</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="U18" s="26">
         <v>1</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="X18" s="26">
         <v>1</v>
@@ -8199,25 +8201,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O19" s="26">
         <v>2</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="R19" s="26">
         <v>2</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="U19" s="26">
         <v>2</v>
       </c>
       <c r="W19" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="X19" s="26">
         <v>2</v>
@@ -8231,7 +8233,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -8243,7 +8245,7 @@
         <v>150</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="4"/>
@@ -8251,25 +8253,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O20" s="26">
         <v>3</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R20" s="26">
         <v>3</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="U20" s="26">
         <v>3</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="X20" s="26">
         <v>3</v>
@@ -8277,63 +8279,63 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O21" s="26">
         <v>4</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="R21" s="26">
         <v>4</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="U21" s="26">
         <v>4</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="X21" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
+      <c r="C22" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="105"/>
       <c r="N22" s="26" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O22" s="26">
         <v>5</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="R22" s="26">
         <v>5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U22" s="26">
         <v>5</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="X22" s="26">
         <v>5</v>
@@ -8371,25 +8373,25 @@
         <v>10</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O23" s="26">
         <v>6</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="R23" s="26">
         <v>6</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="U23" s="26">
         <v>6</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="X23" s="26">
         <v>6</v>
@@ -8418,7 +8420,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -8427,19 +8429,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="R24" s="26">
         <v>7</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="U24" s="26">
         <v>7</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X24" s="26">
         <v>7</v>
@@ -8477,13 +8479,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="R25" s="26">
         <v>8</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="U25" s="26">
         <v>8</v>
@@ -8497,7 +8499,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>26</v>
@@ -8509,7 +8511,7 @@
         <v>150</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="4"/>
@@ -8517,13 +8519,13 @@
         <v>23</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="R26" s="26">
         <v>9</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="U26" s="26">
         <v>9</v>
@@ -8531,31 +8533,31 @@
     </row>
     <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Q27" s="26" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="R27" s="26">
         <v>10</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="U27" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
+      <c r="C29" s="103" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="105"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -8612,7 +8614,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -8661,7 +8663,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>26</v>
@@ -8673,7 +8675,7 @@
         <v>150</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="4"/>
@@ -8682,18 +8684,18 @@
       </c>
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="107"/>
+      <c r="C37" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="105"/>
     </row>
     <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -8750,7 +8752,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -8799,7 +8801,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>26</v>
@@ -8811,7 +8813,7 @@
         <v>150</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="4"/>
@@ -8820,31 +8822,31 @@
       </c>
     </row>
     <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="N46" s="103" t="s">
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="N46" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="103"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="102"/>
     </row>
     <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
@@ -9125,31 +9127,31 @@
       </c>
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C54" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="N54" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="O54" s="103"/>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="103"/>
-      <c r="R54" s="103"/>
-      <c r="S54" s="103"/>
-      <c r="T54" s="103"/>
-      <c r="U54" s="103"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="103"/>
-      <c r="X54" s="103"/>
+      <c r="C54" s="101" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
+      <c r="N54" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
+      <c r="U54" s="102"/>
+      <c r="V54" s="102"/>
+      <c r="W54" s="102"/>
+      <c r="X54" s="102"/>
     </row>
     <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
@@ -9351,7 +9353,7 @@
         <v>86</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J58" s="28" t="s">
         <v>179</v>
@@ -9379,10 +9381,10 @@
         <v>86</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>9</v>
@@ -9411,7 +9413,7 @@
         <v>86</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U59" s="60" t="s">
         <v>182</v>
@@ -9430,31 +9432,31 @@
       </c>
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C63" s="100" t="s">
-        <v>340</v>
-      </c>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="N63" s="103" t="s">
-        <v>341</v>
-      </c>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="103"/>
-      <c r="R63" s="103"/>
-      <c r="S63" s="103"/>
-      <c r="T63" s="103"/>
-      <c r="U63" s="103"/>
-      <c r="V63" s="103"/>
-      <c r="W63" s="103"/>
-      <c r="X63" s="103"/>
+      <c r="C63" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="N63" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="102"/>
+      <c r="V63" s="102"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
     </row>
     <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
@@ -9656,7 +9658,7 @@
         <v>86</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J67" s="28" t="s">
         <v>179</v>
@@ -9684,7 +9686,7 @@
         <v>86</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="U67" s="59" t="s">
         <v>180</v>
@@ -9716,7 +9718,7 @@
         <v>86</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="U68" s="60" t="s">
         <v>182</v>
@@ -9735,31 +9737,31 @@
       </c>
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C74" s="100" t="s">
-        <v>343</v>
-      </c>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="100"/>
-      <c r="N74" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="103"/>
-      <c r="R74" s="103"/>
-      <c r="S74" s="103"/>
-      <c r="T74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103"/>
-      <c r="W74" s="103"/>
-      <c r="X74" s="103"/>
+      <c r="C74" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="N74" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="102"/>
+      <c r="S74" s="102"/>
+      <c r="T74" s="102"/>
+      <c r="U74" s="102"/>
+      <c r="V74" s="102"/>
+      <c r="W74" s="102"/>
+      <c r="X74" s="102"/>
     </row>
     <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
@@ -9961,10 +9963,10 @@
         <v>86</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4">
@@ -9989,7 +9991,7 @@
         <v>86</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="U78" s="59" t="s">
         <v>180</v>
@@ -10040,29 +10042,29 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="100" t="s">
-        <v>345</v>
-      </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="N83" s="101" t="s">
-        <v>346</v>
-      </c>
-      <c r="O83" s="102"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="102"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="102"/>
-      <c r="U83" s="102"/>
-      <c r="V83" s="102"/>
+      <c r="C83" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
+      <c r="I83" s="101"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="N83" s="106" t="s">
+        <v>340</v>
+      </c>
+      <c r="O83" s="107"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="107"/>
+      <c r="T83" s="107"/>
+      <c r="U83" s="107"/>
+      <c r="V83" s="107"/>
     </row>
     <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
@@ -10176,10 +10178,10 @@
         <v>18</v>
       </c>
       <c r="U85" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="V85" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10261,7 +10263,7 @@
         <v>86</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J87" s="28" t="s">
         <v>179</v>
@@ -10277,7 +10279,7 @@
         <v>24</v>
       </c>
       <c r="P87" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q87" s="58" t="s">
         <v>26</v>
@@ -10289,7 +10291,7 @@
         <v>86</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="U87" s="59"/>
       <c r="V87" s="59">
@@ -10297,29 +10299,29 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="100"/>
-      <c r="N91" s="101" t="s">
-        <v>346</v>
-      </c>
-      <c r="O91" s="102"/>
-      <c r="P91" s="102"/>
-      <c r="Q91" s="102"/>
-      <c r="R91" s="102"/>
-      <c r="S91" s="102"/>
-      <c r="T91" s="102"/>
-      <c r="U91" s="102"/>
-      <c r="V91" s="102"/>
+      <c r="C91" s="101" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="N91" s="106" t="s">
+        <v>340</v>
+      </c>
+      <c r="O91" s="107"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="107"/>
+      <c r="R91" s="107"/>
+      <c r="S91" s="107"/>
+      <c r="T91" s="107"/>
+      <c r="U91" s="107"/>
+      <c r="V91" s="107"/>
     </row>
     <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -10433,10 +10435,10 @@
         <v>18</v>
       </c>
       <c r="U93" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="V93" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10518,7 +10520,7 @@
         <v>86</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J95" s="28" t="s">
         <v>179</v>
@@ -10534,7 +10536,7 @@
         <v>24</v>
       </c>
       <c r="P95" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q95" s="58" t="s">
         <v>26</v>
@@ -10546,7 +10548,7 @@
         <v>86</v>
       </c>
       <c r="T95" s="25" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="U95" s="59"/>
       <c r="V95" s="59">
@@ -10555,6 +10557,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="N83:V83"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="N91:V91"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="N54:X54"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="N63:X63"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="N74:X74"/>
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C46:L46"/>
@@ -10566,16 +10578,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="N83:V83"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="N91:V91"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="N54:X54"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="N63:X63"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="N74:X74"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10588,7 +10590,7 @@
   <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10737,7 +10739,7 @@
         <v>202</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10751,16 +10753,16 @@
         <v>204</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>205</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10778,10 +10780,10 @@
         <v>207</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10792,17 +10794,17 @@
         <v>208</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10810,20 +10812,20 @@
         <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>290</v>
+        <v>211</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10832,32 +10834,30 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
       <c r="G15" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="D16" s="16"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="9" t="s">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10865,14 +10865,14 @@
         <v>25</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="H17" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10880,35 +10880,35 @@
         <v>28</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="9" t="s">
+        <v>371</v>
+      </c>
       <c r="H18" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -10918,14 +10918,14 @@
         <v>42</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10936,10 +10936,10 @@
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -10947,10 +10947,10 @@
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -10961,7 +10961,7 @@
         <v>117</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -10969,10 +10969,10 @@
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -10983,7 +10983,7 @@
         <v>133</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -11079,10 +11079,9 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -11090,10 +11089,9 @@
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -11101,10 +11099,9 @@
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -11159,7 +11156,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -11171,7 +11168,7 @@
       <c r="I1" s="114"/>
       <c r="J1" s="114"/>
       <c r="L1" s="113" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M1" s="114"/>
       <c r="N1" s="114"/>
@@ -11267,10 +11264,10 @@
         <v>177</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>12</v>
@@ -11294,10 +11291,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11367,19 +11364,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>179</v>
@@ -11395,19 +11392,19 @@
         <v>24</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59">
@@ -11416,7 +11413,7 @@
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A10" s="113" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B10" s="114"/>
       <c r="C10" s="114"/>
@@ -11428,7 +11425,7 @@
       <c r="I10" s="114"/>
       <c r="J10" s="114"/>
       <c r="L10" s="113" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M10" s="114"/>
       <c r="N10" s="114"/>
@@ -11524,10 +11521,10 @@
         <v>177</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>12</v>
@@ -11551,10 +11548,10 @@
         <v>18</v>
       </c>
       <c r="S12" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="T12" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11624,19 +11621,19 @@
         <v>24</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>179</v>
@@ -11652,19 +11649,19 @@
         <v>24</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59">
@@ -11694,17 +11691,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
+      <c r="B7" s="115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
     </row>
     <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11758,10 +11755,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11801,7 +11798,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>26</v>
@@ -11810,10 +11807,10 @@
         <v>132</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59">
@@ -11821,17 +11818,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="117" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="115" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="55" t="s">
@@ -11885,10 +11882,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11928,7 +11925,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>26</v>
@@ -11937,10 +11934,10 @@
         <v>132</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59">
@@ -11948,17 +11945,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="115" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B24" s="55" t="s">
@@ -12012,10 +12009,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J25" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -12055,7 +12052,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>26</v>
@@ -12064,10 +12061,10 @@
         <v>132</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -12075,17 +12072,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
+      <c r="B32" s="115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="55" t="s">
@@ -12139,10 +12136,10 @@
         <v>18</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J34" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12182,7 +12179,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>26</v>
@@ -12191,10 +12188,10 @@
         <v>132</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59">
@@ -12202,18 +12199,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="115" t="s">
-        <v>358</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
+      <c r="B39" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
     </row>
     <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B40" s="55" t="s">
@@ -12270,13 +12267,13 @@
         <v>18</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J41" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12319,7 +12316,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>26</v>
@@ -12328,10 +12325,10 @@
         <v>132</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="59"/>
@@ -12340,17 +12337,17 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="117" t="s">
-        <v>359</v>
-      </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="115" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="55" t="s">
@@ -12404,10 +12401,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J48" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12447,7 +12444,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>26</v>
@@ -12456,10 +12453,10 @@
         <v>132</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="59">
@@ -12467,18 +12464,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="115" t="s">
-        <v>367</v>
-      </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
+      <c r="B52" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
     </row>
     <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="55" t="s">
@@ -12535,13 +12532,13 @@
         <v>18</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J54" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K54" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12584,7 +12581,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>26</v>
@@ -12593,10 +12590,10 @@
         <v>132</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="59"/>
@@ -12605,18 +12602,18 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="115" t="s">
-        <v>369</v>
-      </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
+      <c r="B58" s="117" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
@@ -12673,13 +12670,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J60" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K60" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12722,7 +12719,7 @@
         <v>24</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>26</v>
@@ -12731,10 +12728,10 @@
         <v>132</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="59"/>
@@ -12743,18 +12740,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="115" t="s">
-        <v>370</v>
-      </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
+      <c r="B66" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="118"/>
     </row>
     <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B67" s="55" t="s">
@@ -12811,13 +12808,13 @@
         <v>18</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J68" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K68" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12860,7 +12857,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>26</v>
@@ -12869,10 +12866,10 @@
         <v>132</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="59"/>
@@ -12881,18 +12878,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="115" t="s">
-        <v>371</v>
-      </c>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
-      <c r="I73" s="116"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
+      <c r="B73" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="118"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="118"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="118"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B74" s="55" t="s">
@@ -12949,13 +12946,13 @@
         <v>18</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J75" s="56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K75" s="56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12998,7 +12995,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>26</v>
@@ -13007,10 +13004,10 @@
         <v>132</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="59"/>
@@ -13020,16 +13017,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="B46:J46"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="B46:J46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13053,7 +13050,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="119" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" s="120"/>
       <c r="D2" s="120"/>
@@ -13067,7 +13064,7 @@
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -13088,7 +13085,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -13152,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -13176,7 +13173,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -13185,10 +13182,10 @@
     </row>
     <row r="7" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C7" s="122" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D7" s="123"/>
       <c r="E7" s="123"/>

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8DED4-3930-4FA3-825D-5C96379E0037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034DF80-DE35-45BA-B0BA-A52811DACA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="376">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -1500,10 +1500,6 @@
   </si>
   <si>
     <t>停止运行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复运行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4704,7 +4700,7 @@
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA57" s="80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB57" s="81"/>
       <c r="AC57" s="81"/>
@@ -4744,7 +4740,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AD59" s="4" t="s">
         <v>101</v>
@@ -8029,7 +8025,7 @@
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C16" s="103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="104"/>
       <c r="E16" s="104"/>
@@ -8041,19 +8037,19 @@
       <c r="K16" s="104"/>
       <c r="L16" s="105"/>
       <c r="N16" s="100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O16" s="100"/>
       <c r="Q16" s="100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R16" s="100"/>
       <c r="T16" s="100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U16" s="100"/>
       <c r="W16" s="100" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X16" s="100"/>
     </row>
@@ -8089,25 +8085,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R17" s="26">
         <v>0</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X17" s="26">
         <v>0</v>
@@ -8136,7 +8132,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -8145,25 +8141,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R18" s="26">
         <v>1</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U18" s="26">
         <v>1</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X18" s="26">
         <v>1</v>
@@ -8201,25 +8197,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O19" s="26">
         <v>2</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R19" s="26">
         <v>2</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U19" s="26">
         <v>2</v>
       </c>
       <c r="W19" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X19" s="26">
         <v>2</v>
@@ -8233,7 +8229,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -8245,7 +8241,7 @@
         <v>150</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="4"/>
@@ -8253,25 +8249,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O20" s="26">
         <v>3</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R20" s="26">
         <v>3</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U20" s="26">
         <v>3</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X20" s="26">
         <v>3</v>
@@ -8279,25 +8275,25 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O21" s="26">
         <v>4</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R21" s="26">
         <v>4</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U21" s="26">
         <v>4</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X21" s="26">
         <v>4</v>
@@ -8305,7 +8301,7 @@
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="C22" s="103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
@@ -8317,25 +8313,25 @@
       <c r="K22" s="104"/>
       <c r="L22" s="105"/>
       <c r="N22" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O22" s="26">
         <v>5</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R22" s="26">
         <v>5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U22" s="26">
         <v>5</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X22" s="26">
         <v>5</v>
@@ -8373,25 +8369,25 @@
         <v>10</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O23" s="26">
         <v>6</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R23" s="26">
         <v>6</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U23" s="26">
         <v>6</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X23" s="26">
         <v>6</v>
@@ -8420,7 +8416,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -8429,19 +8425,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R24" s="26">
         <v>7</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U24" s="26">
         <v>7</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X24" s="26">
         <v>7</v>
@@ -8479,13 +8475,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R25" s="26">
         <v>8</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U25" s="26">
         <v>8</v>
@@ -8499,7 +8495,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>26</v>
@@ -8511,7 +8507,7 @@
         <v>150</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="4"/>
@@ -8519,13 +8515,13 @@
         <v>23</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R26" s="26">
         <v>9</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U26" s="26">
         <v>9</v>
@@ -8533,13 +8529,13 @@
     </row>
     <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Q27" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R27" s="26">
         <v>10</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U27" s="26">
         <v>10</v>
@@ -8547,7 +8543,7 @@
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C29" s="103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D29" s="104"/>
       <c r="E29" s="104"/>
@@ -8614,7 +8610,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -8663,7 +8659,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>26</v>
@@ -8675,7 +8671,7 @@
         <v>150</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="4"/>
@@ -8685,7 +8681,7 @@
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C37" s="103" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="104"/>
       <c r="E37" s="104"/>
@@ -8752,7 +8748,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -8801,7 +8797,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>26</v>
@@ -8813,7 +8809,7 @@
         <v>150</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="4"/>
@@ -9128,7 +9124,7 @@
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C54" s="101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D54" s="101"/>
       <c r="E54" s="101"/>
@@ -9140,7 +9136,7 @@
       <c r="K54" s="101"/>
       <c r="L54" s="101"/>
       <c r="N54" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O54" s="102"/>
       <c r="P54" s="102"/>
@@ -9353,7 +9349,7 @@
         <v>86</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J58" s="28" t="s">
         <v>179</v>
@@ -9381,10 +9377,10 @@
         <v>86</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>9</v>
@@ -9413,7 +9409,7 @@
         <v>86</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U59" s="60" t="s">
         <v>182</v>
@@ -9433,7 +9429,7 @@
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C63" s="101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D63" s="101"/>
       <c r="E63" s="101"/>
@@ -9445,7 +9441,7 @@
       <c r="K63" s="101"/>
       <c r="L63" s="101"/>
       <c r="N63" s="102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O63" s="102"/>
       <c r="P63" s="102"/>
@@ -9658,7 +9654,7 @@
         <v>86</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J67" s="28" t="s">
         <v>179</v>
@@ -9686,7 +9682,7 @@
         <v>86</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U67" s="59" t="s">
         <v>180</v>
@@ -9718,7 +9714,7 @@
         <v>86</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U68" s="60" t="s">
         <v>182</v>
@@ -9738,7 +9734,7 @@
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C74" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D74" s="101"/>
       <c r="E74" s="101"/>
@@ -9750,7 +9746,7 @@
       <c r="K74" s="101"/>
       <c r="L74" s="101"/>
       <c r="N74" s="102" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O74" s="102"/>
       <c r="P74" s="102"/>
@@ -9963,10 +9959,10 @@
         <v>86</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4">
@@ -9991,7 +9987,7 @@
         <v>86</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U78" s="59" t="s">
         <v>180</v>
@@ -10043,7 +10039,7 @@
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C83" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D83" s="101"/>
       <c r="E83" s="101"/>
@@ -10055,7 +10051,7 @@
       <c r="K83" s="101"/>
       <c r="L83" s="101"/>
       <c r="N83" s="106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O83" s="107"/>
       <c r="P83" s="107"/>
@@ -10178,10 +10174,10 @@
         <v>18</v>
       </c>
       <c r="U85" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="V85" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="V85" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10263,7 +10259,7 @@
         <v>86</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J87" s="28" t="s">
         <v>179</v>
@@ -10279,7 +10275,7 @@
         <v>24</v>
       </c>
       <c r="P87" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q87" s="58" t="s">
         <v>26</v>
@@ -10291,7 +10287,7 @@
         <v>86</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U87" s="59"/>
       <c r="V87" s="59">
@@ -10300,7 +10296,7 @@
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C91" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D91" s="101"/>
       <c r="E91" s="101"/>
@@ -10312,7 +10308,7 @@
       <c r="K91" s="101"/>
       <c r="L91" s="101"/>
       <c r="N91" s="106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O91" s="107"/>
       <c r="P91" s="107"/>
@@ -10435,10 +10431,10 @@
         <v>18</v>
       </c>
       <c r="U93" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="V93" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="V93" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10520,7 +10516,7 @@
         <v>86</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J95" s="28" t="s">
         <v>179</v>
@@ -10536,7 +10532,7 @@
         <v>24</v>
       </c>
       <c r="P95" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q95" s="58" t="s">
         <v>26</v>
@@ -10548,7 +10544,7 @@
         <v>86</v>
       </c>
       <c r="T95" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U95" s="59"/>
       <c r="V95" s="59">
@@ -10590,7 +10586,7 @@
   <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10739,7 +10735,7 @@
         <v>202</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10753,7 +10749,7 @@
         <v>204</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>205</v>
@@ -10762,7 +10758,7 @@
         <v>281</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10783,7 +10779,7 @@
         <v>282</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10794,17 +10790,17 @@
         <v>208</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>372</v>
+      <c r="G13" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10815,17 +10811,17 @@
         <v>210</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>373</v>
+      <c r="G14" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10834,7 +10830,7 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
@@ -10842,7 +10838,7 @@
         <v>283</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10857,7 +10853,7 @@
         <v>284</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10868,11 +10864,8 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10883,11 +10876,8 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10900,7 +10890,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10912,6 +10902,9 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
+      <c r="H20" s="9" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
@@ -11156,7 +11149,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -11168,7 +11161,7 @@
       <c r="I1" s="114"/>
       <c r="J1" s="114"/>
       <c r="L1" s="113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M1" s="114"/>
       <c r="N1" s="114"/>
@@ -11264,10 +11257,10 @@
         <v>177</v>
       </c>
       <c r="I3" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>342</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>12</v>
@@ -11291,10 +11284,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="T3" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11364,19 +11357,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>179</v>
@@ -11392,19 +11385,19 @@
         <v>24</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59">
@@ -11413,7 +11406,7 @@
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A10" s="113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="114"/>
       <c r="C10" s="114"/>
@@ -11425,7 +11418,7 @@
       <c r="I10" s="114"/>
       <c r="J10" s="114"/>
       <c r="L10" s="113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M10" s="114"/>
       <c r="N10" s="114"/>
@@ -11521,10 +11514,10 @@
         <v>177</v>
       </c>
       <c r="I12" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>342</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>12</v>
@@ -11548,10 +11541,10 @@
         <v>18</v>
       </c>
       <c r="S12" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="T12" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11621,19 +11614,19 @@
         <v>24</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>179</v>
@@ -11649,19 +11642,19 @@
         <v>24</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59">
@@ -11692,7 +11685,7 @@
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B7" s="115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -11755,10 +11748,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11798,7 +11791,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>26</v>
@@ -11807,10 +11800,10 @@
         <v>132</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59">
@@ -11819,7 +11812,7 @@
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B14" s="115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C14" s="116"/>
       <c r="D14" s="116"/>
@@ -11882,10 +11875,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11925,7 +11918,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>26</v>
@@ -11934,10 +11927,10 @@
         <v>132</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59">
@@ -11946,7 +11939,7 @@
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B23" s="115" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
@@ -12009,10 +12002,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J25" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -12052,7 +12045,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>26</v>
@@ -12061,10 +12054,10 @@
         <v>132</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -12073,7 +12066,7 @@
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B32" s="115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" s="116"/>
       <c r="D32" s="116"/>
@@ -12136,10 +12129,10 @@
         <v>18</v>
       </c>
       <c r="I34" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J34" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12179,7 +12172,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>26</v>
@@ -12188,10 +12181,10 @@
         <v>132</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59">
@@ -12200,7 +12193,7 @@
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B39" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" s="118"/>
       <c r="D39" s="118"/>
@@ -12267,13 +12260,13 @@
         <v>18</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J41" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12316,7 +12309,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>26</v>
@@ -12325,10 +12318,10 @@
         <v>132</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="59"/>
@@ -12338,7 +12331,7 @@
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B46" s="115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C46" s="116"/>
       <c r="D46" s="116"/>
@@ -12401,10 +12394,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="J48" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12444,7 +12437,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>26</v>
@@ -12453,10 +12446,10 @@
         <v>132</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="59">
@@ -12465,7 +12458,7 @@
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B52" s="117" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C52" s="118"/>
       <c r="D52" s="118"/>
@@ -12532,13 +12525,13 @@
         <v>18</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J54" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K54" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="K54" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12581,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>26</v>
@@ -12590,10 +12583,10 @@
         <v>132</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>345</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>346</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="59"/>
@@ -12603,7 +12596,7 @@
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B58" s="117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C58" s="118"/>
       <c r="D58" s="118"/>
@@ -12670,13 +12663,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J60" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K60" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="K60" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12719,7 +12712,7 @@
         <v>24</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>26</v>
@@ -12728,10 +12721,10 @@
         <v>132</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="59"/>
@@ -12741,7 +12734,7 @@
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B66" s="117" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" s="118"/>
       <c r="D66" s="118"/>
@@ -12808,13 +12801,13 @@
         <v>18</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J68" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K68" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12857,7 +12850,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>26</v>
@@ -12866,10 +12859,10 @@
         <v>132</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="59"/>
@@ -12879,7 +12872,7 @@
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B73" s="117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C73" s="118"/>
       <c r="D73" s="118"/>
@@ -12946,13 +12939,13 @@
         <v>18</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J75" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K75" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12995,7 +12988,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>26</v>
@@ -13004,10 +12997,10 @@
         <v>132</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="59"/>

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034DF80-DE35-45BA-B0BA-A52811DACA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C411D-2E50-45EC-A016-2AD4B10B0F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="379">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>查询应答：参数：设备状态</t>
-  </si>
-  <si>
-    <t>复位步骤</t>
   </si>
   <si>
     <t>任务状态</t>
@@ -1865,6 +1862,22 @@
   </si>
   <si>
     <t>进出槽参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试 运行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2213,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2397,6 +2410,21 @@
     <xf numFmtId="49" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2414,15 +2442,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2588,6 +2607,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2872,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView topLeftCell="K77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="Y72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF103" sqref="AF103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2892,32 +2914,32 @@
     <col min="34" max="34" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="61" t="s">
+    <row r="2" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="M2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-    </row>
-    <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="M2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+    </row>
+    <row r="3" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +2998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3094,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3149,70 +3171,68 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-    </row>
-    <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="61" t="s">
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+    </row>
+    <row r="9" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C9" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="69"/>
-    </row>
-    <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="65"/>
+    </row>
+    <row r="10" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3261,26 +3281,24 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="1" t="s">
+      <c r="T10" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -3329,44 +3347,38 @@
       <c r="S11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3445,18 +3457,12 @@
       <c r="AC12" s="3">
         <v>1</v>
       </c>
-      <c r="AD12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="42">
-        <f>SUM(N12:AE12)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="AE12" s="42">
+        <f>SUM(N12:AC12)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3489,7 +3495,7 @@
         <v>24</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>26</v>
@@ -3512,56 +3518,54 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4">
+      <c r="AC13" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C17" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="61" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="M17" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="M17" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3612,14 +3616,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="70" t="s">
+      <c r="T18" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="72"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="74"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3677,22 +3681,22 @@
         <v>18</v>
       </c>
       <c r="T19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="U19" s="27" t="s">
+      <c r="V19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="27" t="s">
+      <c r="W19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="W19" s="27" t="s">
+      <c r="X19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="X19" s="27" t="s">
+      <c r="Y19" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>51</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>19</v>
@@ -3799,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
@@ -3812,7 +3816,7 @@
         <v>24</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>26</v>
@@ -3824,7 +3828,7 @@
         <v>27</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -3841,42 +3845,42 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="M25" s="33" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="M25" s="33" t="s">
-        <v>55</v>
       </c>
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
@@ -3939,11 +3943,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="78" t="s">
+      <c r="T26" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4001,13 +4005,13 @@
         <v>18</v>
       </c>
       <c r="T27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="U27" s="27" t="s">
+      <c r="V27" s="27" t="s">
         <v>57</v>
-      </c>
-      <c r="V27" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>19</v>
@@ -4015,16 +4019,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
-      <c r="AH27" s="81"/>
+      <c r="AA27" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -4095,28 +4099,28 @@
         <v>14</v>
       </c>
       <c r="AA28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AC28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AD28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD28" s="4" t="s">
+      <c r="AE28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AF28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF28" s="4" t="s">
+      <c r="AG28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG28" s="4" t="s">
+      <c r="AH28" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AH28" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
@@ -4139,7 +4143,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
@@ -4152,7 +4156,7 @@
         <v>24</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>26</v>
@@ -4164,13 +4168,13 @@
         <v>27</v>
       </c>
       <c r="S29" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
@@ -4178,82 +4182,82 @@
         <v>23</v>
       </c>
       <c r="AA29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="AC29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AD29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AE29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AF29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AF29" s="4" t="s">
+      <c r="AG29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AG29" s="4" t="s">
+      <c r="AH29" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="75"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="79"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="M37" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="M37" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4304,12 +4308,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="70" t="s">
+      <c r="T38" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4367,16 +4371,16 @@
         <v>18</v>
       </c>
       <c r="T39" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="U39" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="U39" s="27" t="s">
+      <c r="V39" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="V39" s="27" t="s">
+      <c r="W39" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="W39" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>19</v>
@@ -4384,16 +4388,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="81"/>
-      <c r="AF39" s="81"/>
-      <c r="AG39" s="81"/>
-      <c r="AH39" s="81"/>
+      <c r="AA39" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="83"/>
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="83"/>
+      <c r="AG39" s="83"/>
+      <c r="AH39" s="83"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4467,28 +4471,28 @@
         <v>12</v>
       </c>
       <c r="AA40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB40" s="4" t="s">
+      <c r="AC40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC40" s="4" t="s">
+      <c r="AD40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD40" s="4" t="s">
+      <c r="AE40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE40" s="4" t="s">
+      <c r="AF40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF40" s="4" t="s">
+      <c r="AG40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG40" s="4" t="s">
+      <c r="AH40" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AH40" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
@@ -4511,7 +4515,7 @@
         <v>27</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4">
@@ -4524,7 +4528,7 @@
         <v>24</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>26</v>
@@ -4536,7 +4540,7 @@
         <v>27</v>
       </c>
       <c r="S41" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -4552,76 +4556,76 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AG41" s="4" t="s">
+      <c r="AH41" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AH41" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="70"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="75"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="79"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="81"/>
-      <c r="AF45" s="81"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
+      <c r="AA45" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="83"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB46" s="4" t="s">
+      <c r="AC46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AD46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AE46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE46" s="4" t="s">
+      <c r="AF46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF46" s="4" t="s">
+      <c r="AG46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG46" s="4" t="s">
+      <c r="AH46" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AH46" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="47" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
@@ -4631,51 +4635,51 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AG47" s="4" t="s">
+      <c r="AH47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AH47" s="4" t="s">
+    </row>
+    <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="AA51" s="82" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB51" s="81"/>
-      <c r="AC51" s="81"/>
-      <c r="AD51" s="81"/>
-      <c r="AE51" s="81"/>
-      <c r="AF51" s="81"/>
-      <c r="AG51" s="81"/>
-      <c r="AH51" s="81"/>
+      <c r="AB51" s="83"/>
+      <c r="AC51" s="83"/>
+      <c r="AD51" s="83"/>
+      <c r="AE51" s="83"/>
+      <c r="AF51" s="83"/>
+      <c r="AG51" s="83"/>
+      <c r="AH51" s="83"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB52" s="4" t="s">
+      <c r="AC52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC52" s="4" t="s">
+      <c r="AD52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD52" s="4" t="s">
+      <c r="AE52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE52" s="4" t="s">
+      <c r="AF52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF52" s="4" t="s">
+      <c r="AG52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG52" s="4" t="s">
+      <c r="AH52" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AH52" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="53" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
@@ -4683,109 +4687,109 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AE53" s="4" t="s">
+      <c r="AF53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AF53" s="4" t="s">
+      <c r="AG53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AG53" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="AH53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB57" s="81"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="81"/>
-      <c r="AE57" s="81"/>
-      <c r="AF57" s="81"/>
-      <c r="AG57" s="81"/>
-      <c r="AH57" s="81"/>
+      <c r="AA57" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB57" s="83"/>
+      <c r="AC57" s="83"/>
+      <c r="AD57" s="83"/>
+      <c r="AE57" s="83"/>
+      <c r="AF57" s="83"/>
+      <c r="AG57" s="83"/>
+      <c r="AH57" s="83"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB58" s="4" t="s">
+      <c r="AC58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC58" s="4" t="s">
+      <c r="AD58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD58" s="4" t="s">
+      <c r="AE58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE58" s="4" t="s">
+      <c r="AF58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF58" s="4" t="s">
+      <c r="AG58" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG58" s="4" t="s">
+      <c r="AH58" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AH58" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE59" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF59" s="4" t="s">
+      <c r="AG59" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AG59" s="4" t="s">
+      <c r="AH59" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AH59" s="4" t="s">
+    </row>
+    <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C64" s="66" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="61" t="s">
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="M64" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="M64" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="82"/>
-      <c r="T64" s="82"/>
-      <c r="U64" s="82"/>
-      <c r="V64" s="82"/>
-      <c r="W64" s="82"/>
-      <c r="X64" s="82"/>
-      <c r="Y64" s="82"/>
-      <c r="Z64" s="82"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="84"/>
+      <c r="U64" s="84"/>
+      <c r="V64" s="84"/>
+      <c r="W64" s="84"/>
+      <c r="X64" s="84"/>
+      <c r="Y64" s="84"/>
+      <c r="Z64" s="84"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4836,13 +4840,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="83" t="s">
+      <c r="T65" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="83"/>
-      <c r="V65" s="83"/>
-      <c r="W65" s="83"/>
-      <c r="X65" s="83"/>
+      <c r="U65" s="85"/>
+      <c r="V65" s="85"/>
+      <c r="W65" s="85"/>
+      <c r="X65" s="85"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4900,19 +4904,19 @@
         <v>18</v>
       </c>
       <c r="T66" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="Y66" s="1" t="s">
         <v>19</v>
@@ -5029,7 +5033,7 @@
         <v>24</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>26</v>
@@ -5057,49 +5061,49 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="65"/>
+      <c r="D69" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="70"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="84" t="s">
+      <c r="N69" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="O69" s="86"/>
+      <c r="P69" s="86"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="86"/>
+      <c r="T69" s="86"/>
+      <c r="U69" s="86"/>
+      <c r="V69" s="86"/>
+      <c r="W69" s="86"/>
+      <c r="X69" s="86"/>
+      <c r="Y69" s="86"/>
+      <c r="Z69" s="86"/>
+    </row>
+    <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="C73" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
-      <c r="W69" s="84"/>
-      <c r="X69" s="84"/>
-      <c r="Y69" s="84"/>
-      <c r="Z69" s="84"/>
-    </row>
-    <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="61" t="s">
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="M73" s="33" t="s">
         <v>114</v>
-      </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="M73" s="33" t="s">
-        <v>115</v>
       </c>
       <c r="N73" s="34"/>
       <c r="O73" s="34"/>
@@ -5118,13 +5122,13 @@
       <c r="AB73" s="34"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
-      <c r="AE73" s="85"/>
-      <c r="AF73" s="85"/>
-      <c r="AG73" s="85"/>
-      <c r="AH73" s="85"/>
-      <c r="AI73" s="85"/>
-      <c r="AJ73" s="85"/>
-      <c r="AK73" s="85"/>
+      <c r="AE73" s="87"/>
+      <c r="AF73" s="87"/>
+      <c r="AG73" s="87"/>
+      <c r="AH73" s="87"/>
+      <c r="AI73" s="87"/>
+      <c r="AJ73" s="87"/>
+      <c r="AK73" s="87"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5175,25 +5179,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="88" t="s">
+      <c r="T74" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="89"/>
-      <c r="V74" s="89"/>
-      <c r="W74" s="89"/>
-      <c r="X74" s="89"/>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="89"/>
-      <c r="AB74" s="89"/>
-      <c r="AC74" s="89"/>
-      <c r="AD74" s="89"/>
-      <c r="AE74" s="89"/>
-      <c r="AF74" s="89"/>
-      <c r="AG74" s="89"/>
-      <c r="AH74" s="89"/>
-      <c r="AI74" s="89"/>
-      <c r="AJ74" s="90"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91"/>
+      <c r="W74" s="91"/>
+      <c r="X74" s="91"/>
+      <c r="Y74" s="91"/>
+      <c r="Z74" s="91"/>
+      <c r="AA74" s="91"/>
+      <c r="AB74" s="91"/>
+      <c r="AC74" s="91"/>
+      <c r="AD74" s="91"/>
+      <c r="AE74" s="91"/>
+      <c r="AF74" s="91"/>
+      <c r="AG74" s="91"/>
+      <c r="AH74" s="91"/>
+      <c r="AI74" s="91"/>
+      <c r="AJ74" s="92"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5251,55 +5255,55 @@
         <v>18</v>
       </c>
       <c r="T75" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U75" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="V75" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="W75" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="X75" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="V75" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="W75" s="50" t="s">
+      <c r="Y75" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z75" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA75" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB75" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="X75" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y75" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z75" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA75" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB75" s="50" t="s">
-        <v>242</v>
-      </c>
       <c r="AC75" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD75" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="AD75" s="50" t="s">
+      <c r="AE75" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="AE75" s="50" t="s">
+      <c r="AF75" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="AF75" s="50" t="s">
-        <v>247</v>
-      </c>
       <c r="AG75" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH75" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="AH75" s="50" t="s">
+      <c r="AI75" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="AI75" s="50" t="s">
+      <c r="AJ75" s="50" t="s">
         <v>251</v>
-      </c>
-      <c r="AJ75" s="50" t="s">
-        <v>252</v>
       </c>
       <c r="AK75" s="1" t="s">
         <v>19</v>
@@ -5361,19 +5365,19 @@
         <v>2</v>
       </c>
       <c r="U76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W76" s="3">
         <v>2</v>
       </c>
       <c r="X76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z76" s="3">
         <v>2</v>
@@ -5385,28 +5389,28 @@
         <v>2</v>
       </c>
       <c r="AC76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE76" s="3">
         <v>2</v>
       </c>
       <c r="AF76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH76" s="3">
         <v>2</v>
       </c>
       <c r="AI76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ76" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK76" s="3">
         <v>1</v>
@@ -5448,7 +5452,7 @@
         <v>24</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>26</v>
@@ -5463,55 +5467,55 @@
         <v>27</v>
       </c>
       <c r="T77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U77" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="V77" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB77" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC77" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U77" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="V77" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="W77" s="4" t="s">
+      <c r="AD77" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="X77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z77" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA77" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB77" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC77" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD77" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="AE77" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF77" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG77" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH77" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI77" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ77" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4">
@@ -5519,21 +5523,21 @@
       </c>
       <c r="AM77" s="42">
         <f>SUM(N76:AL76)</f>
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="63"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="65"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="70"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5553,44 +5557,44 @@
       <c r="AA78" s="49"/>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
-      <c r="AD78" s="86"/>
-      <c r="AE78" s="86"/>
-      <c r="AF78" s="86"/>
-      <c r="AG78" s="86"/>
-      <c r="AH78" s="86"/>
-      <c r="AI78" s="87"/>
+      <c r="AD78" s="88"/>
+      <c r="AE78" s="88"/>
+      <c r="AF78" s="88"/>
+      <c r="AG78" s="88"/>
+      <c r="AH78" s="88"/>
+      <c r="AI78" s="89"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="M82" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="M82" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="N82" s="92"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="92"/>
-      <c r="U82" s="92"/>
-      <c r="V82" s="92"/>
-      <c r="W82" s="92"/>
-      <c r="X82" s="92"/>
-      <c r="Y82" s="92"/>
-      <c r="Z82" s="92"/>
-      <c r="AA82" s="92"/>
-      <c r="AB82" s="92"/>
-      <c r="AC82" s="93"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+      <c r="U82" s="94"/>
+      <c r="V82" s="94"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="94"/>
+      <c r="Y82" s="94"/>
+      <c r="Z82" s="94"/>
+      <c r="AA82" s="94"/>
+      <c r="AB82" s="94"/>
+      <c r="AC82" s="95"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5641,16 +5645,16 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="88" t="s">
+      <c r="T83" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="89"/>
-      <c r="V83" s="89"/>
-      <c r="W83" s="89"/>
-      <c r="X83" s="89"/>
-      <c r="Y83" s="89"/>
-      <c r="Z83" s="89"/>
-      <c r="AA83" s="90"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="91"/>
+      <c r="AA83" s="92"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5708,28 +5712,28 @@
         <v>18</v>
       </c>
       <c r="T84" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="U84" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="U84" s="50" t="s">
+      <c r="V84" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="V84" s="50" t="s">
+      <c r="W84" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="W84" s="50" t="s">
+      <c r="X84" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="X84" s="27" t="s">
+      <c r="Y84" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="Y84" s="50" t="s">
+      <c r="Z84" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="Z84" s="50" t="s">
-        <v>274</v>
-      </c>
       <c r="AA84" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB84" s="1" t="s">
         <v>19</v>
@@ -5842,7 +5846,7 @@
         <v>29</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4">
@@ -5855,7 +5859,7 @@
         <v>24</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P86" s="31" t="s">
         <v>26</v>
@@ -5867,22 +5871,22 @@
         <v>29</v>
       </c>
       <c r="S86" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T86" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U86" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V86" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W86" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X86" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -5896,66 +5900,66 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="63"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="65"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="70"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="94"/>
-      <c r="O87" s="95"/>
-      <c r="P87" s="95"/>
-      <c r="Q87" s="95"/>
-      <c r="R87" s="95"/>
-      <c r="S87" s="95"/>
-      <c r="T87" s="95"/>
-      <c r="U87" s="95"/>
-      <c r="V87" s="95"/>
-      <c r="W87" s="95"/>
-      <c r="X87" s="95"/>
-      <c r="Y87" s="95"/>
-      <c r="Z87" s="95"/>
-      <c r="AA87" s="95"/>
-      <c r="AB87" s="95"/>
-      <c r="AC87" s="96"/>
+      <c r="N87" s="96"/>
+      <c r="O87" s="97"/>
+      <c r="P87" s="97"/>
+      <c r="Q87" s="97"/>
+      <c r="R87" s="97"/>
+      <c r="S87" s="97"/>
+      <c r="T87" s="97"/>
+      <c r="U87" s="97"/>
+      <c r="V87" s="97"/>
+      <c r="W87" s="97"/>
+      <c r="X87" s="97"/>
+      <c r="Y87" s="97"/>
+      <c r="Z87" s="97"/>
+      <c r="AA87" s="97"/>
+      <c r="AB87" s="97"/>
+      <c r="AC87" s="98"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="M91" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="M91" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82"/>
-      <c r="P91" s="82"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="82"/>
-      <c r="T91" s="82"/>
-      <c r="U91" s="82"/>
-      <c r="V91" s="82"/>
-      <c r="W91" s="82"/>
-      <c r="X91" s="82"/>
-      <c r="Y91" s="82"/>
-      <c r="Z91" s="82"/>
-      <c r="AA91" s="82"/>
-      <c r="AB91" s="82"/>
-      <c r="AC91" s="82"/>
-      <c r="AD91" s="82"/>
+      <c r="N91" s="84"/>
+      <c r="O91" s="84"/>
+      <c r="P91" s="84"/>
+      <c r="Q91" s="84"/>
+      <c r="R91" s="84"/>
+      <c r="S91" s="84"/>
+      <c r="T91" s="84"/>
+      <c r="U91" s="84"/>
+      <c r="V91" s="84"/>
+      <c r="W91" s="84"/>
+      <c r="X91" s="84"/>
+      <c r="Y91" s="84"/>
+      <c r="Z91" s="84"/>
+      <c r="AA91" s="84"/>
+      <c r="AB91" s="84"/>
+      <c r="AC91" s="84"/>
+      <c r="AD91" s="84"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6006,17 +6010,17 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="88" t="s">
+      <c r="T92" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="89"/>
-      <c r="V92" s="89"/>
-      <c r="W92" s="89"/>
-      <c r="X92" s="89"/>
-      <c r="Y92" s="89"/>
-      <c r="Z92" s="89"/>
-      <c r="AA92" s="89"/>
-      <c r="AB92" s="90"/>
+      <c r="U92" s="91"/>
+      <c r="V92" s="91"/>
+      <c r="W92" s="91"/>
+      <c r="X92" s="91"/>
+      <c r="Y92" s="91"/>
+      <c r="Z92" s="91"/>
+      <c r="AA92" s="91"/>
+      <c r="AB92" s="92"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6074,31 +6078,31 @@
         <v>18</v>
       </c>
       <c r="T93" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="U93" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="U93" s="52" t="s">
+      <c r="V93" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="V93" s="52" t="s">
+      <c r="W93" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="W93" s="52" t="s">
+      <c r="X93" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="X93" s="52" t="s">
+      <c r="Y93" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="Y93" s="50" t="s">
+      <c r="Z93" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="Z93" s="50" t="s">
+      <c r="AA93" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="AA93" s="50" t="s">
+      <c r="AB93" s="50" t="s">
         <v>260</v>
-      </c>
-      <c r="AB93" s="50" t="s">
-        <v>261</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>19</v>
@@ -6214,7 +6218,7 @@
         <v>29</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4">
@@ -6227,7 +6231,7 @@
         <v>24</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P95" s="31" t="s">
         <v>26</v>
@@ -6239,25 +6243,25 @@
         <v>29</v>
       </c>
       <c r="S95" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T95" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U95" s="31"/>
       <c r="V95" s="31"/>
       <c r="W95" s="31"/>
       <c r="X95" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y95" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z95" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA95" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB95" s="31"/>
       <c r="AC95" s="4"/>
@@ -6269,65 +6273,65 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="65"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="70"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
-      <c r="U96" s="84"/>
-      <c r="V96" s="84"/>
-      <c r="W96" s="84"/>
-      <c r="X96" s="84"/>
-      <c r="Y96" s="84"/>
-      <c r="Z96" s="84"/>
-      <c r="AA96" s="84"/>
-      <c r="AB96" s="84"/>
-      <c r="AC96" s="84"/>
-      <c r="AD96" s="84"/>
+      <c r="N96" s="86"/>
+      <c r="O96" s="86"/>
+      <c r="P96" s="86"/>
+      <c r="Q96" s="86"/>
+      <c r="R96" s="86"/>
+      <c r="S96" s="86"/>
+      <c r="T96" s="86"/>
+      <c r="U96" s="86"/>
+      <c r="V96" s="86"/>
+      <c r="W96" s="86"/>
+      <c r="X96" s="86"/>
+      <c r="Y96" s="86"/>
+      <c r="Z96" s="86"/>
+      <c r="AA96" s="86"/>
+      <c r="AB96" s="86"/>
+      <c r="AC96" s="86"/>
+      <c r="AD96" s="86"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="61" t="s">
+      <c r="C100" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="66"/>
+      <c r="M100" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="M100" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="N100" s="82"/>
-      <c r="O100" s="82"/>
-      <c r="P100" s="82"/>
-      <c r="Q100" s="82"/>
-      <c r="R100" s="82"/>
-      <c r="S100" s="82"/>
-      <c r="T100" s="82"/>
-      <c r="U100" s="82"/>
-      <c r="V100" s="82"/>
-      <c r="W100" s="82"/>
-      <c r="X100" s="82"/>
-      <c r="Y100" s="82"/>
-      <c r="Z100" s="82"/>
-      <c r="AA100" s="82"/>
-      <c r="AB100" s="82"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="84"/>
+      <c r="Q100" s="84"/>
+      <c r="R100" s="84"/>
+      <c r="S100" s="84"/>
+      <c r="T100" s="84"/>
+      <c r="U100" s="84"/>
+      <c r="V100" s="84"/>
+      <c r="W100" s="84"/>
+      <c r="X100" s="84"/>
+      <c r="Y100" s="84"/>
+      <c r="Z100" s="84"/>
+      <c r="AA100" s="84"/>
+      <c r="AB100" s="84"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6378,15 +6382,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="88" t="s">
+      <c r="T101" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="89"/>
-      <c r="V101" s="89"/>
-      <c r="W101" s="89"/>
-      <c r="X101" s="89"/>
-      <c r="Y101" s="89"/>
-      <c r="Z101" s="90"/>
+      <c r="U101" s="91"/>
+      <c r="V101" s="91"/>
+      <c r="W101" s="91"/>
+      <c r="X101" s="91"/>
+      <c r="Y101" s="91"/>
+      <c r="Z101" s="92"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6444,25 +6448,25 @@
         <v>18</v>
       </c>
       <c r="T102" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="U102" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="U102" s="50" t="s">
+      <c r="V102" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="V102" s="50" t="s">
-        <v>267</v>
-      </c>
       <c r="W102" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="X102" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y102" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z102" s="27" t="s">
         <v>276</v>
-      </c>
-      <c r="X102" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y102" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z102" s="27" t="s">
-        <v>277</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>19</v>
@@ -6572,7 +6576,7 @@
         <v>29</v>
       </c>
       <c r="I104" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4">
@@ -6585,7 +6589,7 @@
         <v>24</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P104" s="31" t="s">
         <v>26</v>
@@ -6597,19 +6601,19 @@
         <v>29</v>
       </c>
       <c r="S104" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="T104" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="T104" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="U104" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V104" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W104" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X104" s="31"/>
       <c r="Y104" s="31"/>
@@ -6623,35 +6627,35 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="65"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="70"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="97"/>
-      <c r="O105" s="97"/>
-      <c r="P105" s="97"/>
-      <c r="Q105" s="97"/>
-      <c r="R105" s="97"/>
-      <c r="S105" s="97"/>
-      <c r="T105" s="97"/>
-      <c r="U105" s="97"/>
-      <c r="V105" s="97"/>
-      <c r="W105" s="97"/>
-      <c r="X105" s="97"/>
-      <c r="Y105" s="97"/>
-      <c r="Z105" s="97"/>
-      <c r="AA105" s="97"/>
-      <c r="AB105" s="97"/>
+      <c r="N105" s="99"/>
+      <c r="O105" s="99"/>
+      <c r="P105" s="99"/>
+      <c r="Q105" s="99"/>
+      <c r="R105" s="99"/>
+      <c r="S105" s="99"/>
+      <c r="T105" s="99"/>
+      <c r="U105" s="99"/>
+      <c r="V105" s="99"/>
+      <c r="W105" s="99"/>
+      <c r="X105" s="99"/>
+      <c r="Y105" s="99"/>
+      <c r="Z105" s="99"/>
+      <c r="AA105" s="99"/>
+      <c r="AB105" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="50">
     <mergeCell ref="C100:K100"/>
     <mergeCell ref="M100:AB100"/>
     <mergeCell ref="T101:Z101"/>
@@ -6693,7 +6697,6 @@
     <mergeCell ref="C25:K25"/>
     <mergeCell ref="T26:V26"/>
     <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="T10:AC10"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="M17:AA17"/>
@@ -6703,11 +6706,10 @@
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="N9:AE9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6715,7 +6717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:X16"/>
     </sheetView>
   </sheetViews>
@@ -6728,38 +6730,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="V2" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="V2" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6783,17 +6785,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6854,31 +6856,31 @@
         <v>18</v>
       </c>
       <c r="J4" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="M4" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="O4" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>146</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>19</v>
@@ -6908,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>19</v>
@@ -7011,13 +7013,13 @@
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>29</v>
@@ -7027,28 +7029,28 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="R6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4">
@@ -7067,7 +7069,7 @@
         <v>26</v>
       </c>
       <c r="Z6" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>29</v>
@@ -7076,7 +7078,7 @@
         <v>27</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4">
@@ -7087,64 +7089,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
+      <c r="W7" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="N9" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="N9" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7231,7 +7233,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>19</v>
@@ -7261,7 +7263,7 @@
         <v>18</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>19</v>
@@ -7340,19 +7342,19 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -7372,16 +7374,16 @@
         <v>26</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S13" s="22" t="s">
         <v>29</v>
       </c>
       <c r="T13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
@@ -7392,65 +7394,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Z16" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Z16" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7474,21 +7476,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7549,43 +7551,43 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="L18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="M18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="N18" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="O18" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="P18" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="Q18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="R18" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="S18" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="T18" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="T18" s="27" t="s">
+      <c r="U18" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="U18" s="27" t="s">
+      <c r="V18" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="V18" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>19</v>
@@ -7615,7 +7617,7 @@
         <v>18</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>19</v>
@@ -7730,50 +7732,50 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4">
@@ -7792,16 +7794,16 @@
         <v>26</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="AF20" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG20" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4">
@@ -7812,41 +7814,41 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
+      <c r="AA21" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -7876,7 +7878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N63" sqref="N63:X63"/>
     </sheetView>
   </sheetViews>
@@ -7893,17 +7895,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="C2" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8006,10 +8008,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -8024,34 +8026,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="N16" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="O16" s="100"/>
-      <c r="Q16" s="100" t="s">
+      <c r="C16" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="R16" s="100"/>
-      <c r="T16" s="100" t="s">
-        <v>317</v>
-      </c>
-      <c r="U16" s="100"/>
-      <c r="W16" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="X16" s="100"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="N16" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="O16" s="102"/>
+      <c r="Q16" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="R16" s="102"/>
+      <c r="T16" s="102" t="s">
+        <v>316</v>
+      </c>
+      <c r="U16" s="102"/>
+      <c r="W16" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="X16" s="102"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8085,25 +8087,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R17" s="26">
         <v>0</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X17" s="26">
         <v>0</v>
@@ -8132,7 +8134,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -8141,25 +8143,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R18" s="26">
         <v>1</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U18" s="26">
         <v>1</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X18" s="26">
         <v>1</v>
@@ -8197,25 +8199,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O19" s="26">
         <v>2</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R19" s="26">
         <v>2</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U19" s="26">
         <v>2</v>
       </c>
       <c r="W19" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X19" s="26">
         <v>2</v>
@@ -8229,19 +8231,19 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="4"/>
@@ -8249,25 +8251,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O20" s="26">
         <v>3</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R20" s="26">
         <v>3</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U20" s="26">
         <v>3</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X20" s="26">
         <v>3</v>
@@ -8275,63 +8277,63 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O21" s="26">
         <v>4</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R21" s="26">
         <v>4</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U21" s="26">
         <v>4</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X21" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="103" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="105"/>
+      <c r="C22" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
       <c r="N22" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O22" s="26">
         <v>5</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R22" s="26">
         <v>5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U22" s="26">
         <v>5</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X22" s="26">
         <v>5</v>
@@ -8369,25 +8371,25 @@
         <v>10</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O23" s="26">
         <v>6</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R23" s="26">
         <v>6</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U23" s="26">
         <v>6</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X23" s="26">
         <v>6</v>
@@ -8416,7 +8418,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -8425,19 +8427,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R24" s="26">
         <v>7</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U24" s="26">
         <v>7</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X24" s="26">
         <v>7</v>
@@ -8475,13 +8477,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R25" s="26">
         <v>8</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U25" s="26">
         <v>8</v>
@@ -8495,19 +8497,19 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="4"/>
@@ -8515,13 +8517,13 @@
         <v>23</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R26" s="26">
         <v>9</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U26" s="26">
         <v>9</v>
@@ -8529,31 +8531,31 @@
     </row>
     <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Q27" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R27" s="26">
         <v>10</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U27" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="105"/>
+      <c r="C29" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -8610,7 +8612,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -8659,19 +8661,19 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="4"/>
@@ -8680,18 +8682,18 @@
       </c>
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="103" t="s">
-        <v>308</v>
-      </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="105"/>
+      <c r="C37" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -8748,7 +8750,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -8797,19 +8799,19 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="4"/>
@@ -8818,31 +8820,31 @@
       </c>
     </row>
     <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="N46" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="N46" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="O46" s="102"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="102"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="102"/>
-      <c r="V46" s="102"/>
-      <c r="W46" s="102"/>
-      <c r="X46" s="102"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
     </row>
     <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
@@ -8923,7 +8925,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>19</v>
@@ -8953,7 +8955,7 @@
         <v>18</v>
       </c>
       <c r="U48" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9038,16 +9040,16 @@
         <v>26</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4">
@@ -9066,16 +9068,16 @@
         <v>26</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T50" s="25" t="s">
         <v>27</v>
       </c>
       <c r="U50" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V50" s="55" t="s">
         <v>9</v>
@@ -9092,28 +9094,28 @@
         <v>24</v>
       </c>
       <c r="P51" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q51" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S51" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T51" s="25" t="s">
         <v>27</v>
       </c>
       <c r="U51" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="V51" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="V51" s="58" t="s">
+      <c r="W51" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="W51" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="X51" s="55" t="s">
         <v>9</v>
@@ -9123,31 +9125,31 @@
       </c>
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="N54" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="N54" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="O54" s="102"/>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="102"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="102"/>
-      <c r="W54" s="102"/>
-      <c r="X54" s="102"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
     </row>
     <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
@@ -9228,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>19</v>
@@ -9258,7 +9260,7 @@
         <v>18</v>
       </c>
       <c r="U56" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9343,16 +9345,16 @@
         <v>26</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4">
@@ -9371,16 +9373,16 @@
         <v>26</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S58" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>9</v>
@@ -9397,28 +9399,28 @@
         <v>24</v>
       </c>
       <c r="P59" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q59" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S59" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U59" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="V59" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="V59" s="58" t="s">
+      <c r="W59" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="W59" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="X59" s="55" t="s">
         <v>9</v>
@@ -9428,31 +9430,31 @@
       </c>
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C63" s="101" t="s">
+      <c r="C63" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="103"/>
+      <c r="L63" s="103"/>
+      <c r="N63" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="N63" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="O63" s="102"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="102"/>
-      <c r="T63" s="102"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
     </row>
     <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
@@ -9533,7 +9535,7 @@
         <v>18</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>19</v>
@@ -9563,7 +9565,7 @@
         <v>18</v>
       </c>
       <c r="U65" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9648,16 +9650,16 @@
         <v>26</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4">
@@ -9676,16 +9678,16 @@
         <v>26</v>
       </c>
       <c r="R67" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S67" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U67" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V67" s="55" t="s">
         <v>9</v>
@@ -9702,28 +9704,28 @@
         <v>24</v>
       </c>
       <c r="P68" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q68" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R68" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S68" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U68" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="V68" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="V68" s="58" t="s">
+      <c r="W68" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="W68" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>9</v>
@@ -9733,31 +9735,31 @@
       </c>
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
+      <c r="L74" s="103"/>
+      <c r="N74" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="101"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
-      <c r="N74" s="102" t="s">
-        <v>337</v>
-      </c>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="102"/>
-      <c r="T74" s="102"/>
-      <c r="U74" s="102"/>
-      <c r="V74" s="102"/>
-      <c r="W74" s="102"/>
-      <c r="X74" s="102"/>
+      <c r="O74" s="104"/>
+      <c r="P74" s="104"/>
+      <c r="Q74" s="104"/>
+      <c r="R74" s="104"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="104"/>
+      <c r="U74" s="104"/>
+      <c r="V74" s="104"/>
+      <c r="W74" s="104"/>
+      <c r="X74" s="104"/>
     </row>
     <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
@@ -9838,7 +9840,7 @@
         <v>18</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>19</v>
@@ -9868,7 +9870,7 @@
         <v>18</v>
       </c>
       <c r="U76" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9953,16 +9955,16 @@
         <v>26</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4">
@@ -9981,16 +9983,16 @@
         <v>26</v>
       </c>
       <c r="R78" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U78" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V78" s="55" t="s">
         <v>9</v>
@@ -10007,28 +10009,28 @@
         <v>24</v>
       </c>
       <c r="P79" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q79" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R79" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S79" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T79" s="25" t="s">
         <v>27</v>
       </c>
       <c r="U79" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="V79" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="V79" s="58" t="s">
+      <c r="W79" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="W79" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="X79" s="55" t="s">
         <v>9</v>
@@ -10038,29 +10040,29 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="101" t="s">
+      <c r="C83" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="103"/>
+      <c r="N83" s="108" t="s">
         <v>338</v>
       </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="101"/>
-      <c r="I83" s="101"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="101"/>
-      <c r="L83" s="101"/>
-      <c r="N83" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
-      <c r="Q83" s="107"/>
-      <c r="R83" s="107"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="107"/>
-      <c r="U83" s="107"/>
-      <c r="V83" s="107"/>
+      <c r="O83" s="109"/>
+      <c r="P83" s="109"/>
+      <c r="Q83" s="109"/>
+      <c r="R83" s="109"/>
+      <c r="S83" s="109"/>
+      <c r="T83" s="109"/>
+      <c r="U83" s="109"/>
+      <c r="V83" s="109"/>
     </row>
     <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
@@ -10144,7 +10146,7 @@
         <v>18</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>19</v>
@@ -10174,10 +10176,10 @@
         <v>18</v>
       </c>
       <c r="U85" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="V85" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="V85" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10253,16 +10255,16 @@
         <v>26</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4">
@@ -10275,19 +10277,19 @@
         <v>24</v>
       </c>
       <c r="P87" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q87" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R87" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S87" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U87" s="59"/>
       <c r="V87" s="59">
@@ -10295,29 +10297,29 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="101" t="s">
-        <v>343</v>
-      </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="N91" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="O91" s="107"/>
-      <c r="P91" s="107"/>
-      <c r="Q91" s="107"/>
-      <c r="R91" s="107"/>
-      <c r="S91" s="107"/>
-      <c r="T91" s="107"/>
-      <c r="U91" s="107"/>
-      <c r="V91" s="107"/>
+      <c r="C91" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="103"/>
+      <c r="I91" s="103"/>
+      <c r="J91" s="103"/>
+      <c r="K91" s="103"/>
+      <c r="L91" s="103"/>
+      <c r="N91" s="108" t="s">
+        <v>338</v>
+      </c>
+      <c r="O91" s="109"/>
+      <c r="P91" s="109"/>
+      <c r="Q91" s="109"/>
+      <c r="R91" s="109"/>
+      <c r="S91" s="109"/>
+      <c r="T91" s="109"/>
+      <c r="U91" s="109"/>
+      <c r="V91" s="109"/>
     </row>
     <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -10401,7 +10403,7 @@
         <v>18</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>19</v>
@@ -10431,10 +10433,10 @@
         <v>18</v>
       </c>
       <c r="U93" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="V93" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="V93" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10510,16 +10512,16 @@
         <v>26</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4">
@@ -10532,19 +10534,19 @@
         <v>24</v>
       </c>
       <c r="P95" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q95" s="58" t="s">
         <v>26</v>
       </c>
       <c r="R95" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S95" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T95" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U95" s="59"/>
       <c r="V95" s="59">
@@ -10585,8 +10587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10599,8 +10601,8 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="109" t="s">
-        <v>185</v>
+      <c r="B3" s="111" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>27</v>
@@ -10609,46 +10611,52 @@
         <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="110"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10661,20 +10669,20 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="112"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
@@ -10682,178 +10690,178 @@
         <v>29</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="112"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="127" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>202</v>
+      <c r="G10" s="127" t="s">
+        <v>201</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>281</v>
+      <c r="G11" s="127" t="s">
+        <v>280</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>282</v>
+      <c r="G12" s="127" t="s">
+        <v>281</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>371</v>
+      <c r="G13" s="127" t="s">
+        <v>370</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>372</v>
+      <c r="G14" s="127" t="s">
+        <v>371</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="9" t="s">
-        <v>375</v>
+      <c r="D15" s="127" t="s">
+        <v>374</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="9" t="s">
-        <v>283</v>
+      <c r="G15" s="127" t="s">
+        <v>282</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="16"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="9" t="s">
-        <v>284</v>
+      <c r="G16" s="127" t="s">
+        <v>283</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10864,8 +10872,11 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
+      <c r="G17" s="9" t="s">
+        <v>369</v>
+      </c>
       <c r="H17" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10876,39 +10887,38 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
+      <c r="G18" s="127" t="s">
+        <v>375</v>
+      </c>
       <c r="H18" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
       <c r="H19" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="9" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -10918,7 +10928,7 @@
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10929,7 +10939,7 @@
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -10940,7 +10950,7 @@
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -10951,7 +10961,7 @@
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -10962,7 +10972,7 @@
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -10973,7 +10983,7 @@
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -10984,7 +10994,7 @@
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -10995,7 +11005,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -11006,7 +11016,7 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -11017,7 +11027,7 @@
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -11028,7 +11038,7 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -11039,7 +11049,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -11050,7 +11060,7 @@
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -11061,7 +11071,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -11072,7 +11082,7 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="15"/>
       <c r="E36" s="15"/>
@@ -11082,7 +11092,7 @@
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="15"/>
       <c r="E37" s="15"/>
@@ -11092,7 +11102,7 @@
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="15"/>
       <c r="E38" s="15"/>
@@ -11148,29 +11158,29 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="L1" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
+      <c r="A1" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="L1" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="55" t="s">
@@ -11254,13 +11264,13 @@
         <v>18</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>341</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>12</v>
@@ -11284,10 +11294,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="T3" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11357,22 +11367,22 @@
         <v>24</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59">
@@ -11385,19 +11395,19 @@
         <v>24</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59">
@@ -11405,29 +11415,29 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="L10" s="113" t="s">
+      <c r="A10" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="L10" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="55" t="s">
@@ -11511,13 +11521,13 @@
         <v>18</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I12" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>341</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>12</v>
@@ -11541,10 +11551,10 @@
         <v>18</v>
       </c>
       <c r="S12" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="T12" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11614,22 +11624,22 @@
         <v>24</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I14" s="59"/>
       <c r="J14" s="59">
@@ -11642,19 +11652,19 @@
         <v>24</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59">
@@ -11684,17 +11694,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="115" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
+      <c r="B7" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11748,10 +11758,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11791,19 +11801,19 @@
         <v>24</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59">
@@ -11811,17 +11821,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="115" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
+      <c r="B14" s="117" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="55" t="s">
@@ -11875,10 +11885,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11918,19 +11928,19 @@
         <v>24</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59">
@@ -11938,17 +11948,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="115" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
+      <c r="B23" s="117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B24" s="55" t="s">
@@ -12002,10 +12012,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J25" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -12045,19 +12055,19 @@
         <v>24</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -12065,17 +12075,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="115" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
+      <c r="B32" s="117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="55" t="s">
@@ -12129,10 +12139,10 @@
         <v>18</v>
       </c>
       <c r="I34" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J34" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12172,19 +12182,19 @@
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59">
@@ -12192,18 +12202,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
+      <c r="B39" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
     </row>
     <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B40" s="55" t="s">
@@ -12260,13 +12270,13 @@
         <v>18</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J41" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K41" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12309,19 +12319,19 @@
         <v>24</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="59"/>
@@ -12330,17 +12340,17 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
+      <c r="B46" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="55" t="s">
@@ -12394,10 +12404,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="J48" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12437,19 +12447,19 @@
         <v>24</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="59">
@@ -12457,18 +12467,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="117" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
+      <c r="B52" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
     </row>
     <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="55" t="s">
@@ -12525,13 +12535,13 @@
         <v>18</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J54" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K54" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="K54" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12574,19 +12584,19 @@
         <v>24</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>344</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>345</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="59"/>
@@ -12595,18 +12605,18 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="117" t="s">
-        <v>362</v>
-      </c>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
+      <c r="B58" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
@@ -12663,13 +12673,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J60" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K60" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="K60" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12712,19 +12722,19 @@
         <v>24</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="59"/>
@@ -12733,18 +12743,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="117" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
+      <c r="B66" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
     </row>
     <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B67" s="55" t="s">
@@ -12801,13 +12811,13 @@
         <v>18</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J68" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K68" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12850,19 +12860,19 @@
         <v>24</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="59"/>
@@ -12871,18 +12881,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="117" t="s">
-        <v>364</v>
-      </c>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
+      <c r="B73" s="119" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B74" s="55" t="s">
@@ -12939,13 +12949,13 @@
         <v>18</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J75" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K75" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12988,19 +12998,19 @@
         <v>24</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>26</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="59"/>
@@ -13042,22 +13052,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="B2" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -13078,7 +13088,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -13110,7 +13120,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -13142,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -13166,7 +13176,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -13175,19 +13185,19 @@
     </row>
     <row r="7" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C411D-2E50-45EC-A016-2AD4B10B0F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C3236-AD59-4D35-9C5D-A250B051B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="383">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>度</t>
-  </si>
-  <si>
-    <t>控制：调试：电机复位 (调试无应答)</t>
   </si>
   <si>
     <t>控制：运行：复位</t>
@@ -1878,6 +1875,26 @@
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制：调试：电机控制调试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动方向</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动距离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行频率</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2226,7 +2243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2425,11 +2442,8 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2440,8 +2454,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2452,11 +2472,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2533,6 +2553,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,9 +2636,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2894,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF103" sqref="AF103"/>
+    <sheetView topLeftCell="T69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF85" sqref="AF85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2915,29 +2941,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="M2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="M2" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
     </row>
     <row r="3" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3175,43 +3201,43 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
     </row>
     <row r="9" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
@@ -3282,7 +3308,7 @@
         <v>8</v>
       </c>
       <c r="T10" s="61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="61"/>
       <c r="V10" s="61"/>
@@ -3526,46 +3552,46 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="M17" s="75" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="M17" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3616,14 +3642,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="72" t="s">
+      <c r="T18" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="75"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3845,40 +3871,40 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="77"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="79"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="80"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
       <c r="M25" s="33" t="s">
         <v>54</v>
       </c>
@@ -3943,11 +3969,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="80" t="s">
+      <c r="T26" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4019,16 +4045,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="82" t="s">
+      <c r="AA27" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="84"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -4210,54 +4236,54 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="69"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="77"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="79"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="M37" s="75" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="M37" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4308,12 +4334,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="72" t="s">
+      <c r="T38" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4388,16 +4414,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="82" t="s">
+      <c r="AA39" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="83"/>
-      <c r="AD39" s="83"/>
-      <c r="AE39" s="83"/>
-      <c r="AF39" s="83"/>
-      <c r="AG39" s="83"/>
-      <c r="AH39" s="83"/>
+      <c r="AB39" s="84"/>
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="84"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4569,38 +4595,38 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="70"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="69"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="77"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="79"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="79"/>
+      <c r="U42" s="79"/>
+      <c r="V42" s="80"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="82" t="s">
+      <c r="AA45" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AB45" s="83"/>
-      <c r="AC45" s="83"/>
-      <c r="AD45" s="83"/>
-      <c r="AE45" s="83"/>
-      <c r="AF45" s="83"/>
-      <c r="AG45" s="83"/>
-      <c r="AH45" s="83"/>
+      <c r="AB45" s="84"/>
+      <c r="AC45" s="84"/>
+      <c r="AD45" s="84"/>
+      <c r="AE45" s="84"/>
+      <c r="AF45" s="84"/>
+      <c r="AG45" s="84"/>
+      <c r="AH45" s="84"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
@@ -4645,16 +4671,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="82" t="s">
+      <c r="AA51" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="AB51" s="83"/>
-      <c r="AC51" s="83"/>
-      <c r="AD51" s="83"/>
-      <c r="AE51" s="83"/>
-      <c r="AF51" s="83"/>
-      <c r="AG51" s="83"/>
-      <c r="AH51" s="83"/>
+      <c r="AB51" s="84"/>
+      <c r="AC51" s="84"/>
+      <c r="AD51" s="84"/>
+      <c r="AE51" s="84"/>
+      <c r="AF51" s="84"/>
+      <c r="AG51" s="84"/>
+      <c r="AH51" s="84"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4703,16 +4729,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB57" s="83"/>
-      <c r="AC57" s="83"/>
-      <c r="AD57" s="83"/>
-      <c r="AE57" s="83"/>
-      <c r="AF57" s="83"/>
-      <c r="AG57" s="83"/>
-      <c r="AH57" s="83"/>
+      <c r="AA57" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="84"/>
+      <c r="AD57" s="84"/>
+      <c r="AE57" s="84"/>
+      <c r="AF57" s="84"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="84"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4744,7 +4770,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD59" s="4" t="s">
         <v>100</v>
@@ -4763,33 +4789,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="M64" s="84" t="s">
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="M64" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="84"/>
-      <c r="T64" s="84"/>
-      <c r="U64" s="84"/>
-      <c r="V64" s="84"/>
-      <c r="W64" s="84"/>
-      <c r="X64" s="84"/>
-      <c r="Y64" s="84"/>
-      <c r="Z64" s="84"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="85"/>
+      <c r="Q64" s="85"/>
+      <c r="R64" s="85"/>
+      <c r="S64" s="85"/>
+      <c r="T64" s="85"/>
+      <c r="U64" s="85"/>
+      <c r="V64" s="85"/>
+      <c r="W64" s="85"/>
+      <c r="X64" s="85"/>
+      <c r="Y64" s="85"/>
+      <c r="Z64" s="85"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4840,13 +4866,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="85" t="s">
+      <c r="T65" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="85"/>
-      <c r="V65" s="85"/>
-      <c r="W65" s="85"/>
-      <c r="X65" s="85"/>
+      <c r="U65" s="86"/>
+      <c r="V65" s="86"/>
+      <c r="W65" s="86"/>
+      <c r="X65" s="86"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -5061,47 +5087,47 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="70"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="86" t="s">
+      <c r="N69" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="O69" s="86"/>
-      <c r="P69" s="86"/>
-      <c r="Q69" s="86"/>
-      <c r="R69" s="86"/>
-      <c r="S69" s="86"/>
-      <c r="T69" s="86"/>
-      <c r="U69" s="86"/>
-      <c r="V69" s="86"/>
-      <c r="W69" s="86"/>
-      <c r="X69" s="86"/>
-      <c r="Y69" s="86"/>
-      <c r="Z69" s="86"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="87"/>
+      <c r="S69" s="87"/>
+      <c r="T69" s="87"/>
+      <c r="U69" s="87"/>
+      <c r="V69" s="87"/>
+      <c r="W69" s="87"/>
+      <c r="X69" s="87"/>
+      <c r="Y69" s="87"/>
+      <c r="Z69" s="87"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
       <c r="M73" s="33" t="s">
         <v>114</v>
       </c>
@@ -5122,13 +5148,13 @@
       <c r="AB73" s="34"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
-      <c r="AE73" s="87"/>
-      <c r="AF73" s="87"/>
-      <c r="AG73" s="87"/>
-      <c r="AH73" s="87"/>
-      <c r="AI73" s="87"/>
-      <c r="AJ73" s="87"/>
-      <c r="AK73" s="87"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88"/>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5179,25 +5205,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="90" t="s">
+      <c r="T74" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="91"/>
-      <c r="V74" s="91"/>
-      <c r="W74" s="91"/>
-      <c r="X74" s="91"/>
-      <c r="Y74" s="91"/>
-      <c r="Z74" s="91"/>
-      <c r="AA74" s="91"/>
-      <c r="AB74" s="91"/>
-      <c r="AC74" s="91"/>
-      <c r="AD74" s="91"/>
-      <c r="AE74" s="91"/>
-      <c r="AF74" s="91"/>
-      <c r="AG74" s="91"/>
-      <c r="AH74" s="91"/>
-      <c r="AI74" s="91"/>
-      <c r="AJ74" s="92"/>
+      <c r="U74" s="92"/>
+      <c r="V74" s="92"/>
+      <c r="W74" s="92"/>
+      <c r="X74" s="92"/>
+      <c r="Y74" s="92"/>
+      <c r="Z74" s="92"/>
+      <c r="AA74" s="92"/>
+      <c r="AB74" s="92"/>
+      <c r="AC74" s="92"/>
+      <c r="AD74" s="92"/>
+      <c r="AE74" s="92"/>
+      <c r="AF74" s="92"/>
+      <c r="AG74" s="92"/>
+      <c r="AH74" s="92"/>
+      <c r="AI74" s="92"/>
+      <c r="AJ74" s="93"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5258,52 +5284,52 @@
         <v>115</v>
       </c>
       <c r="U75" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="V75" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="W75" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="X75" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="V75" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="W75" s="50" t="s">
+      <c r="Y75" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z75" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA75" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB75" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="X75" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y75" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z75" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA75" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB75" s="50" t="s">
-        <v>241</v>
-      </c>
       <c r="AC75" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD75" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="AD75" s="50" t="s">
+      <c r="AE75" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="AE75" s="50" t="s">
+      <c r="AF75" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="AF75" s="50" t="s">
-        <v>246</v>
-      </c>
       <c r="AG75" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH75" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="AH75" s="50" t="s">
+      <c r="AI75" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="AI75" s="50" t="s">
+      <c r="AJ75" s="50" t="s">
         <v>250</v>
-      </c>
-      <c r="AJ75" s="50" t="s">
-        <v>251</v>
       </c>
       <c r="AK75" s="1" t="s">
         <v>19</v>
@@ -5470,10 +5496,10 @@
         <v>117</v>
       </c>
       <c r="U77" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V77" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W77" s="4" t="s">
         <v>117</v>
@@ -5491,7 +5517,7 @@
         <v>117</v>
       </c>
       <c r="AB77" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC77" s="4" t="s">
         <v>118</v>
@@ -5500,22 +5526,22 @@
         <v>118</v>
       </c>
       <c r="AE77" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF77" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG77" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH77" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AI77" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AJ77" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4">
@@ -5530,14 +5556,14 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="68"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="70"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="69"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5557,44 +5583,44 @@
       <c r="AA78" s="49"/>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
-      <c r="AD78" s="88"/>
-      <c r="AE78" s="88"/>
-      <c r="AF78" s="88"/>
-      <c r="AG78" s="88"/>
-      <c r="AH78" s="88"/>
-      <c r="AI78" s="89"/>
+      <c r="AD78" s="89"/>
+      <c r="AE78" s="89"/>
+      <c r="AF78" s="89"/>
+      <c r="AG78" s="89"/>
+      <c r="AH78" s="89"/>
+      <c r="AI78" s="90"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="M82" s="93" t="s">
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="70"/>
+      <c r="M82" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="N82" s="94"/>
-      <c r="O82" s="94"/>
-      <c r="P82" s="94"/>
-      <c r="Q82" s="94"/>
-      <c r="R82" s="94"/>
-      <c r="S82" s="94"/>
-      <c r="T82" s="94"/>
-      <c r="U82" s="94"/>
-      <c r="V82" s="94"/>
-      <c r="W82" s="94"/>
-      <c r="X82" s="94"/>
-      <c r="Y82" s="94"/>
-      <c r="Z82" s="94"/>
-      <c r="AA82" s="94"/>
-      <c r="AB82" s="94"/>
-      <c r="AC82" s="95"/>
+      <c r="N82" s="95"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="95"/>
+      <c r="Q82" s="95"/>
+      <c r="R82" s="95"/>
+      <c r="S82" s="95"/>
+      <c r="T82" s="95"/>
+      <c r="U82" s="95"/>
+      <c r="V82" s="95"/>
+      <c r="W82" s="95"/>
+      <c r="X82" s="95"/>
+      <c r="Y82" s="95"/>
+      <c r="Z82" s="95"/>
+      <c r="AA82" s="95"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="96"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5645,16 +5671,16 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="90" t="s">
+      <c r="T83" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
-      <c r="Y83" s="91"/>
-      <c r="Z83" s="91"/>
-      <c r="AA83" s="92"/>
+      <c r="U83" s="92"/>
+      <c r="V83" s="92"/>
+      <c r="W83" s="92"/>
+      <c r="X83" s="92"/>
+      <c r="Y83" s="92"/>
+      <c r="Z83" s="92"/>
+      <c r="AA83" s="93"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5712,28 +5738,28 @@
         <v>18</v>
       </c>
       <c r="T84" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="U84" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="U84" s="50" t="s">
+      <c r="V84" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="V84" s="50" t="s">
+      <c r="W84" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="W84" s="50" t="s">
+      <c r="X84" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="X84" s="27" t="s">
+      <c r="Y84" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" s="50" t="s">
+      <c r="Z84" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="Z84" s="50" t="s">
-        <v>273</v>
-      </c>
       <c r="AA84" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB84" s="1" t="s">
         <v>19</v>
@@ -5900,66 +5926,66 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="70"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="96"/>
-      <c r="O87" s="97"/>
-      <c r="P87" s="97"/>
-      <c r="Q87" s="97"/>
-      <c r="R87" s="97"/>
-      <c r="S87" s="97"/>
-      <c r="T87" s="97"/>
-      <c r="U87" s="97"/>
-      <c r="V87" s="97"/>
-      <c r="W87" s="97"/>
-      <c r="X87" s="97"/>
-      <c r="Y87" s="97"/>
-      <c r="Z87" s="97"/>
-      <c r="AA87" s="97"/>
-      <c r="AB87" s="97"/>
-      <c r="AC87" s="98"/>
+      <c r="N87" s="97"/>
+      <c r="O87" s="98"/>
+      <c r="P87" s="98"/>
+      <c r="Q87" s="98"/>
+      <c r="R87" s="98"/>
+      <c r="S87" s="98"/>
+      <c r="T87" s="98"/>
+      <c r="U87" s="98"/>
+      <c r="V87" s="98"/>
+      <c r="W87" s="98"/>
+      <c r="X87" s="98"/>
+      <c r="Y87" s="98"/>
+      <c r="Z87" s="98"/>
+      <c r="AA87" s="98"/>
+      <c r="AB87" s="98"/>
+      <c r="AC87" s="99"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="M91" s="84" t="s">
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="M91" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="N91" s="84"/>
-      <c r="O91" s="84"/>
-      <c r="P91" s="84"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="84"/>
-      <c r="S91" s="84"/>
-      <c r="T91" s="84"/>
-      <c r="U91" s="84"/>
-      <c r="V91" s="84"/>
-      <c r="W91" s="84"/>
-      <c r="X91" s="84"/>
-      <c r="Y91" s="84"/>
-      <c r="Z91" s="84"/>
-      <c r="AA91" s="84"/>
-      <c r="AB91" s="84"/>
-      <c r="AC91" s="84"/>
-      <c r="AD91" s="84"/>
+      <c r="N91" s="85"/>
+      <c r="O91" s="85"/>
+      <c r="P91" s="85"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="85"/>
+      <c r="S91" s="85"/>
+      <c r="T91" s="85"/>
+      <c r="U91" s="85"/>
+      <c r="V91" s="85"/>
+      <c r="W91" s="85"/>
+      <c r="X91" s="85"/>
+      <c r="Y91" s="85"/>
+      <c r="Z91" s="85"/>
+      <c r="AA91" s="85"/>
+      <c r="AB91" s="85"/>
+      <c r="AC91" s="85"/>
+      <c r="AD91" s="85"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6010,17 +6036,17 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="90" t="s">
+      <c r="T92" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="91"/>
-      <c r="V92" s="91"/>
-      <c r="W92" s="91"/>
-      <c r="X92" s="91"/>
-      <c r="Y92" s="91"/>
-      <c r="Z92" s="91"/>
-      <c r="AA92" s="91"/>
-      <c r="AB92" s="92"/>
+      <c r="U92" s="92"/>
+      <c r="V92" s="92"/>
+      <c r="W92" s="92"/>
+      <c r="X92" s="92"/>
+      <c r="Y92" s="92"/>
+      <c r="Z92" s="92"/>
+      <c r="AA92" s="92"/>
+      <c r="AB92" s="93"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6078,31 +6104,31 @@
         <v>18</v>
       </c>
       <c r="T93" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="U93" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="U93" s="52" t="s">
+      <c r="V93" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="V93" s="52" t="s">
+      <c r="W93" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="W93" s="52" t="s">
+      <c r="X93" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="X93" s="52" t="s">
+      <c r="Y93" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="Y93" s="50" t="s">
+      <c r="Z93" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="Z93" s="50" t="s">
+      <c r="AA93" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="AA93" s="50" t="s">
+      <c r="AB93" s="50" t="s">
         <v>259</v>
-      </c>
-      <c r="AB93" s="50" t="s">
-        <v>260</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>19</v>
@@ -6246,13 +6272,13 @@
         <v>87</v>
       </c>
       <c r="T95" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U95" s="31"/>
       <c r="V95" s="31"/>
       <c r="W95" s="31"/>
       <c r="X95" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y95" s="31" t="s">
         <v>125</v>
@@ -6273,65 +6299,65 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="70"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="69"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="86"/>
-      <c r="O96" s="86"/>
-      <c r="P96" s="86"/>
-      <c r="Q96" s="86"/>
-      <c r="R96" s="86"/>
-      <c r="S96" s="86"/>
-      <c r="T96" s="86"/>
-      <c r="U96" s="86"/>
-      <c r="V96" s="86"/>
-      <c r="W96" s="86"/>
-      <c r="X96" s="86"/>
-      <c r="Y96" s="86"/>
-      <c r="Z96" s="86"/>
-      <c r="AA96" s="86"/>
-      <c r="AB96" s="86"/>
-      <c r="AC96" s="86"/>
-      <c r="AD96" s="86"/>
+      <c r="N96" s="87"/>
+      <c r="O96" s="87"/>
+      <c r="P96" s="87"/>
+      <c r="Q96" s="87"/>
+      <c r="R96" s="87"/>
+      <c r="S96" s="87"/>
+      <c r="T96" s="87"/>
+      <c r="U96" s="87"/>
+      <c r="V96" s="87"/>
+      <c r="W96" s="87"/>
+      <c r="X96" s="87"/>
+      <c r="Y96" s="87"/>
+      <c r="Z96" s="87"/>
+      <c r="AA96" s="87"/>
+      <c r="AB96" s="87"/>
+      <c r="AC96" s="87"/>
+      <c r="AD96" s="87"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
-      <c r="M100" s="84" t="s">
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="M100" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="N100" s="84"/>
-      <c r="O100" s="84"/>
-      <c r="P100" s="84"/>
-      <c r="Q100" s="84"/>
-      <c r="R100" s="84"/>
-      <c r="S100" s="84"/>
-      <c r="T100" s="84"/>
-      <c r="U100" s="84"/>
-      <c r="V100" s="84"/>
-      <c r="W100" s="84"/>
-      <c r="X100" s="84"/>
-      <c r="Y100" s="84"/>
-      <c r="Z100" s="84"/>
-      <c r="AA100" s="84"/>
-      <c r="AB100" s="84"/>
+      <c r="N100" s="85"/>
+      <c r="O100" s="85"/>
+      <c r="P100" s="85"/>
+      <c r="Q100" s="85"/>
+      <c r="R100" s="85"/>
+      <c r="S100" s="85"/>
+      <c r="T100" s="85"/>
+      <c r="U100" s="85"/>
+      <c r="V100" s="85"/>
+      <c r="W100" s="85"/>
+      <c r="X100" s="85"/>
+      <c r="Y100" s="85"/>
+      <c r="Z100" s="85"/>
+      <c r="AA100" s="85"/>
+      <c r="AB100" s="85"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6382,15 +6408,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="90" t="s">
+      <c r="T101" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="91"/>
-      <c r="V101" s="91"/>
-      <c r="W101" s="91"/>
-      <c r="X101" s="91"/>
-      <c r="Y101" s="91"/>
-      <c r="Z101" s="92"/>
+      <c r="U101" s="92"/>
+      <c r="V101" s="92"/>
+      <c r="W101" s="92"/>
+      <c r="X101" s="92"/>
+      <c r="Y101" s="92"/>
+      <c r="Z101" s="93"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6448,25 +6474,25 @@
         <v>18</v>
       </c>
       <c r="T102" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="U102" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="U102" s="50" t="s">
+      <c r="V102" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="V102" s="50" t="s">
-        <v>266</v>
-      </c>
       <c r="W102" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="X102" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y102" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z102" s="27" t="s">
         <v>275</v>
-      </c>
-      <c r="X102" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y102" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z102" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>19</v>
@@ -6627,32 +6653,32 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="69"/>
-      <c r="K105" s="70"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="69"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="99"/>
-      <c r="O105" s="99"/>
-      <c r="P105" s="99"/>
-      <c r="Q105" s="99"/>
-      <c r="R105" s="99"/>
-      <c r="S105" s="99"/>
-      <c r="T105" s="99"/>
-      <c r="U105" s="99"/>
-      <c r="V105" s="99"/>
-      <c r="W105" s="99"/>
-      <c r="X105" s="99"/>
-      <c r="Y105" s="99"/>
-      <c r="Z105" s="99"/>
-      <c r="AA105" s="99"/>
-      <c r="AB105" s="99"/>
+      <c r="N105" s="100"/>
+      <c r="O105" s="100"/>
+      <c r="P105" s="100"/>
+      <c r="Q105" s="100"/>
+      <c r="R105" s="100"/>
+      <c r="S105" s="100"/>
+      <c r="T105" s="100"/>
+      <c r="U105" s="100"/>
+      <c r="V105" s="100"/>
+      <c r="W105" s="100"/>
+      <c r="X105" s="100"/>
+      <c r="Y105" s="100"/>
+      <c r="Z105" s="100"/>
+      <c r="AA105" s="100"/>
+      <c r="AB105" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -6730,38 +6756,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="V2" s="101" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="V2" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6785,17 +6811,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7089,64 +7115,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="86" t="s">
+      <c r="W7" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="N9" s="101" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="N9" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7394,65 +7420,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Z16" s="101" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Z16" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="101"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="102"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7476,21 +7502,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="85" t="s">
+      <c r="J17" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7814,41 +7840,41 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="86" t="s">
+      <c r="AA21" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -7878,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63:X63"/>
+    <sheetView tabSelected="1" topLeftCell="M67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7896,16 +7922,20 @@
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
       <c r="C2" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+        <v>378</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -7929,10 +7959,16 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7958,10 +7994,22 @@
       <c r="I4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7993,6 +8041,18 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
@@ -8016,8 +8076,12 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
         <v>23</v>
       </c>
     </row>
@@ -8026,34 +8090,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="N16" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="O16" s="102"/>
-      <c r="Q16" s="102" t="s">
+      <c r="C16" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="R16" s="102"/>
-      <c r="T16" s="102" t="s">
-        <v>316</v>
-      </c>
-      <c r="U16" s="102"/>
-      <c r="W16" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="X16" s="102"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+      <c r="N16" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="O16" s="106"/>
+      <c r="Q16" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="R16" s="106"/>
+      <c r="T16" s="106" t="s">
+        <v>315</v>
+      </c>
+      <c r="U16" s="106"/>
+      <c r="W16" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="X16" s="106"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8087,25 +8151,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R17" s="26">
         <v>0</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X17" s="26">
         <v>0</v>
@@ -8134,7 +8198,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -8143,25 +8207,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R18" s="26">
         <v>1</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U18" s="26">
         <v>1</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X18" s="26">
         <v>1</v>
@@ -8199,25 +8263,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O19" s="26">
         <v>2</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R19" s="26">
         <v>2</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U19" s="26">
         <v>2</v>
       </c>
       <c r="W19" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X19" s="26">
         <v>2</v>
@@ -8231,7 +8295,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -8243,7 +8307,7 @@
         <v>149</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="4"/>
@@ -8251,25 +8315,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O20" s="26">
         <v>3</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R20" s="26">
         <v>3</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U20" s="26">
         <v>3</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X20" s="26">
         <v>3</v>
@@ -8277,63 +8341,63 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O21" s="26">
         <v>4</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R21" s="26">
         <v>4</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U21" s="26">
         <v>4</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X21" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="105" t="s">
-        <v>305</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
+      <c r="C22" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="111"/>
       <c r="N22" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O22" s="26">
         <v>5</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R22" s="26">
         <v>5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U22" s="26">
         <v>5</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X22" s="26">
         <v>5</v>
@@ -8371,25 +8435,25 @@
         <v>10</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O23" s="26">
         <v>6</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R23" s="26">
         <v>6</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U23" s="26">
         <v>6</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X23" s="26">
         <v>6</v>
@@ -8418,7 +8482,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -8427,19 +8491,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R24" s="26">
         <v>7</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U24" s="26">
         <v>7</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X24" s="26">
         <v>7</v>
@@ -8477,13 +8541,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R25" s="26">
         <v>8</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U25" s="26">
         <v>8</v>
@@ -8497,7 +8561,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>26</v>
@@ -8509,7 +8573,7 @@
         <v>149</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="4"/>
@@ -8517,13 +8581,13 @@
         <v>23</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R26" s="26">
         <v>9</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U26" s="26">
         <v>9</v>
@@ -8531,31 +8595,31 @@
     </row>
     <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Q27" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R27" s="26">
         <v>10</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U27" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
+      <c r="C29" s="109" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -8612,7 +8676,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -8661,7 +8725,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>26</v>
@@ -8673,7 +8737,7 @@
         <v>149</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="4"/>
@@ -8682,18 +8746,18 @@
       </c>
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="105" t="s">
-        <v>307</v>
-      </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="107"/>
+      <c r="C37" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="111"/>
     </row>
     <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -8750,7 +8814,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -8799,7 +8863,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>26</v>
@@ -8811,7 +8875,7 @@
         <v>149</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="4"/>
@@ -8820,31 +8884,31 @@
       </c>
     </row>
     <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="N46" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="N46" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
-      <c r="U46" s="104"/>
-      <c r="V46" s="104"/>
-      <c r="W46" s="104"/>
-      <c r="X46" s="104"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="108"/>
     </row>
     <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
@@ -8925,7 +8989,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>19</v>
@@ -8955,7 +9019,7 @@
         <v>18</v>
       </c>
       <c r="U48" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9049,7 +9113,7 @@
         <v>27</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4">
@@ -9077,7 +9141,7 @@
         <v>27</v>
       </c>
       <c r="U50" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V50" s="55" t="s">
         <v>9</v>
@@ -9094,7 +9158,7 @@
         <v>24</v>
       </c>
       <c r="P51" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q51" s="58" t="s">
         <v>26</v>
@@ -9109,13 +9173,13 @@
         <v>27</v>
       </c>
       <c r="U51" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="V51" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="V51" s="58" t="s">
+      <c r="W51" s="58" t="s">
         <v>182</v>
-      </c>
-      <c r="W51" s="58" t="s">
-        <v>183</v>
       </c>
       <c r="X51" s="55" t="s">
         <v>9</v>
@@ -9125,31 +9189,31 @@
       </c>
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C54" s="103" t="s">
+      <c r="C54" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="N54" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="N54" s="104" t="s">
-        <v>331</v>
-      </c>
-      <c r="O54" s="104"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
-      <c r="U54" s="104"/>
-      <c r="V54" s="104"/>
-      <c r="W54" s="104"/>
-      <c r="X54" s="104"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
+      <c r="V54" s="108"/>
+      <c r="W54" s="108"/>
+      <c r="X54" s="108"/>
     </row>
     <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
@@ -9230,7 +9294,7 @@
         <v>18</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>19</v>
@@ -9260,7 +9324,7 @@
         <v>18</v>
       </c>
       <c r="U56" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9351,10 +9415,10 @@
         <v>85</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4">
@@ -9379,10 +9443,10 @@
         <v>85</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>9</v>
@@ -9399,7 +9463,7 @@
         <v>24</v>
       </c>
       <c r="P59" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q59" s="58" t="s">
         <v>26</v>
@@ -9411,16 +9475,16 @@
         <v>85</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U59" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="V59" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="V59" s="58" t="s">
+      <c r="W59" s="58" t="s">
         <v>182</v>
-      </c>
-      <c r="W59" s="58" t="s">
-        <v>183</v>
       </c>
       <c r="X59" s="55" t="s">
         <v>9</v>
@@ -9430,31 +9494,31 @@
       </c>
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C63" s="103" t="s">
+      <c r="C63" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="N63" s="108" t="s">
         <v>332</v>
       </c>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="N63" s="104" t="s">
-        <v>333</v>
-      </c>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="104"/>
-      <c r="U63" s="104"/>
-      <c r="V63" s="104"/>
-      <c r="W63" s="104"/>
-      <c r="X63" s="104"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="108"/>
+      <c r="W63" s="108"/>
+      <c r="X63" s="108"/>
     </row>
     <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
@@ -9535,7 +9599,7 @@
         <v>18</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>19</v>
@@ -9565,7 +9629,7 @@
         <v>18</v>
       </c>
       <c r="U65" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9656,10 +9720,10 @@
         <v>85</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4">
@@ -9684,10 +9748,10 @@
         <v>85</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U67" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V67" s="55" t="s">
         <v>9</v>
@@ -9704,7 +9768,7 @@
         <v>24</v>
       </c>
       <c r="P68" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q68" s="58" t="s">
         <v>26</v>
@@ -9716,16 +9780,16 @@
         <v>85</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U68" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="V68" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="V68" s="58" t="s">
+      <c r="W68" s="58" t="s">
         <v>182</v>
-      </c>
-      <c r="W68" s="58" t="s">
-        <v>183</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>9</v>
@@ -9735,31 +9799,31 @@
       </c>
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C74" s="103" t="s">
+      <c r="C74" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="N74" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="N74" s="104" t="s">
-        <v>336</v>
-      </c>
-      <c r="O74" s="104"/>
-      <c r="P74" s="104"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="104"/>
-      <c r="U74" s="104"/>
-      <c r="V74" s="104"/>
-      <c r="W74" s="104"/>
-      <c r="X74" s="104"/>
+      <c r="O74" s="108"/>
+      <c r="P74" s="108"/>
+      <c r="Q74" s="108"/>
+      <c r="R74" s="108"/>
+      <c r="S74" s="108"/>
+      <c r="T74" s="108"/>
+      <c r="U74" s="108"/>
+      <c r="V74" s="108"/>
+      <c r="W74" s="108"/>
+      <c r="X74" s="108"/>
     </row>
     <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
@@ -9840,7 +9904,7 @@
         <v>18</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>19</v>
@@ -9870,7 +9934,7 @@
         <v>18</v>
       </c>
       <c r="U76" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
@@ -9961,10 +10025,10 @@
         <v>85</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4">
@@ -9989,10 +10053,10 @@
         <v>85</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U78" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V78" s="55" t="s">
         <v>9</v>
@@ -10009,7 +10073,7 @@
         <v>24</v>
       </c>
       <c r="P79" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q79" s="58" t="s">
         <v>26</v>
@@ -10024,13 +10088,13 @@
         <v>27</v>
       </c>
       <c r="U79" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="V79" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="V79" s="58" t="s">
+      <c r="W79" s="58" t="s">
         <v>182</v>
-      </c>
-      <c r="W79" s="58" t="s">
-        <v>183</v>
       </c>
       <c r="X79" s="55" t="s">
         <v>9</v>
@@ -10040,29 +10104,29 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="103" t="s">
+      <c r="C83" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="107"/>
+      <c r="L83" s="107"/>
+      <c r="N83" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="N83" s="108" t="s">
-        <v>338</v>
-      </c>
-      <c r="O83" s="109"/>
-      <c r="P83" s="109"/>
-      <c r="Q83" s="109"/>
-      <c r="R83" s="109"/>
-      <c r="S83" s="109"/>
-      <c r="T83" s="109"/>
-      <c r="U83" s="109"/>
-      <c r="V83" s="109"/>
+      <c r="O83" s="113"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="113"/>
+      <c r="R83" s="113"/>
+      <c r="S83" s="113"/>
+      <c r="T83" s="113"/>
+      <c r="U83" s="113"/>
+      <c r="V83" s="113"/>
     </row>
     <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
@@ -10146,7 +10210,7 @@
         <v>18</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>19</v>
@@ -10176,10 +10240,10 @@
         <v>18</v>
       </c>
       <c r="U85" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="V85" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="V85" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10261,10 +10325,10 @@
         <v>85</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4">
@@ -10277,7 +10341,7 @@
         <v>24</v>
       </c>
       <c r="P87" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q87" s="58" t="s">
         <v>26</v>
@@ -10289,7 +10353,7 @@
         <v>85</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U87" s="59"/>
       <c r="V87" s="59">
@@ -10297,29 +10361,29 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="103"/>
-      <c r="I91" s="103"/>
-      <c r="J91" s="103"/>
-      <c r="K91" s="103"/>
-      <c r="L91" s="103"/>
-      <c r="N91" s="108" t="s">
-        <v>338</v>
-      </c>
-      <c r="O91" s="109"/>
-      <c r="P91" s="109"/>
-      <c r="Q91" s="109"/>
-      <c r="R91" s="109"/>
-      <c r="S91" s="109"/>
-      <c r="T91" s="109"/>
-      <c r="U91" s="109"/>
-      <c r="V91" s="109"/>
+      <c r="C91" s="107" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="107"/>
+      <c r="I91" s="107"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="107"/>
+      <c r="L91" s="107"/>
+      <c r="N91" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="O91" s="113"/>
+      <c r="P91" s="113"/>
+      <c r="Q91" s="113"/>
+      <c r="R91" s="113"/>
+      <c r="S91" s="113"/>
+      <c r="T91" s="113"/>
+      <c r="U91" s="113"/>
+      <c r="V91" s="113"/>
     </row>
     <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -10403,7 +10467,7 @@
         <v>18</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>19</v>
@@ -10433,10 +10497,10 @@
         <v>18</v>
       </c>
       <c r="U93" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="V93" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="V93" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10518,10 +10582,10 @@
         <v>85</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4">
@@ -10534,7 +10598,7 @@
         <v>24</v>
       </c>
       <c r="P95" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q95" s="58" t="s">
         <v>26</v>
@@ -10546,7 +10610,7 @@
         <v>85</v>
       </c>
       <c r="T95" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U95" s="59"/>
       <c r="V95" s="59">
@@ -10554,7 +10618,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="C83:L83"/>
     <mergeCell ref="N83:V83"/>
     <mergeCell ref="C91:L91"/>
@@ -10565,8 +10629,9 @@
     <mergeCell ref="N63:X63"/>
     <mergeCell ref="C74:L74"/>
     <mergeCell ref="N74:X74"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="W16:X16"/>
-    <mergeCell ref="C2:K2"/>
     <mergeCell ref="C46:L46"/>
     <mergeCell ref="N46:X46"/>
     <mergeCell ref="C16:L16"/>
@@ -10579,7 +10644,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10588,7 +10653,7 @@
   <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10601,8 +10666,8 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="111" t="s">
-        <v>184</v>
+      <c r="B3" s="115" t="s">
+        <v>183</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>27</v>
@@ -10624,38 +10689,38 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="112"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -10669,20 +10734,20 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="114"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
@@ -10703,133 +10768,133 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="114"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="E10" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="127" t="s">
-        <v>201</v>
+      <c r="G10" s="66" t="s">
+        <v>200</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="E11" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="127" t="s">
-        <v>280</v>
+      <c r="G11" s="66" t="s">
+        <v>279</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="127" t="s">
-        <v>281</v>
+      <c r="G12" s="66" t="s">
+        <v>280</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="127" t="s">
-        <v>372</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="127" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="127" t="s">
-        <v>370</v>
+      <c r="G13" s="66" t="s">
+        <v>369</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="127" t="s">
-        <v>373</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="127" t="s">
-        <v>371</v>
+      <c r="G14" s="66" t="s">
+        <v>370</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10837,31 +10902,31 @@
         <v>131</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="127" t="s">
-        <v>374</v>
+      <c r="D15" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="127" t="s">
-        <v>282</v>
+      <c r="G15" s="66" t="s">
+        <v>281</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="16"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="127" t="s">
-        <v>283</v>
+      <c r="G16" s="66" t="s">
+        <v>282</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10873,10 +10938,10 @@
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10887,28 +10952,28 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="127" t="s">
-        <v>375</v>
+      <c r="G18" s="66" t="s">
+        <v>374</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="H19" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -10928,7 +10993,7 @@
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -10939,7 +11004,7 @@
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -10950,7 +11015,7 @@
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -10972,7 +11037,7 @@
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -10994,7 +11059,7 @@
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -11005,7 +11070,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -11016,7 +11081,7 @@
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -11027,7 +11092,7 @@
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -11038,7 +11103,7 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -11049,7 +11114,7 @@
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -11071,7 +11136,7 @@
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -11082,7 +11147,7 @@
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="15"/>
       <c r="E36" s="15"/>
@@ -11092,7 +11157,7 @@
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="15"/>
       <c r="E37" s="15"/>
@@ -11102,7 +11167,7 @@
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" s="15"/>
       <c r="E38" s="15"/>
@@ -11158,29 +11223,29 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="L1" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
+      <c r="A1" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="L1" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="55" t="s">
@@ -11264,13 +11329,13 @@
         <v>18</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>340</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>12</v>
@@ -11294,10 +11359,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="T3" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11367,22 +11432,22 @@
         <v>24</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59">
@@ -11395,19 +11460,19 @@
         <v>24</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59">
@@ -11415,29 +11480,29 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="115" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="L10" s="115" t="s">
+      <c r="A10" s="119" t="s">
         <v>352</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="L10" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="55" t="s">
@@ -11521,13 +11586,13 @@
         <v>18</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I12" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>340</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>12</v>
@@ -11551,10 +11616,10 @@
         <v>18</v>
       </c>
       <c r="S12" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="T12" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11624,22 +11689,22 @@
         <v>24</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="59"/>
       <c r="J14" s="59">
@@ -11652,19 +11717,19 @@
         <v>24</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59">
@@ -11694,17 +11759,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="117" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
+      <c r="B7" s="121" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11758,10 +11823,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11801,7 +11866,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>26</v>
@@ -11810,10 +11875,10 @@
         <v>131</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59">
@@ -11821,17 +11886,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="117" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="55" t="s">
@@ -11885,10 +11950,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11928,7 +11993,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>26</v>
@@ -11937,10 +12002,10 @@
         <v>131</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59">
@@ -11948,17 +12013,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="117" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B24" s="55" t="s">
@@ -12012,10 +12077,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J25" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -12055,7 +12120,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>26</v>
@@ -12064,10 +12129,10 @@
         <v>131</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -12075,17 +12140,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="117" t="s">
-        <v>349</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
+      <c r="B32" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="55" t="s">
@@ -12139,10 +12204,10 @@
         <v>18</v>
       </c>
       <c r="I34" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J34" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12182,7 +12247,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>26</v>
@@ -12191,10 +12256,10 @@
         <v>131</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59">
@@ -12202,18 +12267,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="119" t="s">
-        <v>350</v>
-      </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
+      <c r="B39" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
     </row>
     <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B40" s="55" t="s">
@@ -12270,13 +12335,13 @@
         <v>18</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J41" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12319,7 +12384,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>26</v>
@@ -12328,10 +12393,10 @@
         <v>131</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="59"/>
@@ -12340,17 +12405,17 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="55" t="s">
@@ -12404,10 +12469,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="J48" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12447,7 +12512,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>26</v>
@@ -12456,10 +12521,10 @@
         <v>131</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="59">
@@ -12467,18 +12532,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="119" t="s">
-        <v>359</v>
-      </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
+      <c r="B52" s="123" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
     </row>
     <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="55" t="s">
@@ -12535,13 +12600,13 @@
         <v>18</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J54" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="K54" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12584,7 +12649,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>26</v>
@@ -12593,10 +12658,10 @@
         <v>131</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="59"/>
@@ -12605,18 +12670,18 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
+      <c r="B58" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
@@ -12673,13 +12738,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J60" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K60" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="K60" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12722,7 +12787,7 @@
         <v>24</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>26</v>
@@ -12731,10 +12796,10 @@
         <v>131</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="59"/>
@@ -12743,18 +12808,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="119" t="s">
-        <v>362</v>
-      </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="120"/>
+      <c r="B66" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
     </row>
     <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B67" s="55" t="s">
@@ -12811,13 +12876,13 @@
         <v>18</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J68" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K68" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12860,7 +12925,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>26</v>
@@ -12869,10 +12934,10 @@
         <v>131</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="59"/>
@@ -12881,18 +12946,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="119" t="s">
-        <v>363</v>
-      </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="120"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="120"/>
-      <c r="K73" s="120"/>
+      <c r="B73" s="123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B74" s="55" t="s">
@@ -12949,13 +13014,13 @@
         <v>18</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J75" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K75" s="56" t="s">
         <v>339</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12998,7 +13063,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>26</v>
@@ -13007,10 +13072,10 @@
         <v>131</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="59"/>
@@ -13052,22 +13117,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
+      <c r="B2" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -13088,7 +13153,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -13120,7 +13185,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -13152,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -13176,7 +13241,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -13185,19 +13250,19 @@
     </row>
     <row r="7" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="128" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/副本副本单片机通信协议_精简版(1).xlsx
+++ b/副本副本单片机通信协议_精简版(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C3236-AD59-4D35-9C5D-A250B051B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A6E3C-5AAC-438A-8B6C-26D3CE7B7C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="372">
   <si>
     <t>查询：状态：在线状态</t>
   </si>
@@ -1481,14 +1481,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>进缸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出缸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>开始运行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1497,30 +1489,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>缺少载玻片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少盖玻片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少存储盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少装载盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>装载盒个数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器错误</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>02</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1645,10 +1613,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>缺少喷胶头</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>对准喷胶位置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1777,22 +1741,6 @@
   </si>
   <si>
     <t>传感器序号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GE任务超时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC任务超时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GP任务超时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO任务超时</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1842,14 +1790,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>进槽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出槽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>夹手托盘参数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1895,6 +1835,22 @@
   </si>
   <si>
     <t>运行频率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储盒个数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出缸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出槽</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2445,6 +2401,21 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2454,77 +2425,11 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2544,13 +2449,76 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,12 +2533,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2578,12 +2540,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,16 +2563,16 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2941,29 +2897,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="M2" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
     </row>
     <row r="3" spans="3:31" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -3201,43 +3157,43 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
     </row>
     <row r="9" spans="3:31" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
       <c r="M9" s="32" t="s">
         <v>35</v>
       </c>
@@ -3308,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="T10" s="61" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="U10" s="61"/>
       <c r="V10" s="61"/>
@@ -3552,46 +3508,46 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="M17" s="71" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="M17" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3642,14 +3598,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="73" t="s">
+      <c r="T18" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="75"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="98"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3871,40 +3827,40 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="80"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="91"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="M25" s="33" t="s">
         <v>54</v>
       </c>
@@ -3969,11 +3925,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="T26" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4045,16 +4001,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="83" t="s">
+      <c r="AA27" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -4236,54 +4192,54 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="78"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="91"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="M37" s="71" t="s">
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="M37" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -4334,12 +4290,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="73" t="s">
+      <c r="T38" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4414,16 +4370,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="83" t="s">
+      <c r="AA39" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="AB39" s="84"/>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="84"/>
+      <c r="AB39" s="87"/>
+      <c r="AC39" s="87"/>
+      <c r="AD39" s="87"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="87"/>
+      <c r="AG39" s="87"/>
+      <c r="AH39" s="87"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4595,38 +4551,38 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="69"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="78"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
-      <c r="V42" s="80"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="91"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="83" t="s">
+      <c r="AA45" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AB45" s="84"/>
-      <c r="AC45" s="84"/>
-      <c r="AD45" s="84"/>
-      <c r="AE45" s="84"/>
-      <c r="AF45" s="84"/>
-      <c r="AG45" s="84"/>
-      <c r="AH45" s="84"/>
+      <c r="AB45" s="87"/>
+      <c r="AC45" s="87"/>
+      <c r="AD45" s="87"/>
+      <c r="AE45" s="87"/>
+      <c r="AF45" s="87"/>
+      <c r="AG45" s="87"/>
+      <c r="AH45" s="87"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="4" t="s">
@@ -4671,16 +4627,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="83" t="s">
+      <c r="AA51" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="84"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
+      <c r="AB51" s="87"/>
+      <c r="AC51" s="87"/>
+      <c r="AD51" s="87"/>
+      <c r="AE51" s="87"/>
+      <c r="AF51" s="87"/>
+      <c r="AG51" s="87"/>
+      <c r="AH51" s="87"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="4" t="s">
@@ -4729,16 +4685,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="84"/>
-      <c r="AD57" s="84"/>
-      <c r="AE57" s="84"/>
-      <c r="AF57" s="84"/>
-      <c r="AG57" s="84"/>
-      <c r="AH57" s="84"/>
+      <c r="AA57" s="86" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB57" s="87"/>
+      <c r="AC57" s="87"/>
+      <c r="AD57" s="87"/>
+      <c r="AE57" s="87"/>
+      <c r="AF57" s="87"/>
+      <c r="AG57" s="87"/>
+      <c r="AH57" s="87"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="4" t="s">
@@ -4770,7 +4726,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AD59" s="4" t="s">
         <v>100</v>
@@ -4789,33 +4745,33 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="M64" s="85" t="s">
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="M64" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="85"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
-      <c r="T64" s="85"/>
-      <c r="U64" s="85"/>
-      <c r="V64" s="85"/>
-      <c r="W64" s="85"/>
-      <c r="X64" s="85"/>
-      <c r="Y64" s="85"/>
-      <c r="Z64" s="85"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
     </row>
     <row r="65" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
@@ -4866,13 +4822,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="86" t="s">
+      <c r="T65" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="86"/>
-      <c r="V65" s="86"/>
-      <c r="W65" s="86"/>
-      <c r="X65" s="86"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -5087,47 +5043,47 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="67" t="s">
+      <c r="D69" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="69"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="74"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="87" t="s">
+      <c r="N69" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="O69" s="87"/>
-      <c r="P69" s="87"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="87"/>
-      <c r="S69" s="87"/>
-      <c r="T69" s="87"/>
-      <c r="U69" s="87"/>
-      <c r="V69" s="87"/>
-      <c r="W69" s="87"/>
-      <c r="X69" s="87"/>
-      <c r="Y69" s="87"/>
-      <c r="Z69" s="87"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="76"/>
+      <c r="S69" s="76"/>
+      <c r="T69" s="76"/>
+      <c r="U69" s="76"/>
+      <c r="V69" s="76"/>
+      <c r="W69" s="76"/>
+      <c r="X69" s="76"/>
+      <c r="Y69" s="76"/>
+      <c r="Z69" s="76"/>
     </row>
     <row r="73" spans="3:39" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
       <c r="M73" s="33" t="s">
         <v>114</v>
       </c>
@@ -5148,13 +5104,13 @@
       <c r="AB73" s="34"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
-      <c r="AE73" s="88"/>
-      <c r="AF73" s="88"/>
-      <c r="AG73" s="88"/>
-      <c r="AH73" s="88"/>
-      <c r="AI73" s="88"/>
-      <c r="AJ73" s="88"/>
-      <c r="AK73" s="88"/>
+      <c r="AE73" s="83"/>
+      <c r="AF73" s="83"/>
+      <c r="AG73" s="83"/>
+      <c r="AH73" s="83"/>
+      <c r="AI73" s="83"/>
+      <c r="AJ73" s="83"/>
+      <c r="AK73" s="83"/>
     </row>
     <row r="74" spans="3:39" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -5205,25 +5161,25 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="91" t="s">
+      <c r="T74" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="92"/>
-      <c r="V74" s="92"/>
-      <c r="W74" s="92"/>
-      <c r="X74" s="92"/>
-      <c r="Y74" s="92"/>
-      <c r="Z74" s="92"/>
-      <c r="AA74" s="92"/>
-      <c r="AB74" s="92"/>
-      <c r="AC74" s="92"/>
-      <c r="AD74" s="92"/>
-      <c r="AE74" s="92"/>
-      <c r="AF74" s="92"/>
-      <c r="AG74" s="92"/>
-      <c r="AH74" s="92"/>
-      <c r="AI74" s="92"/>
-      <c r="AJ74" s="93"/>
+      <c r="U74" s="70"/>
+      <c r="V74" s="70"/>
+      <c r="W74" s="70"/>
+      <c r="X74" s="70"/>
+      <c r="Y74" s="70"/>
+      <c r="Z74" s="70"/>
+      <c r="AA74" s="70"/>
+      <c r="AB74" s="70"/>
+      <c r="AC74" s="70"/>
+      <c r="AD74" s="70"/>
+      <c r="AE74" s="70"/>
+      <c r="AF74" s="70"/>
+      <c r="AG74" s="70"/>
+      <c r="AH74" s="70"/>
+      <c r="AI74" s="70"/>
+      <c r="AJ74" s="71"/>
       <c r="AK74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5556,14 +5512,14 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="67"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="69"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="74"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
@@ -5583,44 +5539,44 @@
       <c r="AA78" s="49"/>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
-      <c r="AD78" s="89"/>
-      <c r="AE78" s="89"/>
-      <c r="AF78" s="89"/>
-      <c r="AG78" s="89"/>
-      <c r="AH78" s="89"/>
-      <c r="AI78" s="90"/>
+      <c r="AD78" s="84"/>
+      <c r="AE78" s="84"/>
+      <c r="AF78" s="84"/>
+      <c r="AG78" s="84"/>
+      <c r="AH78" s="84"/>
+      <c r="AI78" s="85"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="70" t="s">
+      <c r="C82" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70"/>
-      <c r="K82" s="70"/>
-      <c r="M82" s="94" t="s">
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="M82" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="N82" s="95"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="95"/>
-      <c r="Q82" s="95"/>
-      <c r="R82" s="95"/>
-      <c r="S82" s="95"/>
-      <c r="T82" s="95"/>
-      <c r="U82" s="95"/>
-      <c r="V82" s="95"/>
-      <c r="W82" s="95"/>
-      <c r="X82" s="95"/>
-      <c r="Y82" s="95"/>
-      <c r="Z82" s="95"/>
-      <c r="AA82" s="95"/>
-      <c r="AB82" s="95"/>
-      <c r="AC82" s="96"/>
+      <c r="N82" s="78"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="78"/>
+      <c r="S82" s="78"/>
+      <c r="T82" s="78"/>
+      <c r="U82" s="78"/>
+      <c r="V82" s="78"/>
+      <c r="W82" s="78"/>
+      <c r="X82" s="78"/>
+      <c r="Y82" s="78"/>
+      <c r="Z82" s="78"/>
+      <c r="AA82" s="78"/>
+      <c r="AB82" s="78"/>
+      <c r="AC82" s="79"/>
     </row>
     <row r="83" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
@@ -5671,16 +5627,16 @@
       <c r="S83" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="91" t="s">
+      <c r="T83" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="92"/>
-      <c r="V83" s="92"/>
-      <c r="W83" s="92"/>
-      <c r="X83" s="92"/>
-      <c r="Y83" s="92"/>
-      <c r="Z83" s="92"/>
-      <c r="AA83" s="93"/>
+      <c r="U83" s="70"/>
+      <c r="V83" s="70"/>
+      <c r="W83" s="70"/>
+      <c r="X83" s="70"/>
+      <c r="Y83" s="70"/>
+      <c r="Z83" s="70"/>
+      <c r="AA83" s="71"/>
       <c r="AB83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5926,66 +5882,66 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="67"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="69"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="74"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="97"/>
-      <c r="O87" s="98"/>
-      <c r="P87" s="98"/>
-      <c r="Q87" s="98"/>
-      <c r="R87" s="98"/>
-      <c r="S87" s="98"/>
-      <c r="T87" s="98"/>
-      <c r="U87" s="98"/>
-      <c r="V87" s="98"/>
-      <c r="W87" s="98"/>
-      <c r="X87" s="98"/>
-      <c r="Y87" s="98"/>
-      <c r="Z87" s="98"/>
-      <c r="AA87" s="98"/>
-      <c r="AB87" s="98"/>
-      <c r="AC87" s="99"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="81"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="81"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="81"/>
+      <c r="AB87" s="81"/>
+      <c r="AC87" s="82"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="M91" s="85" t="s">
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="M91" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="N91" s="85"/>
-      <c r="O91" s="85"/>
-      <c r="P91" s="85"/>
-      <c r="Q91" s="85"/>
-      <c r="R91" s="85"/>
-      <c r="S91" s="85"/>
-      <c r="T91" s="85"/>
-      <c r="U91" s="85"/>
-      <c r="V91" s="85"/>
-      <c r="W91" s="85"/>
-      <c r="X91" s="85"/>
-      <c r="Y91" s="85"/>
-      <c r="Z91" s="85"/>
-      <c r="AA91" s="85"/>
-      <c r="AB91" s="85"/>
-      <c r="AC91" s="85"/>
-      <c r="AD91" s="85"/>
+      <c r="N91" s="68"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="68"/>
+      <c r="R91" s="68"/>
+      <c r="S91" s="68"/>
+      <c r="T91" s="68"/>
+      <c r="U91" s="68"/>
+      <c r="V91" s="68"/>
+      <c r="W91" s="68"/>
+      <c r="X91" s="68"/>
+      <c r="Y91" s="68"/>
+      <c r="Z91" s="68"/>
+      <c r="AA91" s="68"/>
+      <c r="AB91" s="68"/>
+      <c r="AC91" s="68"/>
+      <c r="AD91" s="68"/>
     </row>
     <row r="92" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -6036,17 +5992,17 @@
       <c r="S92" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="91" t="s">
+      <c r="T92" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="92"/>
-      <c r="V92" s="92"/>
-      <c r="W92" s="92"/>
-      <c r="X92" s="92"/>
-      <c r="Y92" s="92"/>
-      <c r="Z92" s="92"/>
-      <c r="AA92" s="92"/>
-      <c r="AB92" s="93"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
+      <c r="W92" s="70"/>
+      <c r="X92" s="70"/>
+      <c r="Y92" s="70"/>
+      <c r="Z92" s="70"/>
+      <c r="AA92" s="70"/>
+      <c r="AB92" s="71"/>
       <c r="AC92" s="1" t="s">
         <v>9</v>
       </c>
@@ -6299,65 +6255,65 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="67"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="69"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
+      <c r="K96" s="74"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="87"/>
-      <c r="O96" s="87"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="87"/>
-      <c r="R96" s="87"/>
-      <c r="S96" s="87"/>
-      <c r="T96" s="87"/>
-      <c r="U96" s="87"/>
-      <c r="V96" s="87"/>
-      <c r="W96" s="87"/>
-      <c r="X96" s="87"/>
-      <c r="Y96" s="87"/>
-      <c r="Z96" s="87"/>
-      <c r="AA96" s="87"/>
-      <c r="AB96" s="87"/>
-      <c r="AC96" s="87"/>
-      <c r="AD96" s="87"/>
+      <c r="N96" s="76"/>
+      <c r="O96" s="76"/>
+      <c r="P96" s="76"/>
+      <c r="Q96" s="76"/>
+      <c r="R96" s="76"/>
+      <c r="S96" s="76"/>
+      <c r="T96" s="76"/>
+      <c r="U96" s="76"/>
+      <c r="V96" s="76"/>
+      <c r="W96" s="76"/>
+      <c r="X96" s="76"/>
+      <c r="Y96" s="76"/>
+      <c r="Z96" s="76"/>
+      <c r="AA96" s="76"/>
+      <c r="AB96" s="76"/>
+      <c r="AC96" s="76"/>
+      <c r="AD96" s="76"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="70" t="s">
+      <c r="C100" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="M100" s="85" t="s">
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
+      <c r="M100" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N100" s="85"/>
-      <c r="O100" s="85"/>
-      <c r="P100" s="85"/>
-      <c r="Q100" s="85"/>
-      <c r="R100" s="85"/>
-      <c r="S100" s="85"/>
-      <c r="T100" s="85"/>
-      <c r="U100" s="85"/>
-      <c r="V100" s="85"/>
-      <c r="W100" s="85"/>
-      <c r="X100" s="85"/>
-      <c r="Y100" s="85"/>
-      <c r="Z100" s="85"/>
-      <c r="AA100" s="85"/>
-      <c r="AB100" s="85"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="68"/>
+      <c r="Q100" s="68"/>
+      <c r="R100" s="68"/>
+      <c r="S100" s="68"/>
+      <c r="T100" s="68"/>
+      <c r="U100" s="68"/>
+      <c r="V100" s="68"/>
+      <c r="W100" s="68"/>
+      <c r="X100" s="68"/>
+      <c r="Y100" s="68"/>
+      <c r="Z100" s="68"/>
+      <c r="AA100" s="68"/>
+      <c r="AB100" s="68"/>
     </row>
     <row r="101" spans="3:32" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
@@ -6408,15 +6364,15 @@
       <c r="S101" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="91" t="s">
+      <c r="T101" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="92"/>
-      <c r="V101" s="92"/>
-      <c r="W101" s="92"/>
-      <c r="X101" s="92"/>
-      <c r="Y101" s="92"/>
-      <c r="Z101" s="93"/>
+      <c r="U101" s="70"/>
+      <c r="V101" s="70"/>
+      <c r="W101" s="70"/>
+      <c r="X101" s="70"/>
+      <c r="Y101" s="70"/>
+      <c r="Z101" s="71"/>
       <c r="AA101" s="1" t="s">
         <v>9</v>
       </c>
@@ -6653,76 +6609,35 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="68"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="69"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="74"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="100"/>
-      <c r="O105" s="100"/>
-      <c r="P105" s="100"/>
-      <c r="Q105" s="100"/>
-      <c r="R105" s="100"/>
-      <c r="S105" s="100"/>
-      <c r="T105" s="100"/>
-      <c r="U105" s="100"/>
-      <c r="V105" s="100"/>
-      <c r="W105" s="100"/>
-      <c r="X105" s="100"/>
-      <c r="Y105" s="100"/>
-      <c r="Z105" s="100"/>
-      <c r="AA105" s="100"/>
-      <c r="AB105" s="100"/>
+      <c r="N105" s="75"/>
+      <c r="O105" s="75"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="75"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="75"/>
+      <c r="T105" s="75"/>
+      <c r="U105" s="75"/>
+      <c r="V105" s="75"/>
+      <c r="W105" s="75"/>
+      <c r="X105" s="75"/>
+      <c r="Y105" s="75"/>
+      <c r="Z105" s="75"/>
+      <c r="AA105" s="75"/>
+      <c r="AB105" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="M100:AB100"/>
-    <mergeCell ref="T101:Z101"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="N105:AB105"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="M91:AD91"/>
-    <mergeCell ref="T92:AB92"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="N96:AD96"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="M82:AC82"/>
-    <mergeCell ref="T83:AA83"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="N87:AC87"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="AE73:AK73"/>
-    <mergeCell ref="AD78:AI78"/>
-    <mergeCell ref="T74:AJ74"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="M64:Z64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="N42:V42"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="N30:V30"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="M37:Y37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="AA27:AH27"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="M17:AA17"/>
@@ -6732,6 +6647,47 @@
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="N30:V30"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="M37:Y37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="M64:Z64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="N69:Z69"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="AE73:AK73"/>
+    <mergeCell ref="AD78:AI78"/>
+    <mergeCell ref="T74:AJ74"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="M82:AC82"/>
+    <mergeCell ref="T83:AA83"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="N87:AC87"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="M91:AD91"/>
+    <mergeCell ref="T92:AB92"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="N96:AD96"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="M100:AB100"/>
+    <mergeCell ref="T101:Z101"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="N105:AB105"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6756,38 +6712,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="V2" s="102" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="V2" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -6811,17 +6767,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7115,64 +7071,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="87" t="s">
+      <c r="W7" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="N9" s="102" t="s">
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="N9" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7420,65 +7376,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Z16" s="102" t="s">
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Z16" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7502,21 +7458,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="86" t="s">
+      <c r="J17" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -7840,45 +7796,50 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="87" t="s">
+      <c r="AA21" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="W7:AE7"/>
     <mergeCell ref="Z16:AI16"/>
     <mergeCell ref="J17:V17"/>
     <mergeCell ref="D21:X21"/>
@@ -7888,11 +7849,6 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="W7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7904,8 +7860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+    <sheetView topLeftCell="M37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC91" sqref="AC91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7921,21 +7877,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="103" t="s">
-        <v>378</v>
-      </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="C2" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="109"/>
     </row>
     <row r="3" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -7959,12 +7915,12 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="98"/>
       <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7995,16 +7951,16 @@
         <v>18</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>19</v>
@@ -8090,34 +8046,34 @@
     <row r="14" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="111"/>
-      <c r="N16" s="106" t="s">
+      <c r="C16" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="113"/>
+      <c r="N16" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="O16" s="110"/>
+      <c r="Q16" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="O16" s="106"/>
-      <c r="Q16" s="106" t="s">
-        <v>302</v>
-      </c>
-      <c r="R16" s="106"/>
-      <c r="T16" s="106" t="s">
+      <c r="R16" s="110"/>
+      <c r="T16" s="110" t="s">
+        <v>307</v>
+      </c>
+      <c r="U16" s="110"/>
+      <c r="W16" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="U16" s="106"/>
-      <c r="W16" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="X16" s="106"/>
+      <c r="X16" s="110"/>
     </row>
     <row r="17" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -8151,25 +8107,25 @@
         <v>10</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="R17" s="26">
         <v>0</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="X17" s="26">
         <v>0</v>
@@ -8198,7 +8154,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -8207,25 +8163,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="R18" s="26">
         <v>1</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="U18" s="26">
         <v>1</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="X18" s="26">
         <v>1</v>
@@ -8263,25 +8219,25 @@
         <v>1</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O19" s="26">
         <v>2</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="R19" s="26">
         <v>2</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="U19" s="26">
         <v>2</v>
       </c>
       <c r="W19" s="26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="X19" s="26">
         <v>2</v>
@@ -8295,7 +8251,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -8307,7 +8263,7 @@
         <v>149</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="4"/>
@@ -8315,25 +8271,25 @@
         <v>23</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O20" s="26">
         <v>3</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="R20" s="26">
         <v>3</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="U20" s="26">
         <v>3</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X20" s="26">
         <v>3</v>
@@ -8341,63 +8297,63 @@
     </row>
     <row r="21" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
       <c r="N21" s="26" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O21" s="26">
         <v>4</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="R21" s="26">
         <v>4</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="U21" s="26">
         <v>4</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="X21" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
+      <c r="C22" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
       <c r="N22" s="26" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O22" s="26">
         <v>5</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="R22" s="26">
         <v>5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="U22" s="26">
         <v>5</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X22" s="26">
         <v>5</v>
@@ -8435,25 +8391,25 @@
         <v>10</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O23" s="26">
         <v>6</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="R23" s="26">
         <v>6</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="U23" s="26">
         <v>6</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="X23" s="26">
         <v>6</v>
@@ -8482,7 +8438,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
@@ -8491,19 +8447,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="R24" s="26">
         <v>7</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="U24" s="26">
         <v>7</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="X24" s="26">
         <v>7</v>
@@ -8541,13 +8497,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="R25" s="26">
         <v>8</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="U25" s="26">
         <v>8</v>
@@ -8561,7 +8517,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>26</v>
@@ -8573,7 +8529,7 @@
         <v>149</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="4"/>
@@ -8581,13 +8537,13 @@
         <v>23</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="R26" s="26">
         <v>9</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="U26" s="26">
         <v>9</v>
@@ -8595,31 +8551,31 @@
     </row>
     <row r="27" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Q27" s="26" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="R27" s="26">
         <v>10</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="U27" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C29" s="109" t="s">
-        <v>305</v>
-      </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
+      <c r="C29" s="111" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="113"/>
     </row>
     <row r="30" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
@@ -8676,7 +8632,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>19</v>
@@ -8725,7 +8681,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>26</v>
@@ -8737,7 +8693,7 @@
         <v>149</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="4"/>
@@ -8746,18 +8702,18 @@
       </c>
     </row>
     <row r="37" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
+      <c r="C37" s="111" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="113"/>
     </row>
     <row r="38" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -8814,7 +8770,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>19</v>
@@ -8863,7 +8819,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>26</v>
@@ -8875,7 +8831,7 @@
         <v>149</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="4"/>
@@ -8884,31 +8840,31 @@
       </c>
     </row>
     <row r="46" spans="3:24" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="N46" s="108" t="s">
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="N46" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="106"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
     </row>
     <row r="47" spans="3:24" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
@@ -9189,31 +9145,31 @@
       </c>
     </row>
     <row r="54" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C54" s="107" t="s">
-        <v>329</v>
-      </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="N54" s="108" t="s">
-        <v>330</v>
-      </c>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="108"/>
-      <c r="U54" s="108"/>
-      <c r="V54" s="108"/>
-      <c r="W54" s="108"/>
-      <c r="X54" s="108"/>
+      <c r="C54" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="N54" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="106"/>
     </row>
     <row r="55" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
@@ -9415,7 +9371,7 @@
         <v>85</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J58" s="28" t="s">
         <v>177</v>
@@ -9443,10 +9399,10 @@
         <v>85</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>9</v>
@@ -9475,7 +9431,7 @@
         <v>85</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="U59" s="60" t="s">
         <v>180</v>
@@ -9494,31 +9450,31 @@
       </c>
     </row>
     <row r="63" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C63" s="107" t="s">
-        <v>331</v>
-      </c>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="N63" s="108" t="s">
-        <v>332</v>
-      </c>
-      <c r="O63" s="108"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="108"/>
-      <c r="T63" s="108"/>
-      <c r="U63" s="108"/>
-      <c r="V63" s="108"/>
-      <c r="W63" s="108"/>
-      <c r="X63" s="108"/>
+      <c r="C63" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="103"/>
+      <c r="L63" s="103"/>
+      <c r="N63" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="O63" s="106"/>
+      <c r="P63" s="106"/>
+      <c r="Q63" s="106"/>
+      <c r="R63" s="106"/>
+      <c r="S63" s="106"/>
+      <c r="T63" s="106"/>
+      <c r="U63" s="106"/>
+      <c r="V63" s="106"/>
+      <c r="W63" s="106"/>
+      <c r="X63" s="106"/>
     </row>
     <row r="64" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
@@ -9720,7 +9676,7 @@
         <v>85</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J67" s="28" t="s">
         <v>177</v>
@@ -9748,7 +9704,7 @@
         <v>85</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="U67" s="59" t="s">
         <v>178</v>
@@ -9780,7 +9736,7 @@
         <v>85</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="U68" s="60" t="s">
         <v>180</v>
@@ -9799,31 +9755,31 @@
       </c>
     </row>
     <row r="74" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C74" s="107" t="s">
-        <v>334</v>
-      </c>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="107"/>
-      <c r="N74" s="108" t="s">
-        <v>335</v>
-      </c>
-      <c r="O74" s="108"/>
-      <c r="P74" s="108"/>
-      <c r="Q74" s="108"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="108"/>
-      <c r="T74" s="108"/>
-      <c r="U74" s="108"/>
-      <c r="V74" s="108"/>
-      <c r="W74" s="108"/>
-      <c r="X74" s="108"/>
+      <c r="C74" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
+      <c r="L74" s="103"/>
+      <c r="N74" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="O74" s="106"/>
+      <c r="P74" s="106"/>
+      <c r="Q74" s="106"/>
+      <c r="R74" s="106"/>
+      <c r="S74" s="106"/>
+      <c r="T74" s="106"/>
+      <c r="U74" s="106"/>
+      <c r="V74" s="106"/>
+      <c r="W74" s="106"/>
+      <c r="X74" s="106"/>
     </row>
     <row r="75" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
@@ -10025,10 +9981,10 @@
         <v>85</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4">
@@ -10053,7 +10009,7 @@
         <v>85</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U78" s="59" t="s">
         <v>178</v>
@@ -10104,29 +10060,29 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="107" t="s">
-        <v>336</v>
-      </c>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="N83" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="O83" s="113"/>
-      <c r="P83" s="113"/>
-      <c r="Q83" s="113"/>
-      <c r="R83" s="113"/>
-      <c r="S83" s="113"/>
-      <c r="T83" s="113"/>
-      <c r="U83" s="113"/>
-      <c r="V83" s="113"/>
+      <c r="C83" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="103"/>
+      <c r="N83" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="O83" s="105"/>
+      <c r="P83" s="105"/>
+      <c r="Q83" s="105"/>
+      <c r="R83" s="105"/>
+      <c r="S83" s="105"/>
+      <c r="T83" s="105"/>
+      <c r="U83" s="105"/>
+      <c r="V83" s="105"/>
     </row>
     <row r="84" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
@@ -10240,10 +10196,10 @@
         <v>18</v>
       </c>
       <c r="U85" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="V85" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10325,7 +10281,7 @@
         <v>85</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J87" s="28" t="s">
         <v>177</v>
@@ -10341,7 +10297,7 @@
         <v>24</v>
       </c>
       <c r="P87" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q87" s="58" t="s">
         <v>26</v>
@@ -10353,7 +10309,7 @@
         <v>85</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="U87" s="59"/>
       <c r="V87" s="59">
@@ -10361,29 +10317,29 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="107" t="s">
-        <v>341</v>
-      </c>
-      <c r="D91" s="107"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="107"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="107"/>
-      <c r="L91" s="107"/>
-      <c r="N91" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="O91" s="113"/>
-      <c r="P91" s="113"/>
-      <c r="Q91" s="113"/>
-      <c r="R91" s="113"/>
-      <c r="S91" s="113"/>
-      <c r="T91" s="113"/>
-      <c r="U91" s="113"/>
-      <c r="V91" s="113"/>
+      <c r="C91" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="103"/>
+      <c r="I91" s="103"/>
+      <c r="J91" s="103"/>
+      <c r="K91" s="103"/>
+      <c r="L91" s="103"/>
+      <c r="N91" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="105"/>
+      <c r="S91" s="105"/>
+      <c r="T91" s="105"/>
+      <c r="U91" s="105"/>
+      <c r="V91" s="105"/>
     </row>
     <row r="92" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
@@ -10497,10 +10453,10 @@
         <v>18</v>
       </c>
       <c r="U93" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="V93" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="3:22" ht="17.25" x14ac:dyDescent="0.15">
@@ -10582,7 +10538,7 @@
         <v>85</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J95" s="28" t="s">
         <v>177</v>
@@ -10598,7 +10554,7 @@
         <v>24</v>
       </c>
       <c r="P95" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q95" s="58" t="s">
         <v>26</v>
@@ -10610,7 +10566,7 @@
         <v>85</v>
       </c>
       <c r="T95" s="25" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="U95" s="59"/>
       <c r="V95" s="59">
@@ -10619,16 +10575,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="N83:V83"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="N91:V91"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="N54:X54"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="N63:X63"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="N74:X74"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="W16:X16"/>
@@ -10641,6 +10587,16 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="N83:V83"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="N91:V91"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="N54:X54"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="N63:X63"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="N74:X74"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10652,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10712,15 +10668,15 @@
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -10802,13 +10758,13 @@
         <v>199</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>200</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10822,17 +10778,15 @@
         <v>202</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
@@ -10846,14 +10800,12 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="66" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>285</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
@@ -10863,18 +10815,16 @@
         <v>206</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="66" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>286</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
@@ -10884,18 +10834,13 @@
         <v>208</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="66" t="s">
-        <v>209</v>
-      </c>
       <c r="G14" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>288</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
@@ -10903,16 +10848,14 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="66" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>320</v>
-      </c>
+      <c r="G15" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
@@ -10923,11 +10866,9 @@
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>354</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
@@ -10937,12 +10878,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>355</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
@@ -10952,12 +10888,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
@@ -10967,9 +10898,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
-      <c r="H19" s="9" t="s">
-        <v>357</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
@@ -11224,7 +11153,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="119" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -11236,7 +11165,7 @@
       <c r="I1" s="120"/>
       <c r="J1" s="120"/>
       <c r="L1" s="119" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M1" s="120"/>
       <c r="N1" s="120"/>
@@ -11332,10 +11261,10 @@
         <v>175</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>12</v>
@@ -11359,10 +11288,10 @@
         <v>18</v>
       </c>
       <c r="S3" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11432,19 +11361,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>177</v>
@@ -11460,19 +11389,19 @@
         <v>24</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59">
@@ -11481,7 +11410,7 @@
     </row>
     <row r="10" spans="1:20" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A10" s="119" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B10" s="120"/>
       <c r="C10" s="120"/>
@@ -11493,7 +11422,7 @@
       <c r="I10" s="120"/>
       <c r="J10" s="120"/>
       <c r="L10" s="119" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M10" s="120"/>
       <c r="N10" s="120"/>
@@ -11589,10 +11518,10 @@
         <v>175</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>12</v>
@@ -11616,10 +11545,10 @@
         <v>18</v>
       </c>
       <c r="S12" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="T12" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.15">
@@ -11689,19 +11618,19 @@
         <v>24</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>177</v>
@@ -11717,19 +11646,19 @@
         <v>24</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O14" s="58" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59">
@@ -11759,17 +11688,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="121" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="B7" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
     </row>
     <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11823,10 +11752,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11866,7 +11795,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>26</v>
@@ -11875,10 +11804,10 @@
         <v>131</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59">
@@ -11886,17 +11815,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="121" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
+      <c r="B14" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="55" t="s">
@@ -11950,10 +11879,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -11993,7 +11922,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>26</v>
@@ -12002,10 +11931,10 @@
         <v>131</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59">
@@ -12013,17 +11942,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="121" t="s">
-        <v>347</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
+      <c r="B23" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B24" s="55" t="s">
@@ -12077,10 +12006,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J25" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -12120,7 +12049,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>26</v>
@@ -12129,10 +12058,10 @@
         <v>131</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -12140,17 +12069,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="121" t="s">
-        <v>348</v>
-      </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
+      <c r="B32" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="55" t="s">
@@ -12204,10 +12133,10 @@
         <v>18</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J34" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12247,7 +12176,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>26</v>
@@ -12256,10 +12185,10 @@
         <v>131</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59">
@@ -12267,18 +12196,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="123" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
+      <c r="B39" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
     </row>
     <row r="40" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B40" s="55" t="s">
@@ -12335,13 +12264,13 @@
         <v>18</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J41" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12384,7 +12313,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>26</v>
@@ -12393,10 +12322,10 @@
         <v>131</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="59"/>
@@ -12405,17 +12334,17 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="121" t="s">
-        <v>350</v>
-      </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
+      <c r="B46" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B47" s="55" t="s">
@@ -12469,10 +12398,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J48" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12512,7 +12441,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>26</v>
@@ -12521,10 +12450,10 @@
         <v>131</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I50" s="59"/>
       <c r="J50" s="59">
@@ -12532,18 +12461,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="123" t="s">
-        <v>358</v>
-      </c>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
+      <c r="B52" s="121" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B53" s="55" t="s">
@@ -12600,13 +12529,13 @@
         <v>18</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J54" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K54" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12649,7 +12578,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>26</v>
@@ -12658,10 +12587,10 @@
         <v>131</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="59"/>
@@ -12670,18 +12599,18 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="123" t="s">
-        <v>360</v>
-      </c>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
+      <c r="B58" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
@@ -12738,13 +12667,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J60" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K60" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12787,7 +12716,7 @@
         <v>24</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>26</v>
@@ -12796,10 +12725,10 @@
         <v>131</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="59"/>
@@ -12808,18 +12737,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="123" t="s">
-        <v>361</v>
-      </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
+      <c r="B66" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="122"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
     </row>
     <row r="67" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B67" s="55" t="s">
@@ -12876,13 +12805,13 @@
         <v>18</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J68" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K68" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -12925,7 +12854,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>26</v>
@@ -12934,10 +12863,10 @@
         <v>131</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="59"/>
@@ -12946,18 +12875,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
+      <c r="B73" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="122"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B74" s="55" t="s">
@@ -13014,13 +12943,13 @@
         <v>18</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J75" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K75" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
@@ -13063,7 +12992,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>26</v>
@@ -13072,10 +13001,10 @@
         <v>131</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="59"/>
@@ -13085,16 +13014,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B39:K39"/>
     <mergeCell ref="B52:K52"/>
     <mergeCell ref="B58:K58"/>
     <mergeCell ref="B66:K66"/>
     <mergeCell ref="B73:K73"/>
     <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B39:K39"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
